--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="miscellaneous_constants" sheetId="1" r:id="rId1"/>
+    <sheet name="programs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>program_proportion_detect</t>
   </si>
@@ -83,6 +84,24 @@
   </si>
   <si>
     <t>tb_n_contact</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>program_prop_vaccination</t>
+  </si>
+  <si>
+    <t>program_prop_detect</t>
+  </si>
+  <si>
+    <t>program_prop_algorithm_sensitivity</t>
+  </si>
+  <si>
+    <t>program_prop_firstline_dst</t>
+  </si>
+  <si>
+    <t>program_prop_secondline_dst</t>
   </si>
 </sst>
 </file>
@@ -91,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -893,13 +912,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1872,7 +1891,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2066,4 +2085,234 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="50" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>1920</v>
+      </c>
+      <c r="C1">
+        <v>1930</v>
+      </c>
+      <c r="D1">
+        <v>1940</v>
+      </c>
+      <c r="E1">
+        <v>1950</v>
+      </c>
+      <c r="F1">
+        <v>1955</v>
+      </c>
+      <c r="G1">
+        <v>1960</v>
+      </c>
+      <c r="H1">
+        <v>1965</v>
+      </c>
+      <c r="I1">
+        <v>1970</v>
+      </c>
+      <c r="J1">
+        <v>1975</v>
+      </c>
+      <c r="K1">
+        <v>1976</v>
+      </c>
+      <c r="L1">
+        <v>1977</v>
+      </c>
+      <c r="M1">
+        <v>1978</v>
+      </c>
+      <c r="N1">
+        <v>1979</v>
+      </c>
+      <c r="O1">
+        <v>1980</v>
+      </c>
+      <c r="P1">
+        <v>1981</v>
+      </c>
+      <c r="Q1">
+        <v>1982</v>
+      </c>
+      <c r="R1">
+        <v>1983</v>
+      </c>
+      <c r="S1">
+        <v>1984</v>
+      </c>
+      <c r="T1">
+        <v>1985</v>
+      </c>
+      <c r="U1">
+        <v>1986</v>
+      </c>
+      <c r="V1">
+        <v>1987</v>
+      </c>
+      <c r="W1">
+        <v>1988</v>
+      </c>
+      <c r="X1">
+        <v>1989</v>
+      </c>
+      <c r="Y1">
+        <v>1990</v>
+      </c>
+      <c r="Z1">
+        <v>1991</v>
+      </c>
+      <c r="AA1">
+        <v>1992</v>
+      </c>
+      <c r="AB1">
+        <v>1993</v>
+      </c>
+      <c r="AC1">
+        <v>1994</v>
+      </c>
+      <c r="AD1">
+        <v>1995</v>
+      </c>
+      <c r="AE1">
+        <v>1996</v>
+      </c>
+      <c r="AF1">
+        <v>1997</v>
+      </c>
+      <c r="AG1">
+        <v>1998</v>
+      </c>
+      <c r="AH1">
+        <v>1999</v>
+      </c>
+      <c r="AI1">
+        <v>2000</v>
+      </c>
+      <c r="AJ1">
+        <v>2001</v>
+      </c>
+      <c r="AK1">
+        <v>2002</v>
+      </c>
+      <c r="AL1">
+        <v>2003</v>
+      </c>
+      <c r="AM1">
+        <v>2004</v>
+      </c>
+      <c r="AN1">
+        <v>2005</v>
+      </c>
+      <c r="AO1">
+        <v>2006</v>
+      </c>
+      <c r="AP1">
+        <v>2007</v>
+      </c>
+      <c r="AQ1">
+        <v>2008</v>
+      </c>
+      <c r="AR1">
+        <v>2009</v>
+      </c>
+      <c r="AS1">
+        <v>2010</v>
+      </c>
+      <c r="AT1">
+        <v>2011</v>
+      </c>
+      <c r="AU1">
+        <v>2012</v>
+      </c>
+      <c r="AV1">
+        <v>2013</v>
+      </c>
+      <c r="AW1">
+        <v>2014</v>
+      </c>
+      <c r="AX1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>program_proportion_detect</t>
   </si>
@@ -86,9 +86,6 @@
     <t>tb_n_contact</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>program_prop_vaccination</t>
   </si>
   <si>
@@ -102,6 +99,18 @@
   </si>
   <si>
     <t>program_prop_secondline_dst</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>load_data</t>
+  </si>
+  <si>
+    <t>program</t>
   </si>
 </sst>
 </file>
@@ -2089,226 +2098,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="50" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="51" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>1920</v>
+      </c>
+      <c r="D1">
+        <v>1930</v>
+      </c>
+      <c r="E1">
+        <v>1940</v>
+      </c>
+      <c r="F1">
+        <v>1950</v>
+      </c>
+      <c r="G1">
+        <v>1955</v>
+      </c>
+      <c r="H1">
+        <v>1960</v>
+      </c>
+      <c r="I1">
+        <v>1965</v>
+      </c>
+      <c r="J1">
+        <v>1970</v>
+      </c>
+      <c r="K1">
+        <v>1975</v>
+      </c>
+      <c r="L1">
+        <v>1976</v>
+      </c>
+      <c r="M1">
+        <v>1977</v>
+      </c>
+      <c r="N1">
+        <v>1978</v>
+      </c>
+      <c r="O1">
+        <v>1979</v>
+      </c>
+      <c r="P1">
+        <v>1980</v>
+      </c>
+      <c r="Q1">
+        <v>1981</v>
+      </c>
+      <c r="R1">
+        <v>1982</v>
+      </c>
+      <c r="S1">
+        <v>1983</v>
+      </c>
+      <c r="T1">
+        <v>1984</v>
+      </c>
+      <c r="U1">
+        <v>1985</v>
+      </c>
+      <c r="V1">
+        <v>1986</v>
+      </c>
+      <c r="W1">
+        <v>1987</v>
+      </c>
+      <c r="X1">
+        <v>1988</v>
+      </c>
+      <c r="Y1">
+        <v>1989</v>
+      </c>
+      <c r="Z1">
+        <v>1990</v>
+      </c>
+      <c r="AA1">
+        <v>1991</v>
+      </c>
+      <c r="AB1">
+        <v>1992</v>
+      </c>
+      <c r="AC1">
+        <v>1993</v>
+      </c>
+      <c r="AD1">
+        <v>1994</v>
+      </c>
+      <c r="AE1">
+        <v>1995</v>
+      </c>
+      <c r="AF1">
+        <v>1996</v>
+      </c>
+      <c r="AG1">
+        <v>1997</v>
+      </c>
+      <c r="AH1">
+        <v>1998</v>
+      </c>
+      <c r="AI1">
+        <v>1999</v>
+      </c>
+      <c r="AJ1">
+        <v>2000</v>
+      </c>
+      <c r="AK1">
+        <v>2001</v>
+      </c>
+      <c r="AL1">
+        <v>2002</v>
+      </c>
+      <c r="AM1">
+        <v>2003</v>
+      </c>
+      <c r="AN1">
+        <v>2004</v>
+      </c>
+      <c r="AO1">
+        <v>2005</v>
+      </c>
+      <c r="AP1">
+        <v>2006</v>
+      </c>
+      <c r="AQ1">
+        <v>2007</v>
+      </c>
+      <c r="AR1">
+        <v>2008</v>
+      </c>
+      <c r="AS1">
+        <v>2009</v>
+      </c>
+      <c r="AT1">
+        <v>2010</v>
+      </c>
+      <c r="AU1">
+        <v>2011</v>
+      </c>
+      <c r="AV1">
+        <v>2012</v>
+      </c>
+      <c r="AW1">
+        <v>2013</v>
+      </c>
+      <c r="AX1">
+        <v>2014</v>
+      </c>
+      <c r="AY1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B1">
-        <v>1920</v>
-      </c>
-      <c r="C1">
-        <v>1930</v>
-      </c>
-      <c r="D1">
-        <v>1940</v>
-      </c>
-      <c r="E1">
-        <v>1950</v>
-      </c>
-      <c r="F1">
-        <v>1955</v>
-      </c>
-      <c r="G1">
-        <v>1960</v>
-      </c>
-      <c r="H1">
-        <v>1965</v>
-      </c>
-      <c r="I1">
-        <v>1970</v>
-      </c>
-      <c r="J1">
-        <v>1975</v>
-      </c>
-      <c r="K1">
-        <v>1976</v>
-      </c>
-      <c r="L1">
-        <v>1977</v>
-      </c>
-      <c r="M1">
-        <v>1978</v>
-      </c>
-      <c r="N1">
-        <v>1979</v>
-      </c>
-      <c r="O1">
-        <v>1980</v>
-      </c>
-      <c r="P1">
-        <v>1981</v>
-      </c>
-      <c r="Q1">
-        <v>1982</v>
-      </c>
-      <c r="R1">
-        <v>1983</v>
-      </c>
-      <c r="S1">
-        <v>1984</v>
-      </c>
-      <c r="T1">
-        <v>1985</v>
-      </c>
-      <c r="U1">
-        <v>1986</v>
-      </c>
-      <c r="V1">
-        <v>1987</v>
-      </c>
-      <c r="W1">
-        <v>1988</v>
-      </c>
-      <c r="X1">
-        <v>1989</v>
-      </c>
-      <c r="Y1">
-        <v>1990</v>
-      </c>
-      <c r="Z1">
-        <v>1991</v>
-      </c>
-      <c r="AA1">
-        <v>1992</v>
-      </c>
-      <c r="AB1">
-        <v>1993</v>
-      </c>
-      <c r="AC1">
-        <v>1994</v>
-      </c>
-      <c r="AD1">
-        <v>1995</v>
-      </c>
-      <c r="AE1">
-        <v>1996</v>
-      </c>
-      <c r="AF1">
-        <v>1997</v>
-      </c>
-      <c r="AG1">
-        <v>1998</v>
-      </c>
-      <c r="AH1">
-        <v>1999</v>
-      </c>
-      <c r="AI1">
-        <v>2000</v>
-      </c>
-      <c r="AJ1">
-        <v>2001</v>
-      </c>
-      <c r="AK1">
-        <v>2002</v>
-      </c>
-      <c r="AL1">
-        <v>2003</v>
-      </c>
-      <c r="AM1">
-        <v>2004</v>
-      </c>
-      <c r="AN1">
-        <v>2005</v>
-      </c>
-      <c r="AO1">
-        <v>2006</v>
-      </c>
-      <c r="AP1">
-        <v>2007</v>
-      </c>
-      <c r="AQ1">
-        <v>2008</v>
-      </c>
-      <c r="AR1">
-        <v>2009</v>
-      </c>
-      <c r="AS1">
-        <v>2010</v>
-      </c>
-      <c r="AT1">
-        <v>2011</v>
-      </c>
-      <c r="AU1">
-        <v>2012</v>
-      </c>
-      <c r="AV1">
-        <v>2013</v>
-      </c>
-      <c r="AW1">
-        <v>2014</v>
-      </c>
-      <c r="AX1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
     </row>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="miscellaneous_constants" sheetId="1" r:id="rId1"/>
     <sheet name="programs" sheetId="2" r:id="rId2"/>
+    <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>program_proportion_detect</t>
   </si>
@@ -111,6 +112,27 @@
   </si>
   <si>
     <t>program</t>
+  </si>
+  <si>
+    <t>program_cost_vaccination</t>
+  </si>
+  <si>
+    <t>program_cost_detect</t>
+  </si>
+  <si>
+    <t>program_cost_algorithm_sensitivity</t>
+  </si>
+  <si>
+    <t>program_cost_lowquality</t>
+  </si>
+  <si>
+    <t>program_cost_firstline_dst</t>
+  </si>
+  <si>
+    <t>program_cost_secondline_dst</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -121,7 +143,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +197,36 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +250,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,6 +304,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -915,7 +1015,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -931,6 +1031,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2098,249 +2205,435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="51" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="7" customWidth="1"/>
+    <col min="5" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="7" customWidth="1"/>
+    <col min="10" max="47" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="13">
+        <v>1850</v>
+      </c>
+      <c r="D1" s="13">
         <v>1920</v>
       </c>
-      <c r="D1">
+      <c r="E1" s="13">
         <v>1930</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="13">
         <v>1940</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="13">
         <v>1950</v>
       </c>
-      <c r="G1">
+      <c r="H1" s="13">
         <v>1955</v>
       </c>
-      <c r="H1">
+      <c r="I1" s="13">
         <v>1960</v>
       </c>
-      <c r="I1">
+      <c r="J1" s="13">
         <v>1965</v>
       </c>
-      <c r="J1">
+      <c r="K1" s="13">
         <v>1970</v>
       </c>
-      <c r="K1">
+      <c r="L1" s="13">
         <v>1975</v>
       </c>
-      <c r="L1">
+      <c r="M1" s="13">
         <v>1976</v>
       </c>
-      <c r="M1">
+      <c r="N1" s="13">
         <v>1977</v>
       </c>
-      <c r="N1">
+      <c r="O1" s="13">
         <v>1978</v>
       </c>
-      <c r="O1">
+      <c r="P1" s="13">
         <v>1979</v>
       </c>
-      <c r="P1">
+      <c r="Q1" s="13">
         <v>1980</v>
       </c>
-      <c r="Q1">
+      <c r="R1" s="13">
         <v>1981</v>
       </c>
-      <c r="R1">
+      <c r="S1" s="13">
         <v>1982</v>
       </c>
-      <c r="S1">
+      <c r="T1" s="13">
         <v>1983</v>
       </c>
-      <c r="T1">
+      <c r="U1" s="13">
         <v>1984</v>
       </c>
-      <c r="U1">
+      <c r="V1" s="13">
         <v>1985</v>
       </c>
-      <c r="V1">
+      <c r="W1" s="13">
         <v>1986</v>
       </c>
-      <c r="W1">
+      <c r="X1" s="13">
         <v>1987</v>
       </c>
-      <c r="X1">
+      <c r="Y1" s="13">
         <v>1988</v>
       </c>
-      <c r="Y1">
+      <c r="Z1" s="13">
         <v>1989</v>
       </c>
-      <c r="Z1">
+      <c r="AA1" s="13">
         <v>1990</v>
       </c>
-      <c r="AA1">
+      <c r="AB1" s="13">
         <v>1991</v>
       </c>
-      <c r="AB1">
+      <c r="AC1" s="13">
         <v>1992</v>
       </c>
-      <c r="AC1">
+      <c r="AD1" s="13">
         <v>1993</v>
       </c>
-      <c r="AD1">
+      <c r="AE1" s="13">
         <v>1994</v>
       </c>
-      <c r="AE1">
+      <c r="AF1" s="13">
         <v>1995</v>
       </c>
-      <c r="AF1">
+      <c r="AG1" s="13">
         <v>1996</v>
       </c>
-      <c r="AG1">
+      <c r="AH1" s="13">
         <v>1997</v>
       </c>
-      <c r="AH1">
+      <c r="AI1" s="13">
         <v>1998</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1" s="13">
         <v>1999</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1" s="13">
         <v>2000</v>
       </c>
-      <c r="AK1">
+      <c r="AL1" s="13">
         <v>2001</v>
       </c>
-      <c r="AL1">
+      <c r="AM1" s="13">
         <v>2002</v>
       </c>
-      <c r="AM1">
+      <c r="AN1" s="13">
         <v>2003</v>
       </c>
-      <c r="AN1">
+      <c r="AO1" s="13">
         <v>2004</v>
       </c>
-      <c r="AO1">
+      <c r="AP1" s="13">
         <v>2005</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1" s="13">
         <v>2006</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1" s="13">
         <v>2007</v>
       </c>
-      <c r="AR1">
+      <c r="AS1" s="13">
         <v>2008</v>
       </c>
-      <c r="AS1">
+      <c r="AT1" s="13">
         <v>2009</v>
       </c>
-      <c r="AT1">
+      <c r="AU1" s="13">
         <v>2010</v>
       </c>
-      <c r="AU1">
+      <c r="AV1" s="13">
         <v>2011</v>
       </c>
-      <c r="AV1">
+      <c r="AW1" s="13">
         <v>2012</v>
       </c>
-      <c r="AW1">
+      <c r="AX1" s="13">
         <v>2013</v>
       </c>
-      <c r="AX1">
+      <c r="AY1" s="13">
         <v>2014</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1" s="13">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="F6" s="7">
+        <v>70</v>
+      </c>
+      <c r="I6" s="7">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>82</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>84</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -206,13 +206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -225,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,7 +253,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +1058,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1032,12 +1075,31 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2208,389 +2270,466 @@
   <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="7" customWidth="1"/>
-    <col min="5" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="7" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" style="7" customWidth="1"/>
-    <col min="10" max="47" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="7" customWidth="1"/>
+    <col min="13" max="21" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="7" customWidth="1"/>
+    <col min="23" max="24" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="7" customWidth="1"/>
+    <col min="26" max="47" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="49" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>1850</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>1920</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="11">
         <v>1930</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="11">
         <v>1940</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="11">
         <v>1950</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="11">
         <v>1955</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="11">
         <v>1960</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="11">
         <v>1965</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="11">
         <v>1970</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="11">
         <v>1975</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="11">
         <v>1976</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="11">
         <v>1977</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="11">
         <v>1978</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="11">
         <v>1979</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="11">
         <v>1980</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="11">
         <v>1981</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="11">
         <v>1982</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="11">
         <v>1983</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="11">
         <v>1984</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="11">
         <v>1985</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="11">
         <v>1986</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="11">
         <v>1987</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="Y1" s="11">
         <v>1988</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="Z1" s="11">
         <v>1989</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="AA1" s="11">
         <v>1990</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="11">
         <v>1991</v>
       </c>
-      <c r="AC1" s="13">
+      <c r="AC1" s="11">
         <v>1992</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AD1" s="11">
         <v>1993</v>
       </c>
-      <c r="AE1" s="13">
+      <c r="AE1" s="11">
         <v>1994</v>
       </c>
-      <c r="AF1" s="13">
+      <c r="AF1" s="11">
         <v>1995</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="11">
         <v>1996</v>
       </c>
-      <c r="AH1" s="13">
+      <c r="AH1" s="11">
         <v>1997</v>
       </c>
-      <c r="AI1" s="13">
+      <c r="AI1" s="11">
         <v>1998</v>
       </c>
-      <c r="AJ1" s="13">
+      <c r="AJ1" s="11">
         <v>1999</v>
       </c>
-      <c r="AK1" s="13">
+      <c r="AK1" s="11">
         <v>2000</v>
       </c>
-      <c r="AL1" s="13">
+      <c r="AL1" s="11">
         <v>2001</v>
       </c>
-      <c r="AM1" s="13">
+      <c r="AM1" s="11">
         <v>2002</v>
       </c>
-      <c r="AN1" s="13">
+      <c r="AN1" s="11">
         <v>2003</v>
       </c>
-      <c r="AO1" s="13">
+      <c r="AO1" s="11">
         <v>2004</v>
       </c>
-      <c r="AP1" s="13">
+      <c r="AP1" s="11">
         <v>2005</v>
       </c>
-      <c r="AQ1" s="13">
+      <c r="AQ1" s="11">
         <v>2006</v>
       </c>
-      <c r="AR1" s="13">
+      <c r="AR1" s="11">
         <v>2007</v>
       </c>
-      <c r="AS1" s="13">
+      <c r="AS1" s="11">
         <v>2008</v>
       </c>
-      <c r="AT1" s="13">
+      <c r="AT1" s="11">
         <v>2009</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="AU1" s="11">
         <v>2010</v>
       </c>
-      <c r="AV1" s="13">
+      <c r="AV1" s="11">
         <v>2011</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="AW1" s="11">
         <v>2012</v>
       </c>
-      <c r="AX1" s="13">
+      <c r="AX1" s="11">
         <v>2013</v>
       </c>
-      <c r="AY1" s="13">
+      <c r="AY1" s="11">
         <v>2014</v>
       </c>
-      <c r="AZ1" s="13">
+      <c r="AZ1" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="13">
+        <v>25</v>
+      </c>
+      <c r="L2" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+    </row>
+    <row r="3" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="L3" s="13">
+        <v>15040500</v>
+      </c>
+      <c r="V3" s="13">
+        <v>39034561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
         <v>10</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="S4" s="16">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+    </row>
+    <row r="5" spans="1:52" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+    </row>
+    <row r="6" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19">
+        <v>70</v>
+      </c>
+      <c r="F6" s="19">
+        <v>70</v>
+      </c>
+      <c r="I6" s="19">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>82</v>
+      </c>
+      <c r="AL6" s="19">
+        <v>84</v>
+      </c>
+      <c r="AY6" s="19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <v>10</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="F7" s="19">
+        <v>1005000</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2040504</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>4049504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="23">
+        <v>40</v>
+      </c>
+      <c r="AK10" s="23">
         <v>50</v>
       </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="11" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>7</v>
+      </c>
+      <c r="V12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>50</v>
+      </c>
+      <c r="AK12" s="25">
         <v>70</v>
       </c>
-      <c r="F6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>82</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>84</v>
-      </c>
-      <c r="AY6" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="13" spans="1:52" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
+      <c r="C13" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2737,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2267,35 +2267,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="7" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="7" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="7" customWidth="1"/>
-    <col min="13" max="21" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="7" customWidth="1"/>
-    <col min="23" max="24" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="7" customWidth="1"/>
-    <col min="26" max="47" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="7.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="7" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="7" customWidth="1"/>
+    <col min="12" max="20" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="7" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" style="7" customWidth="1"/>
+    <col min="25" max="46" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -2303,175 +2302,170 @@
         <v>30</v>
       </c>
       <c r="C1" s="11">
-        <v>1850</v>
+        <v>1920</v>
       </c>
       <c r="D1" s="11">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="E1" s="11">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="F1" s="11">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="G1" s="11">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="H1" s="11">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="I1" s="11">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="J1" s="11">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="K1" s="11">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="L1" s="11">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="M1" s="11">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="N1" s="11">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="O1" s="11">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="P1" s="11">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="Q1" s="11">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="R1" s="11">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="S1" s="11">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="T1" s="11">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="U1" s="11">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="V1" s="11">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="W1" s="11">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="X1" s="11">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="Y1" s="11">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="Z1" s="11">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="AA1" s="11">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="AB1" s="11">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="AC1" s="11">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AD1" s="11">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="AE1" s="11">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="AF1" s="11">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="AG1" s="11">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="AH1" s="11">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="AI1" s="11">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="AJ1" s="11">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="AK1" s="11">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="AL1" s="11">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="AM1" s="11">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AN1" s="11">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="AO1" s="11">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="AP1" s="11">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="AQ1" s="11">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="AR1" s="11">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="AS1" s="11">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="AT1" s="11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="AU1" s="11">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="AV1" s="11">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="AW1" s="11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="AX1" s="11">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AY1" s="11">
-        <v>2014</v>
-      </c>
-      <c r="AZ1" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="H2" s="13">
         <v>25</v>
       </c>
-      <c r="L2" s="13">
+      <c r="K2" s="13">
         <v>40</v>
       </c>
+      <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
@@ -2506,50 +2500,44 @@
       <c r="AV2" s="14"/>
       <c r="AW2" s="14"/>
       <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-    </row>
-    <row r="3" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="H3" s="13">
         <v>10000000</v>
       </c>
-      <c r="L3" s="13">
+      <c r="K3" s="13">
         <v>15040500</v>
       </c>
-      <c r="V3" s="13">
+      <c r="U3" s="13">
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="16">
         <v>10</v>
       </c>
-      <c r="S4" s="16">
+      <c r="R4" s="16">
         <v>50</v>
       </c>
+      <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
@@ -2574,162 +2562,134 @@
       <c r="AV4" s="17"/>
       <c r="AW4" s="17"/>
       <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-    </row>
-    <row r="5" spans="1:52" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="16">
+      <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19">
+      <c r="E6" s="19">
         <v>70</v>
       </c>
-      <c r="F6" s="19">
-        <v>70</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="H6" s="19">
         <v>80</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="X6" s="19">
         <v>82</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AK6" s="19">
         <v>84</v>
       </c>
-      <c r="AY6" s="19">
+      <c r="AX6" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="19">
         <v>1005000</v>
       </c>
-      <c r="I7" s="19">
+      <c r="H7" s="19">
         <v>2040504</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="X7" s="19">
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="21">
         <v>30</v>
       </c>
-      <c r="J8" s="21">
+      <c r="I8" s="21">
         <v>40</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="Z8" s="21">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="P10" s="23">
         <v>30</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="Z10" s="23">
         <v>40</v>
       </c>
-      <c r="AK10" s="23">
+      <c r="AJ10" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="25">
+      <c r="G12" s="25">
+        <v>7</v>
+      </c>
+      <c r="U12" s="25">
         <v>0</v>
       </c>
-      <c r="H12" s="25">
-        <v>7</v>
-      </c>
-      <c r="V12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="25">
+      <c r="AE12" s="25">
         <v>50</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AJ12" s="25">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>program_proportion_detect</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>program_prop_treatment_success</t>
+  </si>
+  <si>
+    <t>program_cost_treatment_success</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1070,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1100,6 +1112,7 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2267,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,11 +2297,18 @@
     <col min="8" max="8" width="7.42578125" style="7" customWidth="1"/>
     <col min="9" max="10" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="7" customWidth="1"/>
-    <col min="12" max="20" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="7" customWidth="1"/>
+    <col min="17" max="20" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" style="7" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.140625" style="7" customWidth="1"/>
-    <col min="25" max="46" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="36" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8" style="7" customWidth="1"/>
+    <col min="38" max="44" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8" style="7" customWidth="1"/>
+    <col min="46" max="46" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="48" max="51" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="9.140625" style="7"/>
@@ -2692,6 +2712,66 @@
         <v>38</v>
       </c>
     </row>
+    <row r="14" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="21">
+        <v>30</v>
+      </c>
+      <c r="V14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+    </row>
+    <row r="15" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="21">
+        <v>1926492</v>
+      </c>
+      <c r="V15" s="21">
+        <v>4573928</v>
+      </c>
+      <c r="AK15" s="21">
+        <v>9382947</v>
+      </c>
+      <c r="AS15" s="21">
+        <v>52431253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>program_proportion_detect</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>program_cost_treatment_success</t>
+  </si>
+  <si>
+    <t>program_prop_treatment_death</t>
+  </si>
+  <si>
+    <t>program_cost_treatment_death</t>
   </si>
 </sst>
 </file>
@@ -2280,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,6 +2778,42 @@
         <v>52431253</v>
       </c>
     </row>
+    <row r="16" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+    </row>
+    <row r="17" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>program_proportion_detect</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>program_cost_treatment_death</t>
+  </si>
+  <si>
+    <t>program_prop_treatment_success_mdr</t>
+  </si>
+  <si>
+    <t>program_cost_treatment_success_mdr</t>
+  </si>
+  <si>
+    <t>program_prop_treatment_death_mdr</t>
+  </si>
+  <si>
+    <t>program_cost_treatment_death_mdr</t>
+  </si>
+  <si>
+    <t>program_prop_treatment_success_xdr</t>
+  </si>
+  <si>
+    <t>program_cost_treatment_success_xdr</t>
+  </si>
+  <si>
+    <t>program_prop_treatment_death_xdr</t>
+  </si>
+  <si>
+    <t>program_cost_treatment_death_xdr</t>
   </si>
 </sst>
 </file>
@@ -155,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +262,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +345,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1119,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1099,10 +1142,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1118,7 +1159,13 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2286,15 +2333,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -2476,7 +2523,7 @@
       </c>
     </row>
     <row r="2" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2491,44 +2538,44 @@
       <c r="K2" s="13">
         <v>40</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
     </row>
     <row r="3" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2547,271 +2594,499 @@
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>10</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>50</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-    </row>
-    <row r="5" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+    </row>
+    <row r="5" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>70</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>80</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="17">
         <v>82</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AK6" s="17">
         <v>84</v>
       </c>
-      <c r="AX6" s="19">
+      <c r="AX6" s="17">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>1005000</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>2040504</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="17">
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>30</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>40</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="21">
         <v>30</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="21">
         <v>40</v>
       </c>
-      <c r="AJ10" s="23">
+      <c r="AJ10" s="21">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="23">
         <v>7</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="23">
         <v>0</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="23">
         <v>50</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12" s="23">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>0</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="19">
         <v>30</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="19">
         <v>50</v>
       </c>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-    </row>
-    <row r="15" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+    </row>
+    <row r="15" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>0</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="19">
         <v>1926492</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="19">
         <v>4573928</v>
       </c>
-      <c r="AK15" s="21">
+      <c r="AK15" s="19">
         <v>9382947</v>
       </c>
-      <c r="AS15" s="21">
+      <c r="AS15" s="19">
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-    </row>
-    <row r="17" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <v>15</v>
+      </c>
+      <c r="V16" s="19">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+    </row>
+    <row r="17" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
+        <v>15</v>
+      </c>
+      <c r="V18" s="33">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+    </row>
+    <row r="19" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>492549</v>
+      </c>
+      <c r="V19" s="33">
+        <v>256491</v>
+      </c>
+      <c r="AK19" s="33">
+        <v>9382947</v>
+      </c>
+      <c r="AS19" s="33">
+        <v>52431253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="33">
+        <v>55</v>
+      </c>
+      <c r="V20" s="33">
+        <v>50</v>
+      </c>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+    </row>
+    <row r="21" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>5</v>
+      </c>
+      <c r="V22" s="15">
+        <v>15</v>
+      </c>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+    </row>
+    <row r="23" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>65</v>
+      </c>
+      <c r="V24" s="15">
+        <v>62</v>
+      </c>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+    </row>
+    <row r="25" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2335,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2862,7 @@
       <c r="AV16" s="36"/>
       <c r="AW16" s="36"/>
     </row>
-    <row r="17" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>42</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>43</v>
       </c>
@@ -2909,8 +2909,11 @@
       <c r="AU18" s="37"/>
       <c r="AV18" s="37"/>
       <c r="AW18" s="37"/>
-    </row>
-    <row r="19" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX18" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>44</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>45</v>
       </c>
@@ -2969,8 +2972,11 @@
       <c r="AU20" s="37"/>
       <c r="AV20" s="37"/>
       <c r="AW20" s="37"/>
-    </row>
-    <row r="21" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX20" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>46</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>47</v>
       </c>
@@ -3017,8 +3023,11 @@
       <c r="AU22" s="35"/>
       <c r="AV22" s="35"/>
       <c r="AW22" s="35"/>
-    </row>
-    <row r="23" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX22" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>48</v>
       </c>
@@ -3041,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>49</v>
       </c>
@@ -3077,8 +3086,11 @@
       <c r="AU24" s="35"/>
       <c r="AV24" s="35"/>
       <c r="AW24" s="35"/>
-    </row>
-    <row r="25" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX24" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>50</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,37 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
   </bookViews>
   <sheets>
-    <sheet name="miscellaneous_constants" sheetId="1" r:id="rId1"/>
-    <sheet name="programs" sheetId="2" r:id="rId2"/>
-    <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
+    <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
+    <sheet name="miscellaneous_constants" sheetId="1" r:id="rId2"/>
+    <sheet name="programs" sheetId="2" r:id="rId3"/>
+    <sheet name="dropdown_lists" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
-  <si>
-    <t>program_proportion_detect</t>
-  </si>
-  <si>
-    <t>program_algorithm_sensitivity</t>
-  </si>
-  <si>
-    <t>program_proportion_success_ds</t>
-  </si>
-  <si>
-    <t>program_proportion_success_mdr</t>
-  </si>
-  <si>
-    <t>program_proportion_success_xdr</t>
-  </si>
-  <si>
-    <t>program_proportion_success_inappropriate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -54,18 +37,9 @@
     <t>dots_start_date</t>
   </si>
   <si>
-    <t>dots_start_proportion</t>
-  </si>
-  <si>
     <t>finish_scaleup_date</t>
   </si>
   <si>
-    <t>program_prop_assign_mdr</t>
-  </si>
-  <si>
-    <t>program_prop_assign_xdr</t>
-  </si>
-  <si>
     <t>program_prop_nonsuccessoutcomes_death</t>
   </si>
   <si>
@@ -169,6 +143,42 @@
   </si>
   <si>
     <t>program_cost_treatment_death_xdr</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>n_comorbidities</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>recent_time</t>
+  </si>
+  <si>
+    <t>n_organs</t>
+  </si>
+  <si>
+    <t>n_strains</t>
+  </si>
+  <si>
+    <t>value_at_iteration</t>
+  </si>
+  <si>
+    <t>first_value</t>
+  </si>
+  <si>
+    <t>is_lowquality</t>
+  </si>
+  <si>
+    <t>is_amplification</t>
+  </si>
+  <si>
+    <t>is_misassignment</t>
+  </si>
+  <si>
+    <t>value_at_second_iteration</t>
   </si>
 </sst>
 </file>
@@ -2131,12 +2141,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,15 +2265,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5">
         <v>14</v>
@@ -2163,26 +2281,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>0.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>26</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>0.9</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,132 +2316,52 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>0.6</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>0.4</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>0.25</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>1950</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>2050</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,12 +2369,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX14" sqref="AX14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,10 +2410,10 @@
   <sheetData>
     <row r="1" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C1" s="11">
         <v>1920</v>
@@ -2524,10 +2565,10 @@
     </row>
     <row r="2" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
@@ -2576,10 +2617,10 @@
     </row>
     <row r="3" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
@@ -2596,10 +2637,10 @@
     </row>
     <row r="4" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -2638,10 +2679,10 @@
     </row>
     <row r="5" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -2649,10 +2690,10 @@
     </row>
     <row r="6" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17">
         <v>70</v>
@@ -2672,10 +2713,10 @@
     </row>
     <row r="7" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" s="17">
         <v>1005000</v>
@@ -2689,10 +2730,10 @@
     </row>
     <row r="8" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="19">
         <v>30</v>
@@ -2706,18 +2747,18 @@
     </row>
     <row r="9" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P10" s="21">
         <v>30</v>
@@ -2731,18 +2772,18 @@
     </row>
     <row r="11" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G12" s="23">
         <v>7</v>
@@ -2759,18 +2800,18 @@
     </row>
     <row r="13" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -2804,10 +2845,10 @@
     </row>
     <row r="15" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
@@ -2827,10 +2868,10 @@
     </row>
     <row r="16" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -2864,10 +2905,10 @@
     </row>
     <row r="17" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -2875,10 +2916,10 @@
     </row>
     <row r="18" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G18" s="33">
         <v>0</v>
@@ -2915,10 +2956,10 @@
     </row>
     <row r="19" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G19" s="33">
         <v>0</v>
@@ -2938,10 +2979,10 @@
     </row>
     <row r="20" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G20" s="33">
         <v>0</v>
@@ -2978,10 +3019,10 @@
     </row>
     <row r="21" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" s="33">
         <v>0</v>
@@ -2989,10 +3030,10 @@
     </row>
     <row r="22" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -3029,10 +3070,10 @@
     </row>
     <row r="23" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3052,10 +3093,10 @@
     </row>
     <row r="24" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -3092,10 +3133,10 @@
     </row>
     <row r="25" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -3119,29 +3160,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -28,21 +28,6 @@
     <t>timepoint_introduce_xdr</t>
   </si>
   <si>
-    <t>treatment_available_date</t>
-  </si>
-  <si>
-    <t>pretreatment_available_proportion</t>
-  </si>
-  <si>
-    <t>dots_start_date</t>
-  </si>
-  <si>
-    <t>finish_scaleup_date</t>
-  </si>
-  <si>
-    <t>program_prop_nonsuccessoutcomes_death</t>
-  </si>
-  <si>
     <t>program_rate_start_treatment</t>
   </si>
   <si>
@@ -179,6 +164,15 @@
   </si>
   <si>
     <t>value_at_second_iteration</t>
+  </si>
+  <si>
+    <t>age_breakpoints</t>
+  </si>
+  <si>
+    <t>age_stratification</t>
+  </si>
+  <si>
+    <t>consecutive age breakpoints</t>
   </si>
 </sst>
 </file>
@@ -189,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +269,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -462,6 +464,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1129,7 +1175,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1176,6 +1222,31 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2143,106 +2214,194 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="45">
+        <v>0</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="45">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="51"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
   </sheetData>
+  <dataValidations xWindow="363" yWindow="440" count="6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B6">
+      <formula1>-10000</formula1>
+      <formula2>3000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B5">
+      <formula1>-10000</formula1>
+      <formula2>3000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organ stratification" prompt="Number of organs allowed (0: no stratification, 2: smear-positive and smear-negative, 3: smear-positive, smear-negative and extra-pulmonary)." sqref="B2:D2">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata." sqref="B11:E11">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="363" yWindow="440" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2251,9 +2410,9 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2265,15 +2424,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>14</v>
@@ -2281,7 +2440,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>26</v>
@@ -2313,55 +2472,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1940</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,8 +2495,8 @@
   </sheetPr>
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,10 +2529,10 @@
   <sheetData>
     <row r="1" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11">
         <v>1920</v>
@@ -2565,10 +2684,10 @@
     </row>
     <row r="2" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
@@ -2617,10 +2736,10 @@
     </row>
     <row r="3" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
@@ -2637,10 +2756,10 @@
     </row>
     <row r="4" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -2679,10 +2798,10 @@
     </row>
     <row r="5" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -2690,10 +2809,10 @@
     </row>
     <row r="6" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" s="17">
         <v>70</v>
@@ -2713,10 +2832,10 @@
     </row>
     <row r="7" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="17">
         <v>1005000</v>
@@ -2730,10 +2849,10 @@
     </row>
     <row r="8" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" s="19">
         <v>30</v>
@@ -2747,18 +2866,18 @@
     </row>
     <row r="9" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P10" s="21">
         <v>30</v>
@@ -2772,18 +2891,18 @@
     </row>
     <row r="11" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G12" s="23">
         <v>7</v>
@@ -2800,18 +2919,18 @@
     </row>
     <row r="13" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -2845,10 +2964,10 @@
     </row>
     <row r="15" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
@@ -2868,10 +2987,10 @@
     </row>
     <row r="16" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -2905,10 +3024,10 @@
     </row>
     <row r="17" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -2916,10 +3035,10 @@
     </row>
     <row r="18" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G18" s="33">
         <v>0</v>
@@ -2956,10 +3075,10 @@
     </row>
     <row r="19" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G19" s="33">
         <v>0</v>
@@ -2979,10 +3098,10 @@
     </row>
     <row r="20" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G20" s="33">
         <v>0</v>
@@ -3019,10 +3138,10 @@
     </row>
     <row r="21" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G21" s="33">
         <v>0</v>
@@ -3030,10 +3149,10 @@
     </row>
     <row r="22" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -3070,10 +3189,10 @@
     </row>
     <row r="23" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3093,10 +3212,10 @@
     </row>
     <row r="24" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -3133,10 +3252,10 @@
     </row>
     <row r="25" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -3165,27 +3284,33 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -173,17 +173,40 @@
   </si>
   <si>
     <t>consecutive age breakpoints</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>evidence for value</t>
+  </si>
+  <si>
+    <t>Effective contact rate for TB</t>
+  </si>
+  <si>
+    <t>Inverse of time period that detected patients have to wait before starting treatment</t>
+  </si>
+  <si>
+    <t>Rate at which patients who were told they didn't have TB turn up again to the health system</t>
+  </si>
+  <si>
+    <t>Calendar year that MDR-TB first emerged</t>
+  </si>
+  <si>
+    <t>Calendar year that XDR-TB first emerged</t>
+  </si>
+  <si>
+    <t>Rate at which patients change from the low quality to the high quality health system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,19 +246,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -281,8 +291,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -514,7 +525,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1175,78 +1186,78 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2216,126 +2227,126 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="36">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="36">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="37">
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="35">
         <v>1850</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="35">
         <v>1990</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="50" t="b">
+      <c r="B7" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="53" t="b">
+      <c r="B8" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="56" t="b">
+      <c r="B9" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="57"/>
-    </row>
-    <row r="10" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="6">
@@ -2410,77 +2421,104 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="62">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="62">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="62">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="62">
         <v>1950</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="62">
         <v>2050</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="62">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="C7" s="59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2495,778 +2533,788 @@
   </sheetPr>
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="7" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="7" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="7" customWidth="1"/>
-    <col min="12" max="15" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="7" customWidth="1"/>
-    <col min="17" max="20" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" style="7" customWidth="1"/>
-    <col min="25" max="36" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8" style="7" customWidth="1"/>
-    <col min="38" max="44" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" style="7" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" style="1" customWidth="1"/>
+    <col min="25" max="36" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8" style="1" customWidth="1"/>
+    <col min="38" max="44" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8" style="1" customWidth="1"/>
+    <col min="46" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="5">
         <v>1920</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="5">
         <v>1930</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="5">
         <v>1940</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="5">
         <v>1950</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="5">
         <v>1955</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="5">
         <v>1960</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="5">
         <v>1965</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="5">
         <v>1970</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="5">
         <v>1975</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="5">
         <v>1976</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="5">
         <v>1977</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="5">
         <v>1978</v>
       </c>
-      <c r="O1" s="11">
+      <c r="O1" s="5">
         <v>1979</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="5">
         <v>1980</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="5">
         <v>1981</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="5">
         <v>1982</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="5">
         <v>1983</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="5">
         <v>1984</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="5">
         <v>1985</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="5">
         <v>1986</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="5">
         <v>1987</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="5">
         <v>1988</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="5">
         <v>1989</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="5">
         <v>1990</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="5">
         <v>1991</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="5">
         <v>1992</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="5">
         <v>1993</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="5">
         <v>1994</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AE1" s="5">
         <v>1995</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AF1" s="5">
         <v>1996</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AG1" s="5">
         <v>1997</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AH1" s="5">
         <v>1998</v>
       </c>
-      <c r="AI1" s="11">
+      <c r="AI1" s="5">
         <v>1999</v>
       </c>
-      <c r="AJ1" s="11">
+      <c r="AJ1" s="5">
         <v>2000</v>
       </c>
-      <c r="AK1" s="11">
+      <c r="AK1" s="5">
         <v>2001</v>
       </c>
-      <c r="AL1" s="11">
+      <c r="AL1" s="5">
         <v>2002</v>
       </c>
-      <c r="AM1" s="11">
+      <c r="AM1" s="5">
         <v>2003</v>
       </c>
-      <c r="AN1" s="11">
+      <c r="AN1" s="5">
         <v>2004</v>
       </c>
-      <c r="AO1" s="11">
+      <c r="AO1" s="5">
         <v>2005</v>
       </c>
-      <c r="AP1" s="11">
+      <c r="AP1" s="5">
         <v>2006</v>
       </c>
-      <c r="AQ1" s="11">
+      <c r="AQ1" s="5">
         <v>2007</v>
       </c>
-      <c r="AR1" s="11">
+      <c r="AR1" s="5">
         <v>2008</v>
       </c>
-      <c r="AS1" s="11">
+      <c r="AS1" s="5">
         <v>2009</v>
       </c>
-      <c r="AT1" s="11">
+      <c r="AT1" s="5">
         <v>2010</v>
       </c>
-      <c r="AU1" s="11">
+      <c r="AU1" s="5">
         <v>2011</v>
       </c>
-      <c r="AV1" s="11">
+      <c r="AV1" s="5">
         <v>2012</v>
       </c>
-      <c r="AW1" s="11">
+      <c r="AW1" s="5">
         <v>2013</v>
       </c>
-      <c r="AX1" s="11">
+      <c r="AX1" s="5">
         <v>2014</v>
       </c>
-      <c r="AY1" s="11">
+      <c r="AY1" s="5">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="7">
         <v>25</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="7">
         <v>40</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-    </row>
-    <row r="3" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+    </row>
+    <row r="3" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="7">
         <v>10000000</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="7">
         <v>15040500</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="7">
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="9">
         <v>10</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="9">
         <v>50</v>
       </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-    </row>
-    <row r="5" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+    </row>
+    <row r="5" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>70</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="11">
         <v>80</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="11">
         <v>82</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AK6" s="11">
         <v>84</v>
       </c>
-      <c r="AX6" s="17">
+      <c r="AX6" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>1005000</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <v>2040504</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="11">
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="13">
         <v>30</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="13">
         <v>40</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="15">
         <v>30</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="15">
         <v>40</v>
       </c>
-      <c r="AJ10" s="21">
+      <c r="AJ10" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="17">
         <v>7</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="17">
         <v>0</v>
       </c>
-      <c r="AE12" s="23">
+      <c r="AE12" s="17">
         <v>50</v>
       </c>
-      <c r="AJ12" s="23">
+      <c r="AJ12" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="13">
         <v>30</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14" s="13">
         <v>50</v>
       </c>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-    </row>
-    <row r="15" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="30"/>
+    </row>
+    <row r="15" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="13">
         <v>1926492</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="13">
         <v>4573928</v>
       </c>
-      <c r="AK15" s="19">
+      <c r="AK15" s="13">
         <v>9382947</v>
       </c>
-      <c r="AS15" s="19">
+      <c r="AS15" s="13">
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <v>0</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="13">
         <v>15</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="13">
         <v>12</v>
       </c>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-    </row>
-    <row r="17" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+    </row>
+    <row r="17" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="27">
         <v>0</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="27">
         <v>15</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="27">
         <v>30</v>
       </c>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="33">
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="27">
         <v>0</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="27">
         <v>492549</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="27">
         <v>256491</v>
       </c>
-      <c r="AK19" s="33">
+      <c r="AK19" s="27">
         <v>9382947</v>
       </c>
-      <c r="AS19" s="33">
+      <c r="AS19" s="27">
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="27">
         <v>0</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="27">
         <v>55</v>
       </c>
-      <c r="V20" s="33">
+      <c r="V20" s="27">
         <v>50</v>
       </c>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="33">
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="9">
         <v>5</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="9">
         <v>15</v>
       </c>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="15">
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="9">
         <v>0</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="9">
         <v>0</v>
       </c>
-      <c r="AK23" s="15">
+      <c r="AK23" s="9">
         <v>0</v>
       </c>
-      <c r="AS23" s="15">
+      <c r="AS23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="9">
         <v>65</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="9">
         <v>62</v>
       </c>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="15">
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BB2 C4:BB4 C6:BB6 C8:BB8 C18:BB18 C10 C10 C20:BB20 C10 C22:BB22 C24:BB24 C10 C10:BB10 C12:BB12 C14:BB14 C16:BB16">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:BB3 C5:BB5 C7:BB7 C9:BB9 C11:BB11 C13:BB13 C15:BB15 C17:BB17 C19:BB19 C21:BB21 C23:BB23 C25:BB25">
+      <formula1>0</formula1>
+      <formula2>100000000000000000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
@@ -3287,7 +3335,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,6 +3362,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D0CB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Rate at which patients change from the low quality to the high quality health system</t>
+  </si>
+  <si>
+    <t>fitting_smoothness</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -519,6 +522,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1186,7 +1204,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1258,6 +1276,9 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2225,10 +2246,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,56 +2321,64 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="39" t="b">
+      <c r="B8" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="40"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="C8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="41" t="b">
+      <c r="B9" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="43" t="b">
+      <c r="B10" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B11" s="48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="363" yWindow="440" count="6">
+  <dataValidations xWindow="363" yWindow="440" count="7">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B6">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
@@ -2364,9 +2393,13 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata." sqref="B11:E11">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata." sqref="B12:E12">
       <formula1>0</formula1>
       <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B7">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2378,15 +2411,9 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -2394,11 +2421,11 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
           <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
+            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
           </x14:formula1>
@@ -2406,9 +2433,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
           <x14:formula1>
+            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
+          <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2248,8 +2248,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2325,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2566,8 +2566,8 @@
   </sheetPr>
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -148,12 +148,6 @@
     <t>n_strains</t>
   </si>
   <si>
-    <t>value_at_iteration</t>
-  </si>
-  <si>
-    <t>first_value</t>
-  </si>
-  <si>
     <t>is_lowquality</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>is_misassignment</t>
   </si>
   <si>
-    <t>value_at_second_iteration</t>
-  </si>
-  <si>
     <t>age_breakpoints</t>
   </si>
   <si>
@@ -200,6 +191,27 @@
   </si>
   <si>
     <t>fitting_smoothness</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>scipy</t>
+  </si>
+  <si>
+    <t>single value needed</t>
+  </si>
+  <si>
+    <t>first value</t>
+  </si>
+  <si>
+    <t>value at iteration</t>
+  </si>
+  <si>
+    <t>value at second iteration</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1216,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1278,7 +1290,14 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2246,10 +2265,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,13 +2284,13 @@
         <v>37</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2305,85 +2324,102 @@
       <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B9" s="74">
         <v>1850</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B10" s="35">
         <v>1990</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="68">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="68">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="44"/>
-    </row>
-    <row r="11" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="363" yWindow="440" count="7">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B6">
+  <dataValidations xWindow="363" yWindow="440" count="8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B10">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B9">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -2393,55 +2429,59 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata." sqref="B12:E12">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B11">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B14:E14"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="363" yWindow="440" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="363" yWindow="440" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B10</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C10</xm:sqref>
+          <xm:sqref>C7:C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Integration" prompt="Which integration package. Explicitly coded or Scipy's integration package.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2477,10 +2517,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
@@ -2491,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,7 +2542,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,7 +2564,7 @@
         <v>1950</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2535,7 +2575,7 @@
         <v>2050</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,7 +2606,7 @@
   </sheetPr>
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -3365,31 +3405,37 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2434,7 @@
       <formula2>1000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B14:E14"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8 C8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2475,7 +2475,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C8</xm:sqref>
+          <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Integration" prompt="Which integration package. Explicitly coded or Scipy's integration package.">
           <x14:formula1>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2298,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Rate at which patients change from the low quality to the high quality health system</t>
   </si>
   <si>
-    <t>fitting_smoothness</t>
-  </si>
-  <si>
     <t>integration</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
   </si>
   <si>
     <t>value at second iteration</t>
+  </si>
+  <si>
+    <t>organ_smoothness</t>
+  </si>
+  <si>
+    <t>program_smoothness</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -538,15 +541,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1216,7 +1239,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1288,16 +1311,18 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2265,10 +2290,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,13 +2309,13 @@
         <v>37</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,20 +2375,20 @@
       </c>
       <c r="C7" s="44"/>
     </row>
-    <row r="8" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>61</v>
+      <c r="B8" s="73" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="71">
         <v>1850</v>
       </c>
     </row>
@@ -2376,42 +2401,50 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="68">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="B13" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    </row>
+    <row r="14" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B14" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
@@ -2429,12 +2462,12 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B11">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B11:B12">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B14:E14"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8 C8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B15:E15"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:C8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2481,7 +2514,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3421,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>program_smoothness</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>susceptible_fully</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>start_compartments</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1251,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1323,6 +1335,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2290,10 +2307,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2321,7 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>37</v>
       </c>
@@ -2318,17 +2335,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>42</v>
       </c>
@@ -2338,7 +2355,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>38</v>
       </c>
@@ -2348,7 +2365,7 @@
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2374,7 @@
       </c>
       <c r="C5" s="40"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>44</v>
       </c>
@@ -2366,7 +2383,7 @@
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>45</v>
       </c>
@@ -2375,84 +2392,111 @@
       </c>
       <c r="C7" s="44"/>
     </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="73"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="83">
+        <v>20000000</v>
+      </c>
+      <c r="C9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="81">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B11" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="C11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B12" s="71">
         <v>1850</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B13" s="35">
         <v>1990</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B14" s="77">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B15" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B16" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+    <row r="17" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B17" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B10">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B13">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B9">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B12">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -2462,12 +2506,12 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B11:B12">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B14:B15">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B15:E15"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:C8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B18:E18"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B11:C11 C8:C10 B8:B10"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2514,7 +2558,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B13</xm:sqref>
+          <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>start_compartments</t>
+  </si>
+  <si>
+    <t>fitting_method</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -584,6 +587,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1251,7 +1263,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1340,6 +1352,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2307,10 +2321,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,49 +2460,57 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B15" s="85">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B16" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B17" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+    <row r="18" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
@@ -2506,12 +2528,12 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B14:B15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B14:B16">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B18:E18"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B11:C11 C8:C10 B8:B10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B19:E19"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:C11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2558,7 +2580,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2323,7 +2323,7 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2595,8 +2595,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="62">
-        <v>14</v>
+        <v>2.4</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>51</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>fitting_method</t>
+  </si>
+  <si>
+    <t>detection_smoothness</t>
   </si>
 </sst>
 </file>
@@ -2321,15 +2324,15 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
@@ -2471,46 +2474,54 @@
         <v>65</v>
       </c>
       <c r="B15" s="85">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B17" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B18" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+    <row r="19" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B19" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
@@ -2528,11 +2539,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B14:B16">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B14:B17">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B19:E19"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B20:E20"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:C11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2580,7 +2591,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B17</xm:sqref>
+          <xm:sqref>B18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2595,8 +2606,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>detection_smoothness</t>
+  </si>
+  <si>
+    <t>program_proportion_death_reporting</t>
+  </si>
+  <si>
+    <t>Proportion of all TB-related deaths that are correctly reported as such</t>
   </si>
 </sst>
 </file>
@@ -2326,8 +2332,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2363,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
@@ -2423,7 +2429,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="83">
-        <v>20000000</v>
+        <v>457200</v>
       </c>
       <c r="C9" s="47"/>
     </row>
@@ -2450,7 +2456,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="71">
-        <v>1850</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,7 +2480,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="85">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2606,8 +2612,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="62">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>51</v>
@@ -2700,8 +2706,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="63">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2333,7 +2333,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2504,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -2612,8 +2612,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,7 +3515,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B13</xm:sqref>
+          <xm:sqref>B24 B22 B20 B18 B16 B14 B2 B4 B6 B8 B10 B12 B3 B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Proportion of all TB-related deaths that are correctly reported as such</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment</t>
+  </si>
+  <si>
+    <t>program_cost_await_treatment</t>
   </si>
 </sst>
 </file>
@@ -341,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1284,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1363,6 +1375,10 @@
     <xf numFmtId="11" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2727,10 +2743,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2773,9 @@
     <col min="45" max="45" width="8" style="1" customWidth="1"/>
     <col min="46" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.85546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3495,13 +3513,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="88">
+        <f>14/365</f>
+        <v>3.8356164383561646E-2</v>
+      </c>
+      <c r="P26" s="88">
+        <f>14/365</f>
+        <v>3.8356164383561646E-2</v>
+      </c>
+      <c r="V26" s="88">
+        <f>14/365</f>
+        <v>3.8356164383561646E-2</v>
+      </c>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="89"/>
+      <c r="AJ26" s="89"/>
+      <c r="AK26" s="89"/>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="89"/>
+      <c r="AO26" s="89"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="89"/>
+      <c r="AR26" s="89"/>
+      <c r="AS26" s="89"/>
+      <c r="AT26" s="89"/>
+      <c r="AU26" s="89"/>
+      <c r="AV26" s="89"/>
+      <c r="AW26" s="89"/>
+      <c r="AX26" s="88">
+        <f>14/365</f>
+        <v>3.8356164383561646E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+      <c r="P27" s="88">
+        <v>532947</v>
+      </c>
+      <c r="V27" s="88">
+        <v>9283747</v>
+      </c>
+      <c r="AX27" s="88">
+        <v>739284639</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BB2 C4:BB4 C6:BB6 C8:BB8 C18:BB18 C10 C10 C20:BB20 C10 C22:BB22 C24:BB24 C10 C10:BB10 C12:BB12 C14:BB14 C16:BB16">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BB2 C4:BB4 C6:BB6 C8:BB8 C18:BB18 C20:BB20 C22:BB22 C24:BB24 C10:BB10 C12:BB12 C14:BB14 C16:BB16 C26:BB26">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:BB3 C5:BB5 C7:BB7 C9:BB9 C11:BB11 C13:BB13 C15:BB15 C17:BB17 C19:BB19 C21:BB21 C23:BB23 C25:BB25">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:BB3 C5:BB5 C7:BB7 C9:BB9 C11:BB11 C13:BB13 C15:BB15 C17:BB17 C19:BB19 C21:BB21 C23:BB23 C25:BB25 C27:BB27">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
@@ -3515,7 +3597,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B24 B22 B20 B18 B16 B14 B2 B4 B6 B8 B10 B12 B3 B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25</xm:sqref>
+          <xm:sqref>B2:B27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,8 +2763,7 @@
     <col min="12" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
     <col min="17" max="20" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="1" customWidth="1"/>
+    <col min="21" max="22" width="7.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.140625" style="1" customWidth="1"/>
     <col min="25" max="36" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -3046,7 +3045,9 @@
       <c r="AU4" s="29"/>
       <c r="AV4" s="29"/>
       <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
+      <c r="AX4" s="29">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3520,17 +3521,9 @@
       <c r="B26" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="88">
-        <f>14/365</f>
-        <v>3.8356164383561646E-2</v>
-      </c>
-      <c r="P26" s="88">
-        <f>14/365</f>
-        <v>3.8356164383561646E-2</v>
-      </c>
-      <c r="V26" s="88">
-        <f>14/365</f>
-        <v>3.8356164383561646E-2</v>
+      <c r="C26" s="88">
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="AD26" s="89"/>
       <c r="AE26" s="89"/>
@@ -3553,8 +3546,8 @@
       <c r="AV26" s="89"/>
       <c r="AW26" s="89"/>
       <c r="AX26" s="88">
-        <f>14/365</f>
-        <v>3.8356164383561646E-2</v>
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2348,8 +2348,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX5" sqref="AX5"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,9 +3045,7 @@
       <c r="AU4" s="29"/>
       <c r="AV4" s="29"/>
       <c r="AW4" s="29"/>
-      <c r="AX4" s="29">
-        <v>40</v>
-      </c>
+      <c r="AX4" s="29"/>
     </row>
     <row r="5" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3546,8 +3544,7 @@
       <c r="AV26" s="89"/>
       <c r="AW26" s="89"/>
       <c r="AX26" s="88">
-        <f>1/26</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>program_cost_await_treatment</t>
+  </si>
+  <si>
+    <t>scenario_1</t>
+  </si>
+  <si>
+    <t>scenario_end_time</t>
+  </si>
+  <si>
+    <t>current_time</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1293,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1379,6 +1388,7 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2346,10 +2356,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,70 +2494,86 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="90">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B16" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B17" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B18" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B19" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B20" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+    <row r="21" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B13:B14">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -2561,11 +2587,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B14:B17">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B16:B19">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B20:E20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B22:E22"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:C11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2613,7 +2639,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B18</xm:sqref>
+          <xm:sqref>B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2743,10 +2769,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AZ27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX27" sqref="AX27"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,7 +2804,7 @@
     <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2932,8 +2958,11 @@
       <c r="AY1" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
@@ -2984,8 +3013,11 @@
       <c r="AV2" s="28"/>
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
-    </row>
-    <row r="3" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3079,7 @@
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
     </row>
-    <row r="5" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -3058,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -3080,8 +3112,11 @@
       <c r="AX6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
@@ -3148,7 +3183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
@@ -3213,7 +3248,7 @@
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
     </row>
-    <row r="15" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3236,7 +3271,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>27</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>current_time</t>
+  </si>
+  <si>
+    <t>scenarios_to_run</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +449,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -626,6 +635,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1293,7 +1317,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1389,6 +1413,9 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2356,10 +2383,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,143 +2468,153 @@
       </c>
       <c r="C7" s="44"/>
     </row>
-    <row r="8" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="92">
+        <v>1</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+    </row>
+    <row r="9" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B9" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="73"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="C9" s="73"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B10" s="83">
         <v>457200</v>
       </c>
-      <c r="C9" s="47"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B11" s="81">
         <v>3</v>
       </c>
-      <c r="C10" s="47"/>
-    </row>
-    <row r="11" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="C11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B12" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B13" s="71">
         <v>1900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="35">
-        <v>1990</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B14" s="35">
-        <v>2015</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B16" s="90">
         <v>2035</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B17" s="77">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="85">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B19" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B20" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B21" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+    <row r="22" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B13:B14">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B14:B15">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B12">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B13">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -2587,12 +2624,12 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B16:B19">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B17:B20">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B22:E22"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:C11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B23:E23"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B9:C12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2639,7 +2676,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B20</xm:sqref>
+          <xm:sqref>B21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2655,7 +2692,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,8 +2808,11 @@
   </sheetPr>
   <dimension ref="A1:AZ27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3054,7 @@
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
       <c r="AZ2" s="7">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3078,6 +3118,9 @@
       <c r="AV4" s="29"/>
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
+      <c r="AZ4" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3111,9 +3154,6 @@
       </c>
       <c r="AX6" s="11">
         <v>85</v>
-      </c>
-      <c r="AZ6" s="11">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3604,11 +3644,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BB2 C4:BB4 C6:BB6 C8:BB8 C18:BB18 C20:BB20 C22:BB22 C24:BB24 C10:BB10 C12:BB12 C14:BB14 C16:BB16 C26:BB26">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:BA26 C16:BA16 C14:BA14 C12:BA12 C10:BA10 C24:BA24 C22:BA22 C20:BA20 C18:BA18 C8:BA8 C6:BA6 C4:BA4 C2:BA2">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:BB3 C5:BB5 C7:BB7 C9:BB9 C11:BB11 C13:BB13 C15:BB15 C17:BB17 C19:BB19 C21:BB21 C23:BB23 C25:BB25 C27:BB27">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:BA27 C25:BA25 C23:BA23 C21:BA21 C19:BA19 C17:BA17 C15:BA15 C13:BA13 C11:BA11 C9:BA9 C7:BA7 C5:BA5 C3:BA3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>scenarios_to_run</t>
+  </si>
+  <si>
+    <t>scenario_2</t>
+  </si>
+  <si>
+    <t>scenario_start_time</t>
+  </si>
+  <si>
+    <t>scenario_full_time</t>
   </si>
 </sst>
 </file>
@@ -2383,10 +2392,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,77 +2549,93 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B18" s="90">
         <v>2035</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B19" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B20" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B21" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B22" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B23" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+    <row r="24" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B24" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B14:B15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B14:B17">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -2624,11 +2649,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B17:B20">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B19:B22">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B23:E23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B25:E25"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B9:C12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2676,7 +2701,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B21</xm:sqref>
+          <xm:sqref>B23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2806,13 +2831,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AZ27"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
+      <selection pane="bottomRight" activeCell="AZ26" sqref="AZ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2869,7 @@
     <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3001,8 +3026,11 @@
       <c r="AZ1" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BA1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
@@ -3054,10 +3082,13 @@
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
       <c r="AZ2" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -3077,7 +3108,7 @@
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
@@ -3118,11 +3149,8 @@
       <c r="AV4" s="29"/>
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
-      <c r="AZ4" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -3133,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -3155,8 +3183,14 @@
       <c r="AX6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="11">
+        <v>40</v>
+      </c>
+      <c r="BA6" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3173,7 +3207,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>21</v>
       </c>
@@ -3198,7 +3232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
@@ -3223,7 +3257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -3243,7 +3277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -3251,7 +3285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
@@ -3287,8 +3321,14 @@
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
-    </row>
-    <row r="15" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="13">
+        <v>40</v>
+      </c>
+      <c r="BA14" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3311,7 +3351,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>27</v>
       </c>
@@ -3347,8 +3387,11 @@
       <c r="AU16" s="30"/>
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
-    </row>
-    <row r="17" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -3359,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
@@ -3422,7 +3465,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
@@ -3462,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>32</v>
       </c>
@@ -3473,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
@@ -3513,7 +3556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
@@ -3536,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +3619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
@@ -3587,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
         <v>74</v>
       </c>
@@ -3621,8 +3664,11 @@
       <c r="AX26" s="88">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BA26" s="88">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>75</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2394,8 +2394,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2484,9 @@
       <c r="B8" s="92">
         <v>1</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="92">
+        <v>2</v>
+      </c>
       <c r="D8" s="93"/>
     </row>
     <row r="9" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
@@ -2833,11 +2835,11 @@
   </sheetPr>
   <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ26" sqref="AZ26"/>
+      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,10 +3084,10 @@
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
       <c r="AZ2" s="7">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="BA2" s="7">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3149,6 +3151,12 @@
       <c r="AV4" s="29"/>
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
+      <c r="AZ4" s="9">
+        <v>70</v>
+      </c>
+      <c r="BA4" s="9">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3184,10 +3192,10 @@
         <v>85</v>
       </c>
       <c r="AZ6" s="11">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="BA6" s="11">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3322,10 +3330,10 @@
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
       <c r="AZ14" s="13">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BA14" s="13">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3388,10 +3396,10 @@
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
       <c r="AZ16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -3402,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>32</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
@@ -3579,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:53" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
         <v>74</v>
       </c>
@@ -3664,11 +3672,8 @@
       <c r="AX26" s="88">
         <v>0.04</v>
       </c>
-      <c r="BA26" s="88">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>75</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>scenario_full_time</t>
+  </si>
+  <si>
+    <t>time_step</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -659,6 +662,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1326,7 +1342,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1421,10 +1437,12 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2392,10 +2410,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,16 +2496,16 @@
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="91">
         <v>1</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="91">
         <v>2</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
@@ -2569,71 +2587,79 @@
       <c r="A18" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="93">
         <v>2035</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B20" s="77">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="85">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B22" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B23" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="B24" s="74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B25" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
@@ -2651,11 +2677,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B19:B22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B20:B23">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B25:E25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B26:E26"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B9:C12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2703,7 +2729,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B23</xm:sqref>
+          <xm:sqref>B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2835,7 +2861,7 @@
   </sheetPr>
   <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>program_proportion_death_reporting</t>
   </si>
   <si>
-    <t>Proportion of all TB-related deaths that are correctly reported as such</t>
-  </si>
-  <si>
     <t>program_timeperiod_await_treatment</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>time_step</t>
+  </si>
+  <si>
+    <t>Proportion of TB-related deaths not already under treatment that are correctly reported as such</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2412,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="91">
         <v>1</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="35">
         <v>2015</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="35">
         <v>2016</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="35">
         <v>2019</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="93">
         <v>2035</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="95">
         <v>0.1</v>
@@ -2744,8 +2744,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2845,7 @@
         <v>0.35</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3052,10 +3052,10 @@
         <v>2015</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
     </row>
     <row r="26" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="87" t="s">
         <v>14</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="87" t="s">
         <v>24</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Proportion of TB-related deaths not already under treatment that are correctly reported as such</t>
+  </si>
+  <si>
+    <t>smoothness</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1345,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1443,6 +1446,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2412,8 +2424,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,7 +2756,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2859,222 +2871,228 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BA27"/>
+  <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
-    <col min="17" max="20" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" style="1" customWidth="1"/>
-    <col min="25" max="36" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8" style="1" customWidth="1"/>
-    <col min="38" max="44" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.85546875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11" style="104" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8" style="1" customWidth="1"/>
+    <col min="39" max="45" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8" style="1" customWidth="1"/>
+    <col min="47" max="47" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.85546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="5">
         <v>1920</v>
       </c>
-      <c r="D1" s="5">
+      <c r="E1" s="5">
         <v>1930</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <v>1940</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <v>1950</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <v>1955</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>1960</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <v>1965</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <v>1970</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <v>1975</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <v>1976</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <v>1977</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <v>1978</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <v>1979</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <v>1980</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="R1" s="5">
         <v>1981</v>
       </c>
-      <c r="R1" s="5">
+      <c r="S1" s="5">
         <v>1982</v>
       </c>
-      <c r="S1" s="5">
+      <c r="T1" s="5">
         <v>1983</v>
       </c>
-      <c r="T1" s="5">
+      <c r="U1" s="5">
         <v>1984</v>
       </c>
-      <c r="U1" s="5">
+      <c r="V1" s="5">
         <v>1985</v>
       </c>
-      <c r="V1" s="5">
+      <c r="W1" s="5">
         <v>1986</v>
       </c>
-      <c r="W1" s="5">
+      <c r="X1" s="5">
         <v>1987</v>
       </c>
-      <c r="X1" s="5">
+      <c r="Y1" s="5">
         <v>1988</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Z1" s="5">
         <v>1989</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="AA1" s="5">
         <v>1990</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="5">
         <v>1991</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AC1" s="5">
         <v>1992</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AD1" s="5">
         <v>1993</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AE1" s="5">
         <v>1994</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AF1" s="5">
         <v>1995</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AG1" s="5">
         <v>1996</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AH1" s="5">
         <v>1997</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AI1" s="5">
         <v>1998</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AJ1" s="5">
         <v>1999</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AK1" s="5">
         <v>2000</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AL1" s="5">
         <v>2001</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AM1" s="5">
         <v>2002</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AN1" s="5">
         <v>2003</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AO1" s="5">
         <v>2004</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AP1" s="5">
         <v>2005</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AQ1" s="5">
         <v>2006</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AR1" s="5">
         <v>2007</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AS1" s="5">
         <v>2008</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AT1" s="5">
         <v>2009</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AU1" s="5">
         <v>2010</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AV1" s="5">
         <v>2011</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AW1" s="5">
         <v>2012</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AX1" s="5">
         <v>2013</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="AY1" s="5">
         <v>2014</v>
       </c>
-      <c r="AY1" s="5">
+      <c r="AZ1" s="5">
         <v>2015</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7">
+      <c r="C2" s="96">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>25</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>40</v>
       </c>
-      <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
@@ -3109,50 +3127,54 @@
       <c r="AV2" s="28"/>
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
-      <c r="AZ2" s="7">
-        <v>99</v>
-      </c>
+      <c r="AY2" s="28"/>
       <c r="BA2" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB2" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7">
+      <c r="C3" s="96"/>
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>10000000</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>15040500</v>
       </c>
-      <c r="U3" s="7">
+      <c r="V3" s="7">
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9">
+      <c r="C4" s="97">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>10</v>
       </c>
-      <c r="R4" s="9">
+      <c r="S4" s="9">
         <v>30</v>
       </c>
-      <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
@@ -3177,165 +3199,185 @@
       <c r="AV4" s="29"/>
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
-      <c r="AZ4" s="9">
+      <c r="AY4" s="29"/>
+      <c r="BA4" s="9">
         <v>70</v>
       </c>
-      <c r="BA4" s="9">
+      <c r="BB4" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9">
+      <c r="C5" s="97"/>
+      <c r="E5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11">
+      <c r="C6" s="98">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
         <v>70</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>80</v>
       </c>
-      <c r="X6" s="11">
+      <c r="Y6" s="11">
         <v>82</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AL6" s="11">
         <v>84</v>
       </c>
-      <c r="AX6" s="11">
-        <v>85</v>
-      </c>
-      <c r="AZ6" s="11">
+      <c r="AY6" s="11">
         <v>85</v>
       </c>
       <c r="BA6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB6" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11">
+      <c r="C7" s="98"/>
+      <c r="F7" s="11">
         <v>1005000</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>2040504</v>
       </c>
-      <c r="X7" s="11">
+      <c r="Y7" s="11">
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="13">
+      <c r="C8" s="99">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
         <v>30</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="13">
         <v>40</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="AA8" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="99"/>
+    </row>
+    <row r="10" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="15">
+      <c r="C10" s="100">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15">
         <v>30</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="AA10" s="15">
         <v>40</v>
       </c>
-      <c r="AJ10" s="15">
+      <c r="AK10" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="100"/>
+    </row>
+    <row r="12" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="17">
+      <c r="C12" s="101">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
         <v>7</v>
       </c>
-      <c r="U12" s="17">
+      <c r="V12" s="17">
         <v>0</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AF12" s="17">
         <v>50</v>
       </c>
-      <c r="AJ12" s="17">
+      <c r="AK12" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="101"/>
+    </row>
+    <row r="14" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="13">
+      <c r="C14" s="99">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="Q14" s="13">
         <v>30</v>
       </c>
-      <c r="V14" s="13">
+      <c r="W14" s="13">
         <v>50</v>
       </c>
-      <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
@@ -3355,53 +3397,57 @@
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
-      <c r="AZ14" s="13">
-        <v>90</v>
-      </c>
+      <c r="AX14" s="30"/>
       <c r="BA14" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB14" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="13">
+      <c r="C15" s="99"/>
+      <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="Q15" s="13">
         <v>1926492</v>
       </c>
-      <c r="V15" s="13">
+      <c r="W15" s="13">
         <v>4573928</v>
       </c>
-      <c r="AK15" s="13">
+      <c r="AL15" s="13">
         <v>9382947</v>
       </c>
-      <c r="AS15" s="13">
+      <c r="AT15" s="13">
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:53" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="13">
+      <c r="C16" s="99">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="P16" s="13">
+      <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="V16" s="13">
+      <c r="W16" s="13">
         <v>12</v>
       </c>
-      <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
@@ -3421,38 +3467,42 @@
       <c r="AU16" s="30"/>
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
-      <c r="AZ16" s="13">
+      <c r="AX16" s="30"/>
+      <c r="BA16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="13">
+      <c r="C17" s="99"/>
+      <c r="H17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="27">
+      <c r="C18" s="102">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
         <v>0</v>
       </c>
-      <c r="P18" s="27">
+      <c r="Q18" s="27">
         <v>15</v>
       </c>
-      <c r="V18" s="27">
+      <c r="W18" s="27">
         <v>30</v>
       </c>
-      <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
@@ -3472,50 +3522,54 @@
       <c r="AU18" s="31"/>
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
-      <c r="AX18" s="27">
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="27">
+      <c r="C19" s="102"/>
+      <c r="H19" s="27">
         <v>0</v>
       </c>
-      <c r="P19" s="27">
+      <c r="Q19" s="27">
         <v>492549</v>
       </c>
-      <c r="V19" s="27">
+      <c r="W19" s="27">
         <v>256491</v>
       </c>
-      <c r="AK19" s="27">
+      <c r="AL19" s="27">
         <v>9382947</v>
       </c>
-      <c r="AS19" s="27">
+      <c r="AT19" s="27">
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="27">
+      <c r="C20" s="102">
+        <v>1</v>
+      </c>
+      <c r="H20" s="27">
         <v>0</v>
       </c>
-      <c r="P20" s="27">
+      <c r="Q20" s="27">
         <v>55</v>
       </c>
-      <c r="V20" s="27">
+      <c r="W20" s="27">
         <v>50</v>
       </c>
-      <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="31"/>
@@ -3535,38 +3589,42 @@
       <c r="AU20" s="31"/>
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
-      <c r="AX20" s="27">
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="27">
+      <c r="C21" s="102"/>
+      <c r="H21" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="9">
+      <c r="C22" s="97">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="P22" s="9">
+      <c r="Q22" s="9">
         <v>5</v>
       </c>
-      <c r="V22" s="9">
+      <c r="W22" s="9">
         <v>15</v>
       </c>
-      <c r="AD22" s="29"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="29"/>
@@ -3586,50 +3644,54 @@
       <c r="AU22" s="29"/>
       <c r="AV22" s="29"/>
       <c r="AW22" s="29"/>
-      <c r="AX22" s="9">
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="9">
+      <c r="C23" s="97"/>
+      <c r="H23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="9">
+      <c r="Q23" s="9">
         <v>0</v>
       </c>
-      <c r="V23" s="9">
+      <c r="W23" s="9">
         <v>0</v>
       </c>
-      <c r="AK23" s="9">
+      <c r="AL23" s="9">
         <v>0</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AT23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="9">
+      <c r="C24" s="97">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="P24" s="9">
+      <c r="Q24" s="9">
         <v>65</v>
       </c>
-      <c r="V24" s="9">
+      <c r="W24" s="9">
         <v>62</v>
       </c>
-      <c r="AD24" s="29"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="29"/>
@@ -3649,33 +3711,37 @@
       <c r="AU24" s="29"/>
       <c r="AV24" s="29"/>
       <c r="AW24" s="29"/>
-      <c r="AX24" s="9">
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="9">
+      <c r="C25" s="97"/>
+      <c r="H25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="103">
+        <v>1</v>
+      </c>
+      <c r="D26" s="88">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AD26" s="89"/>
       <c r="AE26" s="89"/>
       <c r="AF26" s="89"/>
       <c r="AG26" s="89"/>
@@ -3695,46 +3761,52 @@
       <c r="AU26" s="89"/>
       <c r="AV26" s="89"/>
       <c r="AW26" s="89"/>
-      <c r="AX26" s="88">
+      <c r="AX26" s="89"/>
+      <c r="AY26" s="88">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="88">
+      <c r="C27" s="103"/>
+      <c r="H27" s="88">
         <v>0</v>
       </c>
-      <c r="P27" s="88">
+      <c r="Q27" s="88">
         <v>532947</v>
       </c>
-      <c r="V27" s="88">
+      <c r="W27" s="88">
         <v>9283747</v>
       </c>
-      <c r="AX27" s="88">
+      <c r="AY27" s="88">
         <v>739284639</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:BA26 C16:BA16 C14:BA14 C12:BA12 C10:BA10 C24:BA24 C22:BA22 C20:BA20 C18:BA18 C8:BA8 C6:BA6 C4:BA4 C2:BA2">
+  <dataValidations xWindow="343" yWindow="238" count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:BB26 D16:BB16 D14:BB14 D12:BB12 D10:BB10 D24:BB24 D22:BB22 D20:BB20 D18:BB18 D8:BB8 D6:BB6 D4:BB4 D2:BB2">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:BA27 C25:BA25 C23:BA23 C21:BA21 C19:BA19 C17:BA17 C15:BA15 C13:BA13 C11:BA11 C9:BA9 C7:BA7 C5:BA5 C3:BA3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:BB27 D25:BB25 D23:BB23 D21:BB21 D19:BB19 D17:BB17 D15:BB15 D13:BB13 D11:BB11 D9:BB9 D7:BB7 D5:BB5 D3:BB3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C1:C1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2425,7 +2425,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,10 +2874,10 @@
   <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>smoothness</t>
+  </si>
+  <si>
+    <t>cost function attributes</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1348,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1455,6 +1458,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2422,10 +2426,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,6 +2676,11 @@
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="105" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
@@ -2873,11 +2882,11 @@
   </sheetPr>
   <dimension ref="A1:BB27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA16" sqref="BA16"/>
+      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,7 +3108,9 @@
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
+      <c r="W2" s="28">
+        <v>0</v>
+      </c>
       <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
@@ -3155,6 +3166,9 @@
       <c r="V3" s="7">
         <v>39034561</v>
       </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3174,6 +3188,9 @@
       </c>
       <c r="S4" s="9">
         <v>30</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
       </c>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
@@ -3218,6 +3235,9 @@
       <c r="E5" s="9">
         <v>0</v>
       </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3235,6 +3255,9 @@
       <c r="I6" s="11">
         <v>80</v>
       </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
       <c r="Y6" s="11">
         <v>82</v>
       </c>
@@ -3265,6 +3288,9 @@
       <c r="I7" s="11">
         <v>2040504</v>
       </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
       <c r="Y7" s="11">
         <v>4049504</v>
       </c>
@@ -3285,6 +3311,9 @@
       <c r="J8" s="13">
         <v>40</v>
       </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
       <c r="AA8" s="13">
         <v>40</v>
       </c>
@@ -3297,6 +3326,9 @@
         <v>24</v>
       </c>
       <c r="C9" s="99"/>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -3311,6 +3343,9 @@
       <c r="Q10" s="15">
         <v>30</v>
       </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
       <c r="AA10" s="15">
         <v>40</v>
       </c>
@@ -3326,6 +3361,9 @@
         <v>24</v>
       </c>
       <c r="C11" s="100"/>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
@@ -3343,6 +3381,9 @@
       <c r="V12" s="17">
         <v>0</v>
       </c>
+      <c r="W12" s="17">
+        <v>0</v>
+      </c>
       <c r="AF12" s="17">
         <v>50</v>
       </c>
@@ -3358,6 +3399,9 @@
         <v>24</v>
       </c>
       <c r="C13" s="101"/>
+      <c r="W13" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -3483,6 +3527,9 @@
       <c r="H17" s="13">
         <v>0</v>
       </c>
+      <c r="W17" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3605,6 +3652,9 @@
       <c r="H21" s="27">
         <v>0</v>
       </c>
+      <c r="W21" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -3727,6 +3777,9 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:51" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
@@ -3741,6 +3794,9 @@
       <c r="D26" s="88">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="W26" s="88">
+        <v>0</v>
       </c>
       <c r="AE26" s="89"/>
       <c r="AF26" s="89"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <t>program_rate_restart_presenting</t>
   </si>
   <si>
-    <t>timepoint_introduce_mdr</t>
-  </si>
-  <si>
     <t>timepoint_introduce_xdr</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Rate at which patients who were told they didn't have TB turn up again to the health system</t>
   </si>
   <si>
-    <t>Calendar year that MDR-TB first emerged</t>
-  </si>
-  <si>
     <t>Calendar year that XDR-TB first emerged</t>
   </si>
   <si>
@@ -211,12 +205,6 @@
     <t>value at second iteration</t>
   </si>
   <si>
-    <t>organ_smoothness</t>
-  </si>
-  <si>
-    <t>program_smoothness</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -232,12 +220,6 @@
     <t>fitting_method</t>
   </si>
   <si>
-    <t>detection_smoothness</t>
-  </si>
-  <si>
-    <t>program_proportion_death_reporting</t>
-  </si>
-  <si>
     <t>program_timeperiod_await_treatment</t>
   </si>
   <si>
@@ -272,6 +254,24 @@
   </si>
   <si>
     <t>smoothness</t>
+  </si>
+  <si>
+    <t>default_smoothness</t>
+  </si>
+  <si>
+    <t>start_mdr_introduce_period</t>
+  </si>
+  <si>
+    <t>end_mdr_introduce_period</t>
+  </si>
+  <si>
+    <t>Calendar year that MDR-TB first begins to emerge</t>
+  </si>
+  <si>
+    <t>Calendar year that MDR-TB amplification reaches full parameter value</t>
+  </si>
+  <si>
+    <t>program_prop_death_reporting</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -645,15 +645,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1345,7 +1336,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1434,18 +1425,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2422,10 +2411,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,21 +2427,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="36">
         <v>3</v>
@@ -2462,7 +2451,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="36">
         <v>0</v>
@@ -2472,7 +2461,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -2482,7 +2471,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="39" t="b">
         <v>0</v>
@@ -2491,7 +2480,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="41" t="b">
         <v>0</v>
@@ -2500,7 +2489,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="43" t="b">
         <v>0</v>
@@ -2508,29 +2497,29 @@
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="91">
+      <c r="A8" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="89">
         <v>1</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="89">
         <v>2</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="73"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="83">
         <v>457200</v>
@@ -2539,7 +2528,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="81">
         <v>3</v>
@@ -2548,16 +2537,16 @@
     </row>
     <row r="12" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="71">
         <v>1900</v>
@@ -2565,7 +2554,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="35">
         <v>1990</v>
@@ -2573,7 +2562,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" s="35">
         <v>2015</v>
@@ -2581,7 +2570,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" s="35">
         <v>2016</v>
@@ -2589,7 +2578,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B17" s="35">
         <v>2019</v>
@@ -2597,81 +2586,65 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="91">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="93">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="95">
+      <c r="B19" s="93">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="85">
+      <c r="A21" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="78">
-        <v>1</v>
+      <c r="A22" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="A24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
@@ -2689,11 +2662,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B20:B23">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B20:B21">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B26:E26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B24:E24"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B9:C12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2741,7 +2714,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B24</xm:sqref>
+          <xm:sqref>B22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2754,10 +2727,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,38 +2744,38 @@
   <sheetData>
     <row r="1" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="62">
         <v>6.6</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="62">
         <v>26</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,51 +2786,62 @@
         <v>4</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B5" s="62">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B6" s="62">
-        <v>2050</v>
+        <v>1955</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="62">
+        <v>2050</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="62">
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="63">
+      <c r="C8" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="63">
         <v>0.35</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>83</v>
+      <c r="C9" s="59" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2868,7 @@
   <cols>
     <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="104" customWidth="1"/>
+    <col min="3" max="3" width="11" style="102" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
@@ -2912,13 +2896,13 @@
   <sheetData>
     <row r="1" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D1" s="5">
         <v>1920</v>
@@ -3068,20 +3052,20 @@
         <v>2015</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="96">
+        <v>13</v>
+      </c>
+      <c r="C2" s="94">
         <v>1</v>
       </c>
       <c r="G2" s="7">
@@ -3137,12 +3121,12 @@
     </row>
     <row r="3" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="96"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="94"/>
       <c r="G3" s="7">
         <v>0</v>
       </c>
@@ -3158,12 +3142,12 @@
     </row>
     <row r="4" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="97">
+        <v>13</v>
+      </c>
+      <c r="C4" s="95">
         <v>5</v>
       </c>
       <c r="E4" s="9">
@@ -3209,24 +3193,24 @@
     </row>
     <row r="5" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="97"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="95"/>
       <c r="E5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="98">
+        <v>14</v>
+      </c>
+      <c r="C6" s="96">
         <v>1</v>
       </c>
       <c r="F6" s="11">
@@ -3253,12 +3237,12 @@
     </row>
     <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="96"/>
       <c r="F7" s="11">
         <v>1005000</v>
       </c>
@@ -3271,12 +3255,12 @@
     </row>
     <row r="8" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="99">
+        <v>14</v>
+      </c>
+      <c r="C8" s="97">
         <v>1</v>
       </c>
       <c r="G8" s="13">
@@ -3291,21 +3275,21 @@
     </row>
     <row r="9" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="99"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="97"/>
     </row>
     <row r="10" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="100">
+        <v>14</v>
+      </c>
+      <c r="C10" s="98">
         <v>1</v>
       </c>
       <c r="Q10" s="15">
@@ -3320,21 +3304,21 @@
     </row>
     <row r="11" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="100"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="98"/>
     </row>
     <row r="12" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="101">
+        <v>14</v>
+      </c>
+      <c r="C12" s="99">
         <v>1</v>
       </c>
       <c r="H12" s="17">
@@ -3352,21 +3336,21 @@
     </row>
     <row r="13" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="99"/>
     </row>
     <row r="14" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="99">
+        <v>13</v>
+      </c>
+      <c r="C14" s="97">
         <v>1</v>
       </c>
       <c r="H14" s="13">
@@ -3407,12 +3391,12 @@
     </row>
     <row r="15" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="99"/>
+        <v>23</v>
+      </c>
+      <c r="C15" s="97"/>
       <c r="H15" s="13">
         <v>0</v>
       </c>
@@ -3431,12 +3415,12 @@
     </row>
     <row r="16" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="99">
+        <v>13</v>
+      </c>
+      <c r="C16" s="97">
         <v>1</v>
       </c>
       <c r="H16" s="13">
@@ -3474,24 +3458,24 @@
     </row>
     <row r="17" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="99"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="97"/>
       <c r="H17" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="102">
+        <v>13</v>
+      </c>
+      <c r="C18" s="100">
         <v>1</v>
       </c>
       <c r="H18" s="27">
@@ -3529,12 +3513,12 @@
     </row>
     <row r="19" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="C19" s="100"/>
       <c r="H19" s="27">
         <v>0</v>
       </c>
@@ -3553,12 +3537,12 @@
     </row>
     <row r="20" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="102">
+        <v>13</v>
+      </c>
+      <c r="C20" s="100">
         <v>1</v>
       </c>
       <c r="H20" s="27">
@@ -3596,24 +3580,24 @@
     </row>
     <row r="21" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="100"/>
       <c r="H21" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="97">
+        <v>13</v>
+      </c>
+      <c r="C22" s="95">
         <v>1</v>
       </c>
       <c r="H22" s="9">
@@ -3651,12 +3635,12 @@
     </row>
     <row r="23" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="97"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="95"/>
       <c r="H23" s="9">
         <v>0</v>
       </c>
@@ -3675,12 +3659,12 @@
     </row>
     <row r="24" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="97">
+        <v>13</v>
+      </c>
+      <c r="C24" s="95">
         <v>1</v>
       </c>
       <c r="H24" s="9">
@@ -3718,72 +3702,72 @@
     </row>
     <row r="25" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="97"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="95"/>
       <c r="H25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="103">
+    <row r="26" spans="1:51" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="101">
         <v>1</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="86">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="89"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="88">
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="86">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:51" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="103"/>
-      <c r="H27" s="88">
+    <row r="27" spans="1:51" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="101"/>
+      <c r="H27" s="86">
         <v>0</v>
       </c>
-      <c r="Q27" s="88">
+      <c r="Q27" s="86">
         <v>532947</v>
       </c>
-      <c r="W27" s="88">
+      <c r="W27" s="86">
         <v>9283747</v>
       </c>
-      <c r="AY27" s="88">
+      <c r="AY27" s="86">
         <v>739284639</v>
       </c>
     </row>
@@ -3834,29 +3818,29 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>program_prop_death_reporting</t>
+  </si>
+  <si>
+    <t>epi_life_expectancy</t>
+  </si>
+  <si>
+    <t>epi_birth_rate</t>
+  </si>
+  <si>
+    <t>tb_prop_smearpos</t>
+  </si>
+  <si>
+    <t>tb_prop_smearneg</t>
   </si>
 </sst>
 </file>
@@ -2729,7 +2741,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2855,13 +2867,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BB27"/>
+  <dimension ref="A1:BB31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA16" sqref="BA16"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,6 +3781,50 @@
       </c>
       <c r="AY27" s="86">
         <v>739284639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
     <sheet name="miscellaneous_constants" sheetId="1" r:id="rId2"/>
-    <sheet name="programs" sheetId="2" r:id="rId3"/>
+    <sheet name="time_variants" sheetId="2" r:id="rId3"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -2425,8 +2425,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2633,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -2869,11 +2869,11 @@
   </sheetPr>
   <dimension ref="A1:BB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -1348,7 +1348,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1456,6 +1456,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2425,7 +2426,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2869,11 +2870,11 @@
   </sheetPr>
   <dimension ref="A1:BB31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,47 +3784,101 @@
         <v>739284639</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="102">
+      <c r="C28" s="94">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="AA28" s="103"/>
+      <c r="AK28" s="103"/>
+      <c r="AQ28" s="103"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="103"/>
+      <c r="AT28" s="103"/>
+      <c r="AU28" s="103"/>
+      <c r="AV28" s="103"/>
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="103"/>
+      <c r="AY28" s="103"/>
+    </row>
+    <row r="29" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="102">
+      <c r="C29" s="94">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="103"/>
+      <c r="AT29" s="103"/>
+      <c r="AU29" s="103"/>
+      <c r="AV29" s="103"/>
+      <c r="AW29" s="103"/>
+      <c r="AX29" s="103"/>
+      <c r="AY29" s="103"/>
+    </row>
+    <row r="30" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="102">
+      <c r="C30" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="102">
+      <c r="C31" s="94">
         <v>1</v>
       </c>
     </row>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>tb_prop_smearneg</t>
+  </si>
+  <si>
+    <t>time_variant</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1351,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1447,15 +1450,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
@@ -2868,229 +2862,234 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BC31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="102" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
-    <col min="26" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8" style="1" customWidth="1"/>
-    <col min="39" max="45" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8" style="1" customWidth="1"/>
-    <col min="47" max="47" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.85546875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="1" customWidth="1"/>
+    <col min="19" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.140625" style="1" customWidth="1"/>
+    <col min="27" max="38" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="1" customWidth="1"/>
+    <col min="40" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8" style="1" customWidth="1"/>
+    <col min="48" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="5">
         <v>1920</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <v>1930</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <v>1940</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <v>1950</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>1955</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <v>1960</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <v>1965</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <v>1970</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <v>1975</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <v>1976</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <v>1977</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <v>1978</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <v>1979</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="R1" s="5">
         <v>1980</v>
       </c>
-      <c r="R1" s="5">
+      <c r="S1" s="5">
         <v>1981</v>
       </c>
-      <c r="S1" s="5">
+      <c r="T1" s="5">
         <v>1982</v>
       </c>
-      <c r="T1" s="5">
+      <c r="U1" s="5">
         <v>1983</v>
       </c>
-      <c r="U1" s="5">
+      <c r="V1" s="5">
         <v>1984</v>
       </c>
-      <c r="V1" s="5">
+      <c r="W1" s="5">
         <v>1985</v>
       </c>
-      <c r="W1" s="5">
+      <c r="X1" s="5">
         <v>1986</v>
       </c>
-      <c r="X1" s="5">
+      <c r="Y1" s="5">
         <v>1987</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Z1" s="5">
         <v>1988</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="AA1" s="5">
         <v>1989</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="5">
         <v>1990</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AC1" s="5">
         <v>1991</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AD1" s="5">
         <v>1992</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AE1" s="5">
         <v>1993</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AF1" s="5">
         <v>1994</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AG1" s="5">
         <v>1995</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AH1" s="5">
         <v>1996</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AI1" s="5">
         <v>1997</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AJ1" s="5">
         <v>1998</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AK1" s="5">
         <v>1999</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AL1" s="5">
         <v>2000</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AM1" s="5">
         <v>2001</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AN1" s="5">
         <v>2002</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AO1" s="5">
         <v>2003</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AP1" s="5">
         <v>2004</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AQ1" s="5">
         <v>2005</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AR1" s="5">
         <v>2006</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AS1" s="5">
         <v>2007</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AT1" s="5">
         <v>2008</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AU1" s="5">
         <v>2009</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AV1" s="5">
         <v>2010</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AW1" s="5">
         <v>2011</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AX1" s="5">
         <v>2012</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="AY1" s="5">
         <v>2013</v>
       </c>
-      <c r="AY1" s="5">
+      <c r="AZ1" s="5">
         <v>2014</v>
       </c>
-      <c r="AZ1" s="5">
+      <c r="BA1" s="5">
         <v>2015</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>25</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>40</v>
       </c>
-      <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
@@ -3125,54 +3124,60 @@
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
       <c r="AY2" s="28"/>
-      <c r="BA2" s="7">
-        <v>99</v>
-      </c>
+      <c r="AZ2" s="28"/>
       <c r="BB2" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC2" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="G3" s="7">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>10000000</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>15040500</v>
       </c>
-      <c r="V3" s="7">
+      <c r="W3" s="7">
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>10</v>
       </c>
-      <c r="S4" s="9">
+      <c r="T4" s="9">
         <v>30</v>
       </c>
-      <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
@@ -3197,185 +3202,215 @@
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
       <c r="AY4" s="29"/>
-      <c r="BA4" s="9">
+      <c r="AZ4" s="29"/>
+      <c r="BB4" s="9">
         <v>70</v>
       </c>
-      <c r="BB4" s="9">
+      <c r="BC4" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="E5" s="9">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11">
         <v>70</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>80</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Z6" s="11">
         <v>82</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AM6" s="11">
         <v>84</v>
       </c>
-      <c r="AY6" s="11">
-        <v>85</v>
-      </c>
-      <c r="BA6" s="11">
+      <c r="AZ6" s="11">
         <v>85</v>
       </c>
       <c r="BB6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC6" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="F7" s="11">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11">
         <v>1005000</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="11">
         <v>2040504</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Z7" s="11">
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13">
         <v>30</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13">
         <v>40</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AB8" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="97"/>
-    </row>
-    <row r="10" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="15">
         <v>30</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AB10" s="15">
         <v>40</v>
       </c>
-      <c r="AK10" s="15">
+      <c r="AL10" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="98"/>
-    </row>
-    <row r="12" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="H12" s="17">
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="17">
         <v>7</v>
       </c>
-      <c r="V12" s="17">
+      <c r="W12" s="17">
         <v>0</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AG12" s="17">
         <v>50</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AL12" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="99"/>
-    </row>
-    <row r="14" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="D14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="R14" s="13">
         <v>30</v>
       </c>
-      <c r="W14" s="13">
+      <c r="X14" s="13">
         <v>50</v>
       </c>
-      <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="30"/>
@@ -3395,57 +3430,63 @@
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
       <c r="AX14" s="30"/>
-      <c r="BA14" s="13">
-        <v>90</v>
-      </c>
+      <c r="AY14" s="30"/>
       <c r="BB14" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC14" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="H15" s="13">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="13">
         <v>0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R15" s="13">
         <v>1926492</v>
       </c>
-      <c r="W15" s="13">
+      <c r="X15" s="13">
         <v>4573928</v>
       </c>
-      <c r="AL15" s="13">
+      <c r="AM15" s="13">
         <v>9382947</v>
       </c>
-      <c r="AT15" s="13">
+      <c r="AU15" s="13">
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="H16" s="13">
+      <c r="D16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="R16" s="13">
         <v>15</v>
       </c>
-      <c r="W16" s="13">
+      <c r="X16" s="13">
         <v>12</v>
       </c>
-      <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
       <c r="AH16" s="30"/>
@@ -3465,42 +3506,48 @@
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
       <c r="AX16" s="30"/>
-      <c r="BA16" s="13">
+      <c r="AY16" s="30"/>
+      <c r="BB16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="H17" s="13">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="26">
         <v>1</v>
       </c>
-      <c r="H18" s="27">
+      <c r="D18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="27">
         <v>0</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="R18" s="27">
         <v>15</v>
       </c>
-      <c r="W18" s="27">
+      <c r="X18" s="27">
         <v>30</v>
       </c>
-      <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
@@ -3520,54 +3567,60 @@
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
-      <c r="AY18" s="27">
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="H19" s="27">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="27">
         <v>0</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="R19" s="27">
         <v>492549</v>
       </c>
-      <c r="W19" s="27">
+      <c r="X19" s="27">
         <v>256491</v>
       </c>
-      <c r="AL19" s="27">
+      <c r="AM19" s="27">
         <v>9382947</v>
       </c>
-      <c r="AT19" s="27">
+      <c r="AU19" s="27">
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="26">
         <v>1</v>
       </c>
-      <c r="H20" s="27">
+      <c r="D20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="27">
         <v>0</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="R20" s="27">
         <v>55</v>
       </c>
-      <c r="W20" s="27">
+      <c r="X20" s="27">
         <v>50</v>
       </c>
-      <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="31"/>
       <c r="AH20" s="31"/>
@@ -3587,42 +3640,48 @@
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
-      <c r="AY20" s="27">
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="H21" s="27">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="9">
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="R22" s="9">
         <v>5</v>
       </c>
-      <c r="W22" s="9">
+      <c r="X22" s="9">
         <v>15</v>
       </c>
-      <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
@@ -3642,54 +3701,60 @@
       <c r="AV22" s="29"/>
       <c r="AW22" s="29"/>
       <c r="AX22" s="29"/>
-      <c r="AY22" s="9">
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="H23" s="9">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="9">
         <v>0</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="R23" s="9">
         <v>0</v>
       </c>
-      <c r="W23" s="9">
+      <c r="X23" s="9">
         <v>0</v>
       </c>
-      <c r="AL23" s="9">
+      <c r="AM23" s="9">
         <v>0</v>
       </c>
-      <c r="AT23" s="9">
+      <c r="AU23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="H24" s="9">
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="R24" s="9">
         <v>65</v>
       </c>
-      <c r="W24" s="9">
+      <c r="X24" s="9">
         <v>62</v>
       </c>
-      <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="29"/>
       <c r="AH24" s="29"/>
@@ -3709,37 +3774,43 @@
       <c r="AV24" s="29"/>
       <c r="AW24" s="29"/>
       <c r="AX24" s="29"/>
-      <c r="AY24" s="9">
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="H25" s="9">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="85">
         <v>1</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="86">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AE26" s="87"/>
       <c r="AF26" s="87"/>
       <c r="AG26" s="87"/>
       <c r="AH26" s="87"/>
@@ -3759,154 +3830,177 @@
       <c r="AV26" s="87"/>
       <c r="AW26" s="87"/>
       <c r="AX26" s="87"/>
-      <c r="AY26" s="86">
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="86">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:51" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="H27" s="86">
+      <c r="C27" s="85"/>
+      <c r="D27" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="86">
         <v>0</v>
       </c>
-      <c r="Q27" s="86">
+      <c r="R27" s="86">
         <v>532947</v>
       </c>
-      <c r="W27" s="86">
+      <c r="X27" s="86">
         <v>9283747</v>
       </c>
-      <c r="AY27" s="86">
+      <c r="AZ27" s="86">
         <v>739284639</v>
       </c>
     </row>
-    <row r="28" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="AA28" s="103"/>
-      <c r="AK28" s="103"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="103"/>
-      <c r="AV28" s="103"/>
-      <c r="AW28" s="103"/>
-      <c r="AX28" s="103"/>
-      <c r="AY28" s="103"/>
-    </row>
-    <row r="29" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" s="94"/>
+      <c r="AL28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+    </row>
+    <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="103"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="103"/>
-      <c r="AV29" s="103"/>
-      <c r="AW29" s="103"/>
-      <c r="AX29" s="103"/>
-      <c r="AY29" s="103"/>
-    </row>
-    <row r="30" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="94"/>
+      <c r="AI29" s="94"/>
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="94"/>
+      <c r="AZ29" s="94"/>
+    </row>
+    <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="94">
+      <c r="C30" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="94">
+      <c r="C31" s="6">
         <v>1</v>
       </c>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="343" yWindow="238" count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:BB26 D16:BB16 D14:BB14 D12:BB12 D10:BB10 D24:BB24 D22:BB22 D20:BB20 D18:BB18 D8:BB8 D6:BB6 D4:BB4 D2:BB2">
+  <dataValidations xWindow="343" yWindow="238" count="4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E2:BC2">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:BB27 D25:BB25 D23:BB23 D21:BB21 D19:BB19 D17:BB17 D15:BB15 D13:BB13 D11:BB11 D9:BB9 D7:BB7 D5:BB5 D3:BB3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E3:BC3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C1:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1 D1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2868,7 +2868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3096,9 @@
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="X2" s="28">
+        <v>1</v>
+      </c>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
@@ -3155,6 +3157,9 @@
       <c r="W3" s="7">
         <v>39034561</v>
       </c>
+      <c r="X3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3177,6 +3182,9 @@
       </c>
       <c r="T4" s="9">
         <v>30</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1</v>
       </c>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
@@ -3224,6 +3232,9 @@
       <c r="F5" s="9">
         <v>0</v>
       </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3244,6 +3255,9 @@
       <c r="J6" s="11">
         <v>80</v>
       </c>
+      <c r="X6" s="11">
+        <v>1</v>
+      </c>
       <c r="Z6" s="11">
         <v>82</v>
       </c>
@@ -3277,6 +3291,9 @@
       <c r="J7" s="11">
         <v>2040504</v>
       </c>
+      <c r="X7" s="11">
+        <v>1</v>
+      </c>
       <c r="Z7" s="11">
         <v>4049504</v>
       </c>
@@ -3300,6 +3317,9 @@
       <c r="K8" s="13">
         <v>40</v>
       </c>
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
       <c r="AB8" s="13">
         <v>40</v>
       </c>
@@ -3315,6 +3335,9 @@
       <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="X9" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -3332,6 +3355,9 @@
       <c r="R10" s="15">
         <v>30</v>
       </c>
+      <c r="X10" s="15">
+        <v>1</v>
+      </c>
       <c r="AB10" s="15">
         <v>40</v>
       </c>
@@ -3350,6 +3376,9 @@
       <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="X11" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
@@ -3370,6 +3399,9 @@
       <c r="W12" s="17">
         <v>0</v>
       </c>
+      <c r="X12" s="17">
+        <v>1</v>
+      </c>
       <c r="AG12" s="17">
         <v>50</v>
       </c>
@@ -3387,6 +3419,9 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
         <v>23</v>
+      </c>
+      <c r="X13" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3525,6 +3560,9 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
+      <c r="X17" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3659,6 +3697,9 @@
       <c r="I21" s="27">
         <v>0</v>
       </c>
+      <c r="X21" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -3793,6 +3834,9 @@
       <c r="I25" s="9">
         <v>0</v>
       </c>
+      <c r="X25" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
@@ -3810,6 +3854,9 @@
       <c r="E26" s="86">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="X26" s="86">
+        <v>1</v>
       </c>
       <c r="AF26" s="87"/>
       <c r="AG26" s="87"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2868,7 +2868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,9 +3096,7 @@
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="28">
-        <v>1</v>
-      </c>
+      <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
@@ -3157,9 +3155,6 @@
       <c r="W3" s="7">
         <v>39034561</v>
       </c>
-      <c r="X3" s="7">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3182,9 +3177,6 @@
       </c>
       <c r="T4" s="9">
         <v>30</v>
-      </c>
-      <c r="X4" s="9">
-        <v>1</v>
       </c>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
@@ -3232,9 +3224,6 @@
       <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3255,9 +3244,6 @@
       <c r="J6" s="11">
         <v>80</v>
       </c>
-      <c r="X6" s="11">
-        <v>1</v>
-      </c>
       <c r="Z6" s="11">
         <v>82</v>
       </c>
@@ -3291,9 +3277,6 @@
       <c r="J7" s="11">
         <v>2040504</v>
       </c>
-      <c r="X7" s="11">
-        <v>1</v>
-      </c>
       <c r="Z7" s="11">
         <v>4049504</v>
       </c>
@@ -3317,9 +3300,6 @@
       <c r="K8" s="13">
         <v>40</v>
       </c>
-      <c r="X8" s="13">
-        <v>1</v>
-      </c>
       <c r="AB8" s="13">
         <v>40</v>
       </c>
@@ -3335,9 +3315,6 @@
       <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="13">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -3355,9 +3332,6 @@
       <c r="R10" s="15">
         <v>30</v>
       </c>
-      <c r="X10" s="15">
-        <v>1</v>
-      </c>
       <c r="AB10" s="15">
         <v>40</v>
       </c>
@@ -3376,9 +3350,6 @@
       <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="15">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
@@ -3399,9 +3370,6 @@
       <c r="W12" s="17">
         <v>0</v>
       </c>
-      <c r="X12" s="17">
-        <v>1</v>
-      </c>
       <c r="AG12" s="17">
         <v>50</v>
       </c>
@@ -3419,9 +3387,6 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="X13" s="17">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3560,9 +3525,6 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="X17" s="13">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3697,9 +3659,6 @@
       <c r="I21" s="27">
         <v>0</v>
       </c>
-      <c r="X21" s="27">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -3834,9 +3793,6 @@
       <c r="I25" s="9">
         <v>0</v>
       </c>
-      <c r="X25" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
@@ -3854,9 +3810,6 @@
       <c r="E26" s="86">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="X26" s="86">
-        <v>1</v>
       </c>
       <c r="AF26" s="87"/>
       <c r="AG26" s="87"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>tb_prop_smearneg</t>
-  </si>
-  <si>
-    <t>time_variant</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1348,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1450,6 +1447,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
@@ -2862,234 +2868,229 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BC31"/>
+  <dimension ref="A1:BB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" customWidth="1"/>
-    <col min="19" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="1" customWidth="1"/>
-    <col min="27" max="38" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="1" customWidth="1"/>
-    <col min="40" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11" style="102" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8" style="1" customWidth="1"/>
+    <col min="39" max="45" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8" style="1" customWidth="1"/>
+    <col min="47" max="47" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.85546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
+      <c r="D1" s="5">
+        <v>1920</v>
       </c>
       <c r="E1" s="5">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="F1" s="5">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="G1" s="5">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="H1" s="5">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="I1" s="5">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="J1" s="5">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="K1" s="5">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="L1" s="5">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="M1" s="5">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="N1" s="5">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="O1" s="5">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="P1" s="5">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="Q1" s="5">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="R1" s="5">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="S1" s="5">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="T1" s="5">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="U1" s="5">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="V1" s="5">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="W1" s="5">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="X1" s="5">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="Y1" s="5">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="Z1" s="5">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="AA1" s="5">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="AB1" s="5">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="AC1" s="5">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="AD1" s="5">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AE1" s="5">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="AF1" s="5">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="AG1" s="5">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="AH1" s="5">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="AI1" s="5">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="AJ1" s="5">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="AK1" s="5">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="AL1" s="5">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="AM1" s="5">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="AN1" s="5">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AO1" s="5">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="AP1" s="5">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="AQ1" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="AR1" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="AS1" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="AT1" s="5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="AU1" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="AV1" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="AW1" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="AX1" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="AY1" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AZ1" s="5">
-        <v>2014</v>
-      </c>
-      <c r="BA1" s="5">
         <v>2015</v>
       </c>
+      <c r="BA1" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="BB1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC1" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="94">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I2" s="7">
         <v>25</v>
       </c>
-      <c r="M2" s="7">
+      <c r="L2" s="7">
         <v>40</v>
       </c>
+      <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
@@ -3124,60 +3125,54 @@
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
       <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
+      <c r="BA2" s="7">
+        <v>99</v>
+      </c>
       <c r="BB2" s="7">
         <v>99</v>
       </c>
-      <c r="BC2" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="C3" s="94"/>
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
+      <c r="I3" s="7">
         <v>10000000</v>
       </c>
-      <c r="M3" s="7">
+      <c r="L3" s="7">
         <v>15040500</v>
       </c>
-      <c r="W3" s="7">
+      <c r="V3" s="7">
         <v>39034561</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="95">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="J4" s="9">
         <v>10</v>
       </c>
-      <c r="T4" s="9">
+      <c r="S4" s="9">
         <v>30</v>
       </c>
+      <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
@@ -3202,215 +3197,185 @@
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
       <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
+      <c r="BA4" s="9">
+        <v>70</v>
+      </c>
       <c r="BB4" s="9">
-        <v>70</v>
-      </c>
-      <c r="BC4" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="C5" s="95"/>
+      <c r="E5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="96">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="11">
         <v>70</v>
       </c>
-      <c r="J6" s="11">
+      <c r="I6" s="11">
         <v>80</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Y6" s="11">
         <v>82</v>
       </c>
-      <c r="AM6" s="11">
+      <c r="AL6" s="11">
         <v>84</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="AY6" s="11">
+        <v>85</v>
+      </c>
+      <c r="BA6" s="11">
         <v>85</v>
       </c>
       <c r="BB6" s="11">
         <v>85</v>
       </c>
-      <c r="BC6" s="11">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="C7" s="96"/>
+      <c r="F7" s="11">
         <v>1005000</v>
       </c>
-      <c r="J7" s="11">
+      <c r="I7" s="11">
         <v>2040504</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Y7" s="11">
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="97">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="G8" s="13">
         <v>30</v>
       </c>
-      <c r="K8" s="13">
+      <c r="J8" s="13">
         <v>40</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AA8" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="97"/>
+    </row>
+    <row r="10" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="98">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="15">
+      <c r="Q10" s="15">
         <v>30</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AA10" s="15">
         <v>40</v>
       </c>
-      <c r="AL10" s="15">
+      <c r="AK10" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="98"/>
+    </row>
+    <row r="12" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="99">
         <v>1</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="H12" s="17">
         <v>7</v>
       </c>
-      <c r="W12" s="17">
+      <c r="V12" s="17">
         <v>0</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AF12" s="17">
         <v>50</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AK12" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="99"/>
+    </row>
+    <row r="14" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="97">
         <v>1</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="R14" s="13">
+      <c r="Q14" s="13">
         <v>30</v>
       </c>
-      <c r="X14" s="13">
+      <c r="W14" s="13">
         <v>50</v>
       </c>
+      <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="30"/>
@@ -3430,63 +3395,57 @@
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
       <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
+      <c r="BA14" s="13">
+        <v>90</v>
+      </c>
       <c r="BB14" s="13">
         <v>90</v>
       </c>
-      <c r="BC14" s="13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="C15" s="97"/>
+      <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="R15" s="13">
+      <c r="Q15" s="13">
         <v>1926492</v>
       </c>
-      <c r="X15" s="13">
+      <c r="W15" s="13">
         <v>4573928</v>
       </c>
-      <c r="AM15" s="13">
+      <c r="AL15" s="13">
         <v>9382947</v>
       </c>
-      <c r="AU15" s="13">
+      <c r="AT15" s="13">
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="97">
         <v>1</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="R16" s="13">
+      <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="X16" s="13">
+      <c r="W16" s="13">
         <v>12</v>
       </c>
+      <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
       <c r="AH16" s="30"/>
@@ -3506,48 +3465,42 @@
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
       <c r="AX16" s="30"/>
-      <c r="AY16" s="30"/>
-      <c r="BB16" s="13">
+      <c r="BA16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="C17" s="97"/>
+      <c r="H17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="100">
         <v>1</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="27">
+      <c r="H18" s="27">
         <v>0</v>
       </c>
-      <c r="R18" s="27">
+      <c r="Q18" s="27">
         <v>15</v>
       </c>
-      <c r="X18" s="27">
+      <c r="W18" s="27">
         <v>30</v>
       </c>
+      <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
@@ -3567,60 +3520,54 @@
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="27">
+      <c r="AY18" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="27">
+      <c r="C19" s="100"/>
+      <c r="H19" s="27">
         <v>0</v>
       </c>
-      <c r="R19" s="27">
+      <c r="Q19" s="27">
         <v>492549</v>
       </c>
-      <c r="X19" s="27">
+      <c r="W19" s="27">
         <v>256491</v>
       </c>
-      <c r="AM19" s="27">
+      <c r="AL19" s="27">
         <v>9382947</v>
       </c>
-      <c r="AU19" s="27">
+      <c r="AT19" s="27">
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="100">
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="27">
+      <c r="H20" s="27">
         <v>0</v>
       </c>
-      <c r="R20" s="27">
+      <c r="Q20" s="27">
         <v>55</v>
       </c>
-      <c r="X20" s="27">
+      <c r="W20" s="27">
         <v>50</v>
       </c>
+      <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="31"/>
       <c r="AH20" s="31"/>
@@ -3640,48 +3587,42 @@
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="27">
+      <c r="AY20" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="27">
+      <c r="C21" s="100"/>
+      <c r="H21" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="95">
         <v>1</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="R22" s="9">
+      <c r="Q22" s="9">
         <v>5</v>
       </c>
-      <c r="X22" s="9">
+      <c r="W22" s="9">
         <v>15</v>
       </c>
+      <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
@@ -3701,60 +3642,54 @@
       <c r="AV22" s="29"/>
       <c r="AW22" s="29"/>
       <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="9">
+      <c r="AY22" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="C23" s="95"/>
+      <c r="H23" s="9">
         <v>0</v>
       </c>
-      <c r="R23" s="9">
+      <c r="Q23" s="9">
         <v>0</v>
       </c>
-      <c r="X23" s="9">
+      <c r="W23" s="9">
         <v>0</v>
       </c>
-      <c r="AM23" s="9">
+      <c r="AL23" s="9">
         <v>0</v>
       </c>
-      <c r="AU23" s="9">
+      <c r="AT23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="95">
         <v>1</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="R24" s="9">
+      <c r="Q24" s="9">
         <v>65</v>
       </c>
-      <c r="X24" s="9">
+      <c r="W24" s="9">
         <v>62</v>
       </c>
+      <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="29"/>
       <c r="AH24" s="29"/>
@@ -3774,43 +3709,37 @@
       <c r="AV24" s="29"/>
       <c r="AW24" s="29"/>
       <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="9">
+      <c r="AY24" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="C25" s="95"/>
+      <c r="H25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="101">
         <v>1</v>
       </c>
-      <c r="D26" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="86">
+      <c r="D26" s="86">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="AE26" s="87"/>
       <c r="AF26" s="87"/>
       <c r="AG26" s="87"/>
       <c r="AH26" s="87"/>
@@ -3830,177 +3759,154 @@
       <c r="AV26" s="87"/>
       <c r="AW26" s="87"/>
       <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="86">
+      <c r="AY26" s="86">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="86">
+      <c r="C27" s="101"/>
+      <c r="H27" s="86">
         <v>0</v>
       </c>
-      <c r="R27" s="86">
+      <c r="Q27" s="86">
         <v>532947</v>
       </c>
-      <c r="X27" s="86">
+      <c r="W27" s="86">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="86">
+      <c r="AY27" s="86">
         <v>739284639</v>
       </c>
     </row>
-    <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="94">
         <v>1</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB28" s="94"/>
-      <c r="AL28" s="94"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-    </row>
-    <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA28" s="103"/>
+      <c r="AK28" s="103"/>
+      <c r="AQ28" s="103"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="103"/>
+      <c r="AT28" s="103"/>
+      <c r="AU28" s="103"/>
+      <c r="AV28" s="103"/>
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="103"/>
+      <c r="AY28" s="103"/>
+    </row>
+    <row r="29" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="94">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="94"/>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="94"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="94"/>
-      <c r="AY29" s="94"/>
-      <c r="AZ29" s="94"/>
-    </row>
-    <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="103"/>
+      <c r="AT29" s="103"/>
+      <c r="AU29" s="103"/>
+      <c r="AV29" s="103"/>
+      <c r="AW29" s="103"/>
+      <c r="AX29" s="103"/>
+      <c r="AY29" s="103"/>
+    </row>
+    <row r="30" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="94">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="94">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E2:BC2">
+  <dataValidations xWindow="343" yWindow="238" count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:BB26 D16:BB16 D14:BB14 D12:BB12 D10:BB10 D24:BB24 D22:BB22 D20:BB20 D18:BB18 D8:BB8 D6:BB6 D4:BB4 D2:BB2">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E3:BC3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:BB27 D25:BB25 D23:BB23 D21:BB21 D19:BB19 D17:BB17 D15:BB15 D13:BB13 D11:BB11 D9:BB9 D7:BB7 D5:BB5 D3:BB3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C1:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1 D1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B27</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,8 +2736,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="62">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>50</v>
@@ -2845,7 +2845,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="63">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>77</v>
@@ -2864,11 +2864,11 @@
   </sheetPr>
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
+      <selection pane="bottomRight" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -274,12 +274,6 @@
     <t>program_prop_death_reporting</t>
   </si>
   <si>
-    <t>epi_life_expectancy</t>
-  </si>
-  <si>
-    <t>epi_birth_rate</t>
-  </si>
-  <si>
     <t>tb_prop_smearpos</t>
   </si>
   <si>
@@ -287,6 +281,12 @@
   </si>
   <si>
     <t>time_variant</t>
+  </si>
+  <si>
+    <t>demo_life_expectancy</t>
+  </si>
+  <si>
+    <t>demo_birth_rate</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2736,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2864,11 +2864,11 @@
   </sheetPr>
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA20" sqref="AA20"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,7 +2912,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -286,7 +286,7 @@
     <t>demo_life_expectancy</t>
   </si>
   <si>
-    <t>demo_birth_rate</t>
+    <t>demo_rate_birth</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2737,7 +2737,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="62">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>50</v>
@@ -2868,7 +2868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2868,7 +2868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,7 +4036,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
@@ -4047,7 +4047,13 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D27 D29:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -274,12 +274,6 @@
     <t>program_prop_death_reporting</t>
   </si>
   <si>
-    <t>tb_prop_smearpos</t>
-  </si>
-  <si>
-    <t>tb_prop_smearneg</t>
-  </si>
-  <si>
     <t>time_variant</t>
   </si>
   <si>
@@ -287,6 +281,12 @@
   </si>
   <si>
     <t>demo_rate_birth</t>
+  </si>
+  <si>
+    <t>epi_prop_smearpos</t>
+  </si>
+  <si>
+    <t>epi_prop_smearneg</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,7 +2912,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -389,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1357,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1451,6 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2868,7 +2875,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,9 +3103,7 @@
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="28">
-        <v>1</v>
-      </c>
+      <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
@@ -3142,7 +3147,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="95" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
@@ -3182,9 +3187,6 @@
       </c>
       <c r="T4" s="9">
         <v>30</v>
-      </c>
-      <c r="X4" s="9">
-        <v>1</v>
       </c>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
@@ -3226,7 +3228,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="95" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -3255,9 +3257,6 @@
       <c r="J6" s="11">
         <v>80</v>
       </c>
-      <c r="X6" s="11">
-        <v>1</v>
-      </c>
       <c r="Z6" s="11">
         <v>82</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="95" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="11">
@@ -3317,9 +3316,6 @@
       <c r="K8" s="13">
         <v>40</v>
       </c>
-      <c r="X8" s="13">
-        <v>1</v>
-      </c>
       <c r="AB8" s="13">
         <v>40</v>
       </c>
@@ -3332,7 +3328,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="95" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="13">
@@ -3355,9 +3351,6 @@
       <c r="R10" s="15">
         <v>30</v>
       </c>
-      <c r="X10" s="15">
-        <v>1</v>
-      </c>
       <c r="AB10" s="15">
         <v>40</v>
       </c>
@@ -3373,7 +3366,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="95" t="s">
         <v>23</v>
       </c>
       <c r="X11" s="15">
@@ -3399,9 +3392,6 @@
       <c r="W12" s="17">
         <v>0</v>
       </c>
-      <c r="X12" s="17">
-        <v>1</v>
-      </c>
       <c r="AG12" s="17">
         <v>50</v>
       </c>
@@ -3417,7 +3407,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="95" t="s">
         <v>23</v>
       </c>
       <c r="X13" s="17">
@@ -3481,7 +3471,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="13">
@@ -3554,7 +3544,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3618,7 +3608,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="27">
@@ -3691,7 +3681,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="27">
@@ -3755,7 +3745,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="9">
@@ -3828,7 +3818,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3854,9 +3844,6 @@
       <c r="E26" s="86">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="X26" s="86">
-        <v>1</v>
       </c>
       <c r="AF26" s="87"/>
       <c r="AG26" s="87"/>
@@ -3890,7 +3877,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="85"/>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="95" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="86">
@@ -3999,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4012,8 +3999,9 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>13</v>
+      <c r="D31" s="6" t="str">
+        <f>D30</f>
+        <v>no</v>
       </c>
     </row>
   </sheetData>
@@ -4030,13 +4018,13 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1 D1"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
@@ -4047,13 +4035,19 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D27 D29:D1048576</xm:sqref>
+          <xm:sqref>D2:D27 D29:D30 D32:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>D28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2427,8 +2427,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,11 +2871,11 @@
   </sheetPr>
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3903,7 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="95" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="94"/>
@@ -3999,7 +3999,7 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="str">
+      <c r="D31" s="95" t="str">
         <f>D30</f>
         <v>no</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>epi_prop_smearneg</t>
+  </si>
+  <si>
+    <t>is_additional_diagnostics</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -690,6 +693,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1399,9 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1411,8 +1421,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,14 +1458,18 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2425,15 +2437,15 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
@@ -2454,7 +2466,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="36">
@@ -2464,7 +2476,7 @@
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="36">
@@ -2474,7 +2486,7 @@
       <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="37">
@@ -2484,7 +2496,7 @@
       <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="39" t="b">
@@ -2493,180 +2505,189 @@
       <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="41" t="b">
+      <c r="B6" s="95" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="43" t="b">
+      <c r="B7" s="95" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="94" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="42"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B9" s="91">
         <v>1</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C9" s="91">
         <v>2</v>
       </c>
-      <c r="D8" s="90"/>
-    </row>
-    <row r="9" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="D9" s="84"/>
+    </row>
+    <row r="10" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B10" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="73"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B11" s="79">
         <v>457200</v>
       </c>
-      <c r="C10" s="47"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="C11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B12" s="77">
         <v>3</v>
       </c>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="C12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B13" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="47"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="C13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B14" s="67">
         <v>1900</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B15" s="35">
         <v>1990</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B16" s="35">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B17" s="35">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B18" s="35">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B19" s="85">
         <v>2035</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="93">
+      <c r="B20" s="87">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B21" s="73">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B22" s="74">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B23" s="70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+    <row r="24" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="8">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B14:B17">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B15:B18">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B14">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -2676,12 +2697,12 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B20:B21">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B21:B22">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B24:E24"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B9:C12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B25:E25"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B10:C13"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2716,19 +2737,19 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B7:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
           <x14:formula1>
             <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>C7:C8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Integration" prompt="Which integration package. Explicitly coded or Scipy's integration package.">
           <x14:formula1>
             <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B22</xm:sqref>
+          <xm:sqref>B23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2749,112 +2770,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="59"/>
+    <col min="1" max="1" width="48.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="58">
         <v>6.7</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="58">
         <v>26</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="58">
         <v>4</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="58">
         <v>1945</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="58">
         <v>1955</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="58">
         <v>2050</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="58">
         <v>2</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="59">
         <v>0.32</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="55" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3147,7 +3168,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="89" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
@@ -3228,7 +3249,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="89" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -3281,7 +3302,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="11">
@@ -3328,7 +3349,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="89" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="13">
@@ -3366,7 +3387,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="89" t="s">
         <v>23</v>
       </c>
       <c r="X11" s="15">
@@ -3407,7 +3428,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="89" t="s">
         <v>23</v>
       </c>
       <c r="X13" s="17">
@@ -3471,7 +3492,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="89" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="13">
@@ -3544,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="89" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3608,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="89" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="27">
@@ -3681,7 +3702,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="89" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="27">
@@ -3745,7 +3766,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="89" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="9">
@@ -3818,7 +3839,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="89" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3828,68 +3849,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+    <row r="26" spans="1:52" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="81">
         <v>1</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="82">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="86">
+      <c r="AF26" s="83"/>
+      <c r="AG26" s="83"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="83"/>
+      <c r="AK26" s="83"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="83"/>
+      <c r="AO26" s="83"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="83"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="82">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+    <row r="27" spans="1:52" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="95" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="86">
+      <c r="I27" s="82">
         <v>0</v>
       </c>
-      <c r="R27" s="86">
+      <c r="R27" s="82">
         <v>532947</v>
       </c>
-      <c r="X27" s="86">
+      <c r="X27" s="82">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="86">
+      <c r="AZ27" s="82">
         <v>739284639</v>
       </c>
     </row>
@@ -3903,20 +3924,20 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AB28" s="94"/>
-      <c r="AL28" s="94"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
+      <c r="AB28" s="88"/>
+      <c r="AL28" s="88"/>
+      <c r="AR28" s="88"/>
+      <c r="AS28" s="88"/>
+      <c r="AT28" s="88"/>
+      <c r="AU28" s="88"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="88"/>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
@@ -3931,49 +3952,49 @@
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="94"/>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="94"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="94"/>
-      <c r="AY29" s="94"/>
-      <c r="AZ29" s="94"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="88"/>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="88"/>
+      <c r="AP29" s="88"/>
+      <c r="AQ29" s="88"/>
+      <c r="AR29" s="88"/>
+      <c r="AS29" s="88"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="88"/>
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -3999,7 +4020,7 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="95" t="str">
+      <c r="D31" s="89" t="str">
         <f>D30</f>
         <v>no</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2440,7 +2440,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2896,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="D31" s="89" t="str">
         <f>D30</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2440,7 +2440,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2470,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
@@ -2682,7 +2682,7 @@
       <c r="J25" s="45"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="363" yWindow="440" count="8">
+  <dataValidations xWindow="363" yWindow="440" count="9">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B15:B18">
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
@@ -2691,7 +2691,7 @@
       <formula1>-10000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organ stratification" prompt="Number of organs allowed (0: no stratification, 2: smear-positive and smear-negative, 3: smear-positive, smear-negative and extra-pulmonary)." sqref="B2:D2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organ stratification" prompt="Number of organs allowed (0: no stratification, 2: smear-positive and smear-negative, 3: smear-positive, smear-negative and extra-pulmonary)." sqref="C2:D2">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -2703,6 +2703,10 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B25:E25"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B10:C13"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organ stratification" prompt="Number of organs allowed (0: no stratification, 2: smear-positive and smear-negative, 3: smear-positive, smear-negative and extra-pulmonary). WARNING: No organ stratification should be selected if this is zero (or one)." sqref="B2">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2896,7 +2900,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,7 +4026,7 @@
       </c>
       <c r="D31" s="89" t="str">
         <f>D30</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
   </sheetData>
@@ -4045,7 +4049,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
@@ -4056,7 +4060,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D27 D29:D30 D32:D1048576</xm:sqref>
+          <xm:sqref>D2:D27 D32:D1048576 D29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
@@ -4069,6 +4073,12 @@
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>D31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2440,7 +2440,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2470,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
@@ -2900,7 +2900,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D31" s="89" t="str">
         <f>D30</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2439,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2470,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
@@ -2896,11 +2896,11 @@
   </sheetPr>
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2439,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,11 +2896,11 @@
   </sheetPr>
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3237,9 @@
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
       <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
+      <c r="AZ4" s="29">
+        <v>50</v>
+      </c>
       <c r="BB4" s="9">
         <v>70</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4026,7 +4028,7 @@
       </c>
       <c r="D31" s="89" t="str">
         <f>D30</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2440,7 +2440,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2557,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="79">
-        <v>457200</v>
+        <v>189095</v>
       </c>
       <c r="C11" s="45"/>
     </row>
@@ -2584,7 +2584,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="67">
-        <v>1900</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3168,7 @@
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
@@ -3251,7 +3251,7 @@
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
@@ -3304,7 +3304,7 @@
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
@@ -3351,7 +3351,7 @@
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
@@ -3389,7 +3389,7 @@
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
@@ -3430,7 +3430,7 @@
       <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="16"/>
@@ -3494,7 +3494,7 @@
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
@@ -3567,7 +3567,7 @@
       <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
@@ -3631,7 +3631,7 @@
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
@@ -3704,7 +3704,7 @@
       <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="26"/>
@@ -3768,7 +3768,7 @@
       <c r="A23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
@@ -3841,7 +3841,7 @@
       <c r="A25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
@@ -3900,7 +3900,7 @@
       <c r="A27" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="81"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>is_additional_diagnostics</t>
+  </si>
+  <si>
+    <t>scenario_3</t>
+  </si>
+  <si>
+    <t>scenario_4</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1375,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1470,6 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2440,7 +2447,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2458,7 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>40</v>
       </c>
@@ -2475,7 +2482,7 @@
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>41</v>
       </c>
@@ -2485,7 +2492,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>37</v>
       </c>
@@ -2495,7 +2502,7 @@
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2504,7 +2511,7 @@
       </c>
       <c r="C5" s="40"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
         <v>43</v>
       </c>
@@ -2513,7 +2520,7 @@
       </c>
       <c r="C6" s="41"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2529,7 @@
       </c>
       <c r="C7" s="41"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
         <v>90</v>
       </c>
@@ -2531,7 +2538,7 @@
       </c>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>72</v>
       </c>
@@ -2541,9 +2548,14 @@
       <c r="C9" s="91">
         <v>2</v>
       </c>
-      <c r="D9" s="84"/>
-    </row>
-    <row r="10" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="84">
+        <v>3</v>
+      </c>
+      <c r="E9" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
         <v>65</v>
       </c>
@@ -2552,7 +2564,7 @@
       </c>
       <c r="C10" s="69"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>63</v>
       </c>
@@ -2561,7 +2573,7 @@
       </c>
       <c r="C11" s="45"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>64</v>
       </c>
@@ -2570,7 +2582,7 @@
       </c>
       <c r="C12" s="45"/>
     </row>
-    <row r="13" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2591,7 @@
       </c>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2599,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>39</v>
       </c>
@@ -2595,7 +2607,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>71</v>
       </c>
@@ -2769,7 +2781,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2889,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="59">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>77</v>
@@ -2894,13 +2906,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BC31"/>
+  <dimension ref="A1:BE31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2945,7 @@
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3099,8 +3111,14 @@
       <c r="BC1" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -3246,8 +3264,11 @@
       <c r="BC4" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD4" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -3265,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -3299,8 +3320,11 @@
       <c r="BC6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE6" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
@@ -3324,7 +3348,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -3385,7 +3409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -3400,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
@@ -3489,8 +3513,11 @@
       <c r="BC14" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD14" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
@@ -3517,7 +3544,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2439,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,11 +2896,11 @@
   </sheetPr>
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3128,9 @@
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="X2" s="28">
+        <v>1</v>
+      </c>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
@@ -3213,6 +3215,9 @@
       <c r="T4" s="9">
         <v>30</v>
       </c>
+      <c r="X4" s="9">
+        <v>1</v>
+      </c>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
@@ -3284,6 +3289,9 @@
       <c r="J6" s="11">
         <v>80</v>
       </c>
+      <c r="X6" s="11">
+        <v>1</v>
+      </c>
       <c r="Z6" s="11">
         <v>82</v>
       </c>
@@ -3343,6 +3351,9 @@
       <c r="K8" s="13">
         <v>40</v>
       </c>
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
       <c r="AB8" s="13">
         <v>40</v>
       </c>
@@ -3378,6 +3389,9 @@
       <c r="R10" s="15">
         <v>30</v>
       </c>
+      <c r="X10" s="15">
+        <v>1</v>
+      </c>
       <c r="AB10" s="15">
         <v>40</v>
       </c>
@@ -3418,6 +3432,9 @@
       </c>
       <c r="W12" s="17">
         <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <v>1</v>
       </c>
       <c r="AG12" s="17">
         <v>50</v>
@@ -3871,6 +3888,9 @@
       <c r="E26" s="82">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="X26" s="82">
+        <v>1</v>
       </c>
       <c r="AF26" s="83"/>
       <c r="AG26" s="83"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>is_additional_diagnostics</t>
+  </si>
+  <si>
+    <t>scenario_3</t>
+  </si>
+  <si>
+    <t>scenario_4</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1375,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1412,7 +1418,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1464,12 +1469,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2439,19 +2444,19 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
@@ -2465,8 +2470,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="36">
@@ -2475,8 +2480,8 @@
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="36">
@@ -2485,8 +2490,8 @@
       <c r="C3" s="36"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="37">
@@ -2495,8 +2500,8 @@
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="39" t="b">
@@ -2504,99 +2509,109 @@
       </c>
       <c r="C5" s="40"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="95" t="b">
+      <c r="B6" s="91" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="41"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="95" t="b">
+      <c r="B7" s="91" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="41"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="94" t="b">
+      <c r="B8" s="91" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="93">
         <v>1</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="94">
         <v>2</v>
       </c>
-      <c r="D9" s="84"/>
-    </row>
-    <row r="10" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="D9" s="94">
+        <v>3</v>
+      </c>
+      <c r="E9" s="94">
+        <v>4</v>
+      </c>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="69"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="C10" s="68"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="79">
-        <v>457200</v>
-      </c>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="B11" s="78">
+        <v>300000</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="76">
         <v>3</v>
       </c>
-      <c r="C12" s="45"/>
-    </row>
-    <row r="13" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="67">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="B14" s="66">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="35">
         <v>1990</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="35">
@@ -2604,7 +2619,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="35">
@@ -2612,7 +2627,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="35">
@@ -2620,66 +2635,66 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="84">
         <v>2035</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="87">
+      <c r="B20" s="86">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="72">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
     </row>
   </sheetData>
   <dataValidations xWindow="363" yWindow="440" count="9">
@@ -2769,117 +2784,117 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="48.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>6.7</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="57">
         <v>26</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="57">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="57">
         <v>1945</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="57">
         <v>1955</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="57">
         <v>2050</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <v>2</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <v>0.32</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2894,13 +2909,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BC31"/>
+  <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomRight" activeCell="BF14" sqref="BF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2948,7 @@
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3099,8 +3114,14 @@
       <c r="BC1" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -3166,7 +3187,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -3174,7 +3195,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="88" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
@@ -3193,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -3260,7 +3281,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="88" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -3270,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -3307,8 +3328,11 @@
       <c r="BC6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE6" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
@@ -3316,7 +3340,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="11">
@@ -3332,7 +3356,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
@@ -3358,7 +3382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -3366,14 +3390,14 @@
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="88" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -3399,7 +3423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -3407,14 +3431,14 @@
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="88" t="s">
         <v>23</v>
       </c>
       <c r="X11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
@@ -3451,14 +3475,14 @@
         <v>23</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="88" t="s">
         <v>23</v>
       </c>
       <c r="X13" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
@@ -3506,8 +3530,11 @@
       <c r="BC14" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BF14" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
@@ -3515,7 +3542,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="13">
@@ -3534,7 +3561,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
@@ -3588,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3652,7 +3679,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="27">
@@ -3725,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="27">
@@ -3789,7 +3816,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="9">
@@ -3862,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3872,71 +3899,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+    <row r="26" spans="1:52" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="80">
         <v>1</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="81">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="X26" s="82">
+      <c r="X26" s="81">
         <v>1</v>
       </c>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="83"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="82">
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="81">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+    <row r="27" spans="1:52" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="89" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="82">
+      <c r="I27" s="81">
         <v>0</v>
       </c>
-      <c r="R27" s="82">
+      <c r="R27" s="81">
         <v>532947</v>
       </c>
-      <c r="X27" s="82">
+      <c r="X27" s="81">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="82">
+      <c r="AZ27" s="81">
         <v>739284639</v>
       </c>
     </row>
@@ -3950,20 +3977,20 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AB28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AR28" s="88"/>
-      <c r="AS28" s="88"/>
-      <c r="AT28" s="88"/>
-      <c r="AU28" s="88"/>
-      <c r="AV28" s="88"/>
-      <c r="AW28" s="88"/>
-      <c r="AX28" s="88"/>
-      <c r="AY28" s="88"/>
-      <c r="AZ28" s="88"/>
+      <c r="AB28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
@@ -3978,49 +4005,49 @@
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="88"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="88"/>
-      <c r="AP29" s="88"/>
-      <c r="AQ29" s="88"/>
-      <c r="AR29" s="88"/>
-      <c r="AS29" s="88"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88"/>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="88"/>
-      <c r="AY29" s="88"/>
-      <c r="AZ29" s="88"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="87"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="87"/>
+      <c r="AR29" s="87"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="87"/>
+      <c r="AZ29" s="87"/>
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -4046,7 +4073,7 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="89" t="str">
+      <c r="D31" s="88" t="str">
         <f>D30</f>
         <v>no</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2444,8 +2444,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,12 +2546,8 @@
       <c r="C9" s="94">
         <v>2</v>
       </c>
-      <c r="D9" s="94">
-        <v>3</v>
-      </c>
-      <c r="E9" s="94">
-        <v>4</v>
-      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="94"/>
       <c r="G9" s="94"/>
       <c r="H9" s="94"/>
@@ -2572,7 +2568,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="78">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="C11" s="44"/>
     </row>
@@ -2599,7 +2595,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="66">
-        <v>1903</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2783,8 +2779,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,7 +2888,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="58">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>77</v>
@@ -2912,10 +2908,10 @@
   <dimension ref="A1:BF31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF14" sqref="BF14"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,9 +3145,7 @@
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="28">
-        <v>1</v>
-      </c>
+      <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
@@ -3236,9 +3230,6 @@
       <c r="T4" s="9">
         <v>30</v>
       </c>
-      <c r="X4" s="9">
-        <v>1</v>
-      </c>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
@@ -3310,9 +3301,6 @@
       <c r="J6" s="11">
         <v>80</v>
       </c>
-      <c r="X6" s="11">
-        <v>1</v>
-      </c>
       <c r="Z6" s="11">
         <v>82</v>
       </c>
@@ -3375,9 +3363,6 @@
       <c r="K8" s="13">
         <v>40</v>
       </c>
-      <c r="X8" s="13">
-        <v>1</v>
-      </c>
       <c r="AB8" s="13">
         <v>40</v>
       </c>
@@ -3413,9 +3398,6 @@
       <c r="R10" s="15">
         <v>30</v>
       </c>
-      <c r="X10" s="15">
-        <v>1</v>
-      </c>
       <c r="AB10" s="15">
         <v>40</v>
       </c>
@@ -3456,9 +3438,6 @@
       </c>
       <c r="W12" s="17">
         <v>0</v>
-      </c>
-      <c r="X12" s="17">
-        <v>1</v>
       </c>
       <c r="AG12" s="17">
         <v>50</v>
@@ -3915,9 +3894,6 @@
       <c r="E26" s="81">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="X26" s="81">
-        <v>1</v>
       </c>
       <c r="AF26" s="82"/>
       <c r="AG26" s="82"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
@@ -2444,8 +2444,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,8 +2546,12 @@
       <c r="C9" s="94">
         <v>2</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="D9" s="94">
+        <v>3</v>
+      </c>
+      <c r="E9" s="94">
+        <v>4</v>
+      </c>
       <c r="F9" s="94"/>
       <c r="G9" s="94"/>
       <c r="H9" s="94"/>
@@ -2627,7 +2631,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2779,7 +2783,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2908,7 +2912,7 @@
   <dimension ref="A1:BF31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>scenario_4</t>
+  </si>
+  <si>
+    <t>runge_kutta</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2448,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,7 +2769,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Integration" prompt="Which integration package. Explicitly coded or Scipy's integration package.">
           <x14:formula1>
-            <xm:f>dropdown_lists!$C$2:$C$3</xm:f>
+            <xm:f>dropdown_lists!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>B23</xm:sqref>
         </x14:dataValidation>
@@ -4123,7 +4126,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,6 +4157,9 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection password="D0CB" sheet="1" objects="1" scenarios="1"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -7,17 +7,16 @@
     <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
-    <sheet name="model_attributes" sheetId="4" r:id="rId1"/>
-    <sheet name="miscellaneous_constants" sheetId="1" r:id="rId2"/>
-    <sheet name="time_variants" sheetId="2" r:id="rId3"/>
-    <sheet name="dropdown_lists" sheetId="3" r:id="rId4"/>
+    <sheet name="miscellaneous_constants" sheetId="1" r:id="rId1"/>
+    <sheet name="time_variants" sheetId="2" r:id="rId2"/>
+    <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -127,42 +126,6 @@
     <t>program_cost_treatment_death_xdr</t>
   </si>
   <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>n_comorbidities</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>recent_time</t>
-  </si>
-  <si>
-    <t>n_organs</t>
-  </si>
-  <si>
-    <t>n_strains</t>
-  </si>
-  <si>
-    <t>is_lowquality</t>
-  </si>
-  <si>
-    <t>is_amplification</t>
-  </si>
-  <si>
-    <t>is_misassignment</t>
-  </si>
-  <si>
-    <t>age_breakpoints</t>
-  </si>
-  <si>
-    <t>age_stratification</t>
-  </si>
-  <si>
-    <t>consecutive age breakpoints</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -184,42 +147,12 @@
     <t>Rate at which patients change from the low quality to the high quality health system</t>
   </si>
   <si>
-    <t>integration</t>
-  </si>
-  <si>
     <t>explicit</t>
   </si>
   <si>
     <t>scipy</t>
   </si>
   <si>
-    <t>single value needed</t>
-  </si>
-  <si>
-    <t>first value</t>
-  </si>
-  <si>
-    <t>value at iteration</t>
-  </si>
-  <si>
-    <t>value at second iteration</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>susceptible_fully</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>start_compartments</t>
-  </si>
-  <si>
-    <t>fitting_method</t>
-  </si>
-  <si>
     <t>program_timeperiod_await_treatment</t>
   </si>
   <si>
@@ -229,36 +162,15 @@
     <t>scenario_1</t>
   </si>
   <si>
-    <t>scenario_end_time</t>
-  </si>
-  <si>
-    <t>current_time</t>
-  </si>
-  <si>
-    <t>scenarios_to_run</t>
-  </si>
-  <si>
     <t>scenario_2</t>
   </si>
   <si>
-    <t>scenario_start_time</t>
-  </si>
-  <si>
-    <t>scenario_full_time</t>
-  </si>
-  <si>
-    <t>time_step</t>
-  </si>
-  <si>
     <t>Proportion of TB-related deaths not already under treatment that are correctly reported as such</t>
   </si>
   <si>
     <t>smoothness</t>
   </si>
   <si>
-    <t>default_smoothness</t>
-  </si>
-  <si>
     <t>start_mdr_introduce_period</t>
   </si>
   <si>
@@ -287,9 +199,6 @@
   </si>
   <si>
     <t>epi_prop_smearneg</t>
-  </si>
-  <si>
-    <t>is_additional_diagnostics</t>
   </si>
   <si>
     <t>scenario_3</t>
@@ -308,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,14 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -401,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,18 +394,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -595,122 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1378,7 +1157,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1411,33 +1190,13 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1445,39 +1204,12 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2443,462 +2175,123 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="D1" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="37">
+        <v>6.7</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37">
+        <v>26</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37">
+        <v>4</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="36">
-        <v>3</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1945</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="37">
+        <v>1955</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37">
+        <v>2050</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="36">
-        <v>0</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="93">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94">
-        <v>2</v>
-      </c>
-      <c r="D9" s="94">
-        <v>3</v>
-      </c>
-      <c r="E9" s="94">
-        <v>4</v>
-      </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="83"/>
-    </row>
-    <row r="10" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="68"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="78">
-        <v>200000</v>
-      </c>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="76">
-        <v>3</v>
-      </c>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="66">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="35">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="35">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="35">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="35">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="84">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="86">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-    </row>
-  </sheetData>
-  <dataValidations xWindow="363" yWindow="440" count="9">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to do recent graphs from" prompt="Calendar year that output graphs for recent time start from." sqref="B15:B18">
-      <formula1>-10000</formula1>
-      <formula2>3000</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time to start model" prompt="Enter the calendar year that the model runs from." sqref="B14">
-      <formula1>-10000</formula1>
-      <formula2>3000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organ stratification" prompt="Number of organs allowed (0: no stratification, 2: smear-positive and smear-negative, 3: smear-positive, smear-negative and extra-pulmonary)." sqref="C2:D2">
-      <formula1>0</formula1>
-      <formula2>3</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Strains" prompt="Number of strains (0: single strain model, 2: DS-TB and MDR-TB, 3: DS-TB, MDR-TB and XDR-TB)." sqref="B3:D3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comorbidities" prompt="Number of comorbidities (currently up to three, but will be revised as model develops)." sqref="B4:D4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Function smoothness" prompt="From zero up, with zero being exact fit and higher values being greater smoothness." sqref="B21:B22">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age breakpoints" prompt="Enter consecutively increasing age breakpoints to create age strata. (Can enter any number, don't enter zero and no upper limit is needed.)" sqref="B25:E25"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B10:C13"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organ stratification" prompt="Number of organs allowed (0: no stratification, 2: smear-positive and smear-negative, 3: smear-positive, smear-negative and extra-pulmonary). WARNING: No organ stratification should be selected if this is zero (or one)." sqref="B2">
-      <formula1>0</formula1>
-      <formula2>3</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="363" yWindow="440" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Low quality care access" prompt="Whether to incorporate low quality care access into the model.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Amplification" prompt="Whether amplification to progressively more resistant strains permitted.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7:B8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Misassignment" prompt="Whether patients can be incorrectly detected with the wrong strain.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Integration" prompt="Which integration package. Explicitly coded or Scipy's integration package.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B23</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="59" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="54"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="60" t="s">
+      <c r="B9" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="57">
-        <v>6.7</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="57">
-        <v>26</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57">
-        <v>4</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="57">
-        <v>1945</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="57">
-        <v>1955</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="57">
-        <v>2050</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="57">
-        <v>2</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -2959,10 +2352,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -3112,16 +2505,16 @@
         <v>2015</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3196,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="47" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
@@ -3279,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -3335,7 +2728,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="47" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="11">
@@ -3382,7 +2775,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="47" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="13">
@@ -3420,7 +2813,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="47" t="s">
         <v>23</v>
       </c>
       <c r="X11" s="15">
@@ -3461,7 +2854,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="47" t="s">
         <v>23</v>
       </c>
       <c r="X13" s="17">
@@ -3528,7 +2921,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="13">
@@ -3601,7 +2994,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3665,7 +3058,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="27">
@@ -3738,7 +3131,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="27">
@@ -3802,7 +3195,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="9">
@@ -3875,7 +3268,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3885,74 +3278,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="80" t="s">
+    <row r="26" spans="1:52" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="43">
         <v>1</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="44">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="82"/>
-      <c r="AU26" s="82"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="82"/>
-      <c r="AX26" s="82"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="81">
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="44">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="80" t="s">
+    <row r="27" spans="1:52" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="81">
+      <c r="I27" s="44">
         <v>0</v>
       </c>
-      <c r="R27" s="81">
+      <c r="R27" s="44">
         <v>532947</v>
       </c>
-      <c r="X27" s="81">
+      <c r="X27" s="44">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="81">
+      <c r="AZ27" s="44">
         <v>739284639</v>
       </c>
     </row>
     <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -3960,24 +3353,24 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AB28" s="87"/>
-      <c r="AL28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="87"/>
+      <c r="AB28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -3988,53 +3381,53 @@
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="87"/>
-      <c r="AM29" s="87"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="87"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="87"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="46"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="46"/>
+      <c r="AS29" s="46"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="46"/>
+      <c r="AV29" s="46"/>
+      <c r="AW29" s="46"/>
+      <c r="AX29" s="46"/>
+      <c r="AY29" s="46"/>
+      <c r="AZ29" s="46"/>
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -4048,7 +3441,7 @@
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -4056,7 +3449,7 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="88" t="str">
+      <c r="D31" s="47" t="str">
         <f>D30</f>
         <v>no</v>
       </c>
@@ -4118,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -4139,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4158,7 +3551,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
-    <sheet name="miscellaneous_constants" sheetId="1" r:id="rId1"/>
+    <sheet name="country_constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -208,6 +208,36 @@
   </si>
   <si>
     <t>runge_kutta</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>Calendar year from which model starts running (i.e. when TB is introduced)</t>
+  </si>
+  <si>
+    <t>susceptible_fully</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Starting population of fully susceptible persons (essentially the starting population size)</t>
+  </si>
+  <si>
+    <t>Seed of patients with active TB</t>
+  </si>
+  <si>
+    <t>scenario_start_time</t>
+  </si>
+  <si>
+    <t>scenario_full_time</t>
+  </si>
+  <si>
+    <t>Time that scenarios start to be implemented</t>
+  </si>
+  <si>
+    <t>Time that scenarios reach full effect</t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2207,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,6 +2322,61 @@
       </c>
       <c r="C9" s="34" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="39">
+        <v>1909</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="39">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="39">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="39">
+        <v>200000</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="39">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>scenario_full_time</t>
   </si>
   <si>
-    <t>Time that scenarios start to be implemented</t>
-  </si>
-  <si>
     <t>Time that scenarios reach full effect</t>
+  </si>
+  <si>
+    <t>Time that scenarios start to be implemented (probably make these modifiable for each program later)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +327,20 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1187,7 +1201,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1240,6 +1254,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2209,8 +2227,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,58 +2342,58 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="51">
         <v>1909</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="51">
         <v>2016</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="51">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="39">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="49">
         <v>200000</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="49">
         <v>3</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2390,13 +2408,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BF31"/>
+  <dimension ref="A1:BE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,10 +2444,12 @@
     <col min="50" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
     <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="54" max="54" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2595,14 +2615,14 @@
       <c r="BC1" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="BD1" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="BE1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +2686,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -2801,11 +2821,11 @@
       <c r="BC6" s="11">
         <v>85</v>
       </c>
-      <c r="BE6" s="11">
+      <c r="BD6" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
@@ -2852,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -2867,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -2905,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
@@ -2946,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
@@ -2994,11 +3014,11 @@
       <c r="BC14" s="13">
         <v>90</v>
       </c>
-      <c r="BF14" s="13">
+      <c r="BE14" s="13">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
@@ -3025,7 +3045,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -147,12 +147,6 @@
     <t>Rate at which patients change from the low quality to the high quality health system</t>
   </si>
   <si>
-    <t>explicit</t>
-  </si>
-  <si>
-    <t>scipy</t>
-  </si>
-  <si>
     <t>program_timeperiod_await_treatment</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
   </si>
   <si>
     <t>scenario_4</t>
-  </si>
-  <si>
-    <t>runge_kutta</t>
   </si>
   <si>
     <t>start_time</t>
@@ -2227,8 +2218,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,24 +2280,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="37">
         <v>1945</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="37">
         <v>1955</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,68 +2324,68 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="38">
         <v>0.2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="51">
         <v>1909</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="51">
         <v>2016</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="51">
         <v>2020</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="49">
         <v>200000</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" s="49">
         <v>3</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2401,7 @@
   </sheetPr>
   <dimension ref="A1:BE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2457,10 +2448,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -2610,16 +2601,16 @@
         <v>2015</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3376,7 @@
     </row>
     <row r="26" spans="1:52" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="43" t="s">
         <v>13</v>
@@ -3426,7 +3417,7 @@
     </row>
     <row r="27" spans="1:52" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>23</v>
@@ -3450,7 +3441,7 @@
     </row>
     <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -3475,7 +3466,7 @@
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -3532,7 +3523,7 @@
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -3546,7 +3537,7 @@
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3621,46 +3612,30 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection password="D0CB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -2218,7 +2218,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2401,11 +2401,11 @@
   </sheetPr>
   <dimension ref="A1:BE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC8" sqref="BC8"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D31" s="47" t="str">
         <f>D30</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -193,12 +193,6 @@
   </si>
   <si>
     <t>epi_prop_smearneg</t>
-  </si>
-  <si>
-    <t>scenario_3</t>
-  </si>
-  <si>
-    <t>scenario_4</t>
   </si>
   <si>
     <t>start_time</t>
@@ -337,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,12 +388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,7 +1180,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1209,22 +1197,19 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1239,12 +1224,12 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2218,174 +2203,174 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="48.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="34">
         <v>6.7</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <v>26</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1945</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>1955</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>2050</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>2</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="48">
+        <v>1895</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="48">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="48">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="51">
-        <v>1909</v>
-      </c>
-      <c r="C10" s="50" t="s">
+      <c r="B13" s="46">
+        <v>190000</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="51">
-        <v>2016</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="51">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="49">
-        <v>200000</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="B14" s="46">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="49">
-        <v>3</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2399,18 +2384,18 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BE31"/>
+  <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
@@ -2440,7 +2425,7 @@
     <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2606,15 +2591,9 @@
       <c r="BC1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BD1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2633,59 +2612,53 @@
         <v>25</v>
       </c>
       <c r="M2" s="7">
-        <v>40</v>
-      </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BB2" s="7">
-        <v>99</v>
-      </c>
-      <c r="BC2" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+    </row>
+    <row r="3" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
@@ -2704,8 +2677,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2726,49 +2699,43 @@
       <c r="T4" s="9">
         <v>30</v>
       </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29">
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26">
         <v>50</v>
       </c>
-      <c r="BB4" s="9">
-        <v>70</v>
-      </c>
-      <c r="BC4" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    </row>
+    <row r="5" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -2778,8 +2745,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2803,28 +2770,19 @@
       <c r="AM6" s="11">
         <v>84</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="AY6" s="11">
         <v>85</v>
       </c>
-      <c r="BB6" s="11">
-        <v>85</v>
-      </c>
-      <c r="BC6" s="11">
-        <v>85</v>
-      </c>
-      <c r="BD6" s="11">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="11">
@@ -2840,8 +2798,8 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2863,23 +2821,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -2901,64 +2859,64 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>23</v>
       </c>
       <c r="X11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>7</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="15">
         <v>0</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="15">
         <v>50</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2974,50 +2932,52 @@
         <v>0</v>
       </c>
       <c r="R14" s="13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X14" s="13">
-        <v>50</v>
-      </c>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27">
+        <v>93</v>
+      </c>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="13">
+        <v>90</v>
+      </c>
       <c r="BB14" s="13">
-        <v>90</v>
+        <v>91.1</v>
       </c>
       <c r="BC14" s="13">
-        <v>90</v>
-      </c>
-      <c r="BE14" s="13">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="13">
@@ -3036,15 +2996,15 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>13</v>
@@ -3053,44 +3013,50 @@
         <v>0</v>
       </c>
       <c r="R16" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X16" s="13">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
-      <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
-      <c r="AY16" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="13">
+        <v>5</v>
+      </c>
       <c r="BB16" s="13">
-        <v>2</v>
+        <v>1.6</v>
+      </c>
+      <c r="BC16" s="13">
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3100,145 +3066,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="24">
         <v>0</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="24">
         <v>15</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X18" s="24">
         <v>30</v>
       </c>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="27">
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="24">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <v>0</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="24">
         <v>492549</v>
       </c>
-      <c r="X19" s="27">
+      <c r="X19" s="24">
         <v>256491</v>
       </c>
-      <c r="AM19" s="27">
+      <c r="AM19" s="24">
         <v>9382947</v>
       </c>
-      <c r="AU19" s="27">
+      <c r="AU19" s="24">
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="24">
         <v>0</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="24">
         <v>55</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="24">
         <v>50</v>
       </c>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="27">
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="24">
         <v>0</v>
       </c>
-      <c r="X21" s="27">
+      <c r="X21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3259,39 +3225,39 @@
       <c r="X22" s="9">
         <v>15</v>
       </c>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
       <c r="AZ22" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="9">
@@ -3311,7 +3277,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3332,39 +3298,39 @@
       <c r="X24" s="9">
         <v>62</v>
       </c>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
       <c r="AZ24" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3374,73 +3340,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <v>1</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="41">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="44">
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="41">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="41">
         <v>0</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="41">
         <v>532947</v>
       </c>
-      <c r="X27" s="44">
+      <c r="X27" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="44">
+      <c r="AZ27" s="41">
         <v>739284639</v>
       </c>
     </row>
     <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3449,23 +3415,23 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AB28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="46"/>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
+      <c r="AB28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3477,52 +3443,52 @@
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="46"/>
-      <c r="AS29" s="46"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="46"/>
-      <c r="AX29" s="46"/>
-      <c r="AY29" s="46"/>
-      <c r="AZ29" s="46"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3536,7 +3502,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3545,43 +3511,37 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="47" t="str">
+      <c r="D31" s="44" t="str">
         <f>D30</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E2:BC2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E4:BC4 E2:BC2 E6:BC6">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E3:BC3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E3:BC3 E5:BC5 E7:BC7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B27</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D27 D32:D1048576 D29</xm:sqref>
+          <xm:sqref>D29 D32:D1048576 D2:D27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
@@ -3600,6 +3560,12 @@
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>D30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Time that scenarios start to be implemented (probably make these modifiable for each program later)</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_smearneg</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_extrapul</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2209,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2384,13 +2390,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BC31"/>
+  <dimension ref="A1:BC33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,113 +3389,113 @@
     </row>
     <row r="27" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="40">
+        <v>1</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="41">
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="41">
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B29" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="44" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I29" s="41">
         <v>0</v>
       </c>
-      <c r="R27" s="41">
+      <c r="R29" s="41">
         <v>532947</v>
       </c>
-      <c r="X27" s="41">
+      <c r="X29" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="41">
+      <c r="AZ29" s="41">
         <v>739284639</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB28" s="43"/>
-      <c r="AL28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43"/>
-      <c r="AT28" s="43"/>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-    </row>
-    <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="43"/>
-      <c r="AS29" s="43"/>
-      <c r="AT29" s="43"/>
-      <c r="AU29" s="43"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="43"/>
-      <c r="AZ29" s="43"/>
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -3497,13 +3503,24 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3511,18 +3528,89 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="44" t="str">
-        <f>D30</f>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+    </row>
+    <row r="32" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="44" t="str">
+        <f>D32</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E4:BC4 E2:BC2 E6:BC6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:BC6 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E4:BC4 E2:BC2 E26:BC28">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E3:BC3 E5:BC5 E7:BC7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:BC29 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E3:BC3 E5:BC5 E7:BC7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
@@ -3541,31 +3629,31 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D29 D32:D1048576 D2:D27</xm:sqref>
+          <xm:sqref>D31 D34:D1048576 D2:D29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B27</xm:sqref>
+          <xm:sqref>B2:B29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2393,10 +2393,10 @@
   <dimension ref="A1:BC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,9 +2964,8 @@
       <c r="AX14" s="27">
         <v>93</v>
       </c>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="13">
-        <v>90</v>
+      <c r="AY14" s="27">
+        <v>85</v>
       </c>
       <c r="BB14" s="13">
         <v>91.1</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2393,10 +2393,10 @@
   <dimension ref="A1:BC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ15" sqref="AZ15"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>program_timeperiod_await_treatment_extrapul</t>
+  </si>
+  <si>
+    <t>scenario_3</t>
   </si>
 </sst>
 </file>
@@ -2390,13 +2393,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BC33"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A27:XFD28"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2434,7 @@
     <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2597,8 +2600,11 @@
       <c r="BC1" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -2656,7 +2662,7 @@
       <c r="AY2" s="25"/>
       <c r="AZ2" s="25"/>
     </row>
-    <row r="3" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
@@ -3359,8 +3365,8 @@
         <v>13</v>
       </c>
       <c r="E26" s="41">
-        <f>1/26</f>
-        <v>3.8461538461538464E-2</v>
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
       </c>
       <c r="AF26" s="42"/>
       <c r="AG26" s="42"/>
@@ -3383,10 +3389,11 @@
       <c r="AX26" s="42"/>
       <c r="AY26" s="42"/>
       <c r="AZ26" s="41">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>69</v>
       </c>
@@ -3400,8 +3407,8 @@
         <v>13</v>
       </c>
       <c r="E27" s="41">
-        <f>1/26</f>
-        <v>3.8461538461538464E-2</v>
+        <f>25/365</f>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="AF27" s="42"/>
       <c r="AG27" s="42"/>
@@ -3424,10 +3431,15 @@
       <c r="AX27" s="42"/>
       <c r="AY27" s="42"/>
       <c r="AZ27" s="41">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <f>30/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="BD27" s="41">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>70</v>
       </c>
@@ -3441,8 +3453,8 @@
         <v>13</v>
       </c>
       <c r="E28" s="41">
-        <f>1/26</f>
-        <v>3.8461538461538464E-2</v>
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
       </c>
       <c r="AF28" s="42"/>
       <c r="AG28" s="42"/>
@@ -3465,10 +3477,11 @@
       <c r="AX28" s="42"/>
       <c r="AY28" s="42"/>
       <c r="AZ28" s="41">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>44</v>
       </c>
@@ -3492,7 +3505,7 @@
         <v>739284639</v>
       </c>
     </row>
-    <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -3517,7 +3530,7 @@
       <c r="AY30" s="43"/>
       <c r="AZ30" s="43"/>
     </row>
-    <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -3574,7 +3587,7 @@
       <c r="AY31" s="43"/>
       <c r="AZ31" s="43"/>
     </row>
-    <row r="32" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -147,9 +147,6 @@
     <t>Rate at which patients change from the low quality to the high quality health system</t>
   </si>
   <si>
-    <t>program_timeperiod_await_treatment</t>
-  </si>
-  <si>
     <t>program_cost_await_treatment</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>scenario_3</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_smearpos</t>
   </si>
 </sst>
 </file>
@@ -2274,24 +2274,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="34">
         <v>1945</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="34">
         <v>1955</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2318,68 +2318,68 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="35">
         <v>0.22</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="48">
         <v>1895</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="48">
         <v>2016</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="48">
         <v>2020</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="46">
         <v>190000</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="46">
         <v>3</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2399,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,10 +2442,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -2595,13 +2595,13 @@
         <v>2015</v>
       </c>
       <c r="BB1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="BD1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
     </row>
     <row r="26" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>13</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="27" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>13</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="28" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>13</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="29" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>23</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="30" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="31" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="32" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>program_timeperiod_await_treatment_smearpos</t>
+  </si>
+  <si>
+    <t>program_prop_xpert</t>
   </si>
 </sst>
 </file>
@@ -2212,8 +2215,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,13 +2396,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,12 +2976,6 @@
       <c r="AY14" s="27">
         <v>85</v>
       </c>
-      <c r="BB14" s="13">
-        <v>91.1</v>
-      </c>
-      <c r="BC14" s="13">
-        <v>96</v>
-      </c>
     </row>
     <row r="15" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -3052,14 +3049,8 @@
       <c r="AZ16" s="13">
         <v>5</v>
       </c>
-      <c r="BB16" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="BC16" s="13">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
@@ -3077,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -3123,7 +3114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
@@ -3150,7 +3141,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -3196,7 +3187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:56" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
@@ -3260,7 +3251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
@@ -3287,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
@@ -3333,7 +3324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
@@ -3351,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>71</v>
       </c>
@@ -3365,8 +3356,8 @@
         <v>13</v>
       </c>
       <c r="E26" s="41">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="AF26" s="42"/>
       <c r="AG26" s="42"/>
@@ -3389,11 +3380,11 @@
       <c r="AX26" s="42"/>
       <c r="AY26" s="42"/>
       <c r="AZ26" s="41">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
@@ -3407,8 +3398,8 @@
         <v>13</v>
       </c>
       <c r="E27" s="41">
-        <f>25/365</f>
-        <v>6.8493150684931503E-2</v>
+        <f>30/365</f>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="AF27" s="42"/>
       <c r="AG27" s="42"/>
@@ -3434,12 +3425,8 @@
         <f>30/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="BD27" s="41">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>69</v>
       </c>
@@ -3481,58 +3468,73 @@
         <v>1.9178082191780823E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:56" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="41">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B30" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="44" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I30" s="41">
         <v>0</v>
       </c>
-      <c r="R29" s="41">
+      <c r="R30" s="41">
         <v>532947</v>
       </c>
-      <c r="X29" s="41">
+      <c r="X30" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ29" s="41">
+      <c r="AZ30" s="41">
         <v>739284639</v>
       </c>
     </row>
-    <row r="30" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="43"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="43"/>
-    </row>
-    <row r="31" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3540,43 +3542,11 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
+      <c r="D31" s="44" t="s">
+        <v>14</v>
+      </c>
       <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="43"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="43"/>
       <c r="AL31" s="43"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="43"/>
       <c r="AR31" s="43"/>
       <c r="AS31" s="43"/>
       <c r="AT31" s="43"/>
@@ -3587,9 +3557,9 @@
       <c r="AY31" s="43"/>
       <c r="AZ31" s="43"/>
     </row>
-    <row r="32" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -3600,10 +3570,53 @@
       <c r="D32" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -3611,18 +3624,32 @@
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="D33" s="44" t="str">
-        <f>D32</f>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="44" t="str">
+        <f>D33</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:BC6 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E4:BC4 E2:BC2 E26:BC28">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:BC6 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E4:BC4 E2:BC2 E26:BC29">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:BC29 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E3:BC3 E5:BC5 E7:BC7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:BC30 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E3:BC3 E5:BC5 E7:BC7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
@@ -3641,31 +3668,31 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D31 D34:D1048576 D2:D29</xm:sqref>
+          <xm:sqref>D32 D35:D1048576 D2:D30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B29</xm:sqref>
+          <xm:sqref>B2:B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -235,6 +235,24 @@
   </si>
   <si>
     <t>program_prop_xpert</t>
+  </si>
+  <si>
+    <t>scenario_4</t>
+  </si>
+  <si>
+    <t>scenario_5</t>
+  </si>
+  <si>
+    <t>scenario_6</t>
+  </si>
+  <si>
+    <t>scenario_7</t>
+  </si>
+  <si>
+    <t>scenario_8</t>
+  </si>
+  <si>
+    <t>scenario_9</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2234,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,13 +2414,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BJ34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,11 +2451,11 @@
     <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
     <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="1"/>
+    <col min="55" max="62" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2606,8 +2624,26 @@
       <c r="BD1" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -2664,8 +2700,14 @@
       <c r="AX2" s="25"/>
       <c r="AY2" s="25"/>
       <c r="AZ2" s="25"/>
-    </row>
-    <row r="3" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH2" s="7">
+        <v>100</v>
+      </c>
+      <c r="BJ2" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -2692,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2741,8 +2783,17 @@
       <c r="AZ4" s="26">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD4" s="9">
+        <v>85</v>
+      </c>
+      <c r="BE4" s="9">
+        <v>90</v>
+      </c>
+      <c r="BJ4" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2760,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -2788,8 +2839,14 @@
       <c r="AY6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG6" s="11">
+        <v>90</v>
+      </c>
+      <c r="BJ6" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
@@ -2813,7 +2870,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +2892,14 @@
       <c r="AB8" s="13">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BF8" s="13">
+        <v>20</v>
+      </c>
+      <c r="BJ8" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
@@ -2915,7 +2978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
@@ -2930,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -2976,8 +3039,17 @@
       <c r="AY14" s="27">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB14" s="13">
+        <v>91.1</v>
+      </c>
+      <c r="BC14" s="13">
+        <v>96</v>
+      </c>
+      <c r="BJ14" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
@@ -3004,7 +3076,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -3049,8 +3121,17 @@
       <c r="AZ16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB16" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="BC16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="BJ16" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
@@ -3068,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -3114,7 +3195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
@@ -3141,7 +3222,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -3187,7 +3268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
@@ -3205,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
@@ -3251,7 +3332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
@@ -3324,7 +3405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
@@ -3342,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>71</v>
       </c>
@@ -3384,7 +3465,7 @@
         <v>5.4794520547945206E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
@@ -3426,7 +3507,7 @@
         <v>8.2191780821917804E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>69</v>
       </c>
@@ -3468,7 +3549,7 @@
         <v>1.9178082191780823E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>72</v>
       </c>
@@ -3504,11 +3585,11 @@
       <c r="AZ29" s="41">
         <v>0</v>
       </c>
-      <c r="BB29" s="41">
+      <c r="BI29" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>43</v>
       </c>
@@ -3532,7 +3613,7 @@
         <v>739284639</v>
       </c>
     </row>
-    <row r="31" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -3557,7 +3638,7 @@
       <c r="AY31" s="43"/>
       <c r="AZ31" s="43"/>
     </row>
-    <row r="32" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>
@@ -3645,11 +3726,11 @@
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:BC6 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E4:BC4 E2:BC2 E26:BC29">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BA29 E2:BC2 E4:BC4 E8:BC8 E18:BC18 E20:BC20 E22:BC22 E24:BC24 E10:BC10 E12:BC12 E14:BC14 E16:BC16 E6:BC6 BB26:BC28">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:BC30 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E3:BC3 E5:BC5 E7:BC7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:BC7 E5:BC5 E3:BC3 E9:BC9 E11:BC11 E13:BC13 E15:BC15 E17:BC17 E19:BC19 E21:BC21 E23:BC23 E25:BC25 E30:BC30 BB29:BC29">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>scenario_8</t>
-  </si>
-  <si>
-    <t>scenario_9</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2230,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2414,13 +2411,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ34"/>
+  <dimension ref="A1:BI34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI16" sqref="BI16"/>
+      <selection pane="bottomRight" activeCell="AU12" sqref="AU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,11 +2448,11 @@
     <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
     <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="62" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9.140625" style="1"/>
+    <col min="55" max="61" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,11 +2636,8 @@
       <c r="BI1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BJ1" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -2700,14 +2694,14 @@
       <c r="AX2" s="25"/>
       <c r="AY2" s="25"/>
       <c r="AZ2" s="25"/>
-      <c r="BH2" s="7">
+      <c r="BG2" s="7">
         <v>100</v>
       </c>
-      <c r="BJ2" s="7">
+      <c r="BI2" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -2734,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2789,11 +2783,11 @@
       <c r="BE4" s="9">
         <v>90</v>
       </c>
-      <c r="BJ4" s="9">
+      <c r="BI4" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -2839,14 +2833,14 @@
       <c r="AY6" s="11">
         <v>85</v>
       </c>
-      <c r="BG6" s="11">
+      <c r="BF6" s="11">
         <v>90</v>
       </c>
-      <c r="BJ6" s="11">
+      <c r="BI6" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
@@ -2870,7 +2864,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2892,14 +2886,11 @@
       <c r="AB8" s="13">
         <v>40</v>
       </c>
-      <c r="BF8" s="13">
+      <c r="BI8" s="13">
         <v>20</v>
       </c>
-      <c r="BJ8" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -2914,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2937,7 +2928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -2952,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
@@ -2978,7 +2969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
@@ -2993,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -3045,11 +3036,11 @@
       <c r="BC14" s="13">
         <v>96</v>
       </c>
-      <c r="BJ14" s="13">
+      <c r="BI14" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
@@ -3076,7 +3067,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -3127,11 +3118,11 @@
       <c r="BC16" s="13">
         <v>1.25</v>
       </c>
-      <c r="BJ16" s="13">
+      <c r="BI16" s="13">
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
@@ -3149,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -3195,7 +3186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
@@ -3222,7 +3213,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -3268,7 +3259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
@@ -3286,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
@@ -3359,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
@@ -3423,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>71</v>
       </c>
@@ -3465,7 +3456,7 @@
         <v>5.4794520547945206E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
@@ -3507,7 +3498,7 @@
         <v>8.2191780821917804E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>69</v>
       </c>
@@ -3549,7 +3540,7 @@
         <v>1.9178082191780823E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>72</v>
       </c>
@@ -3585,11 +3576,11 @@
       <c r="AZ29" s="41">
         <v>0</v>
       </c>
-      <c r="BI29" s="41">
+      <c r="BH29" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>43</v>
       </c>
@@ -3613,7 +3604,7 @@
         <v>739284639</v>
       </c>
     </row>
-    <row r="31" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -3638,7 +3629,7 @@
       <c r="AY31" s="43"/>
       <c r="AZ31" s="43"/>
     </row>
-    <row r="32" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2414,10 +2414,10 @@
   <dimension ref="A1:BI34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU12"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D34" s="44" t="str">
         <f>D33</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2417,7 +2417,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D34" s="44" t="str">
         <f>D33</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>scenario_8</t>
+  </si>
+  <si>
+    <t>program_prop_ipt</t>
+  </si>
+  <si>
+    <t>program_cost_ipt</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2237,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,13 +2417,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI34"/>
+  <dimension ref="A1:BI36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,147 +2811,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10">
+    <row r="6" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11">
-        <v>70</v>
-      </c>
-      <c r="J6" s="11">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>82</v>
-      </c>
-      <c r="AM6" s="11">
-        <v>84</v>
-      </c>
-      <c r="AY6" s="11">
-        <v>85</v>
-      </c>
-      <c r="BF6" s="11">
-        <v>90</v>
-      </c>
-      <c r="BI6" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="AX6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="11">
-        <v>1005000</v>
-      </c>
-      <c r="J7" s="11">
-        <v>2040504</v>
-      </c>
-      <c r="X7" s="11">
+    </row>
+    <row r="8" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="Z7" s="11">
-        <v>4049504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="13">
-        <v>30</v>
-      </c>
-      <c r="K8" s="13">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>40</v>
-      </c>
-      <c r="BI8" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="G8" s="11">
+        <v>70</v>
+      </c>
+      <c r="J8" s="11">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>82</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>84</v>
+      </c>
+      <c r="AY8" s="11">
+        <v>85</v>
+      </c>
+      <c r="BF8" s="11">
+        <v>90</v>
+      </c>
+      <c r="BI8" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="13">
+      <c r="G9" s="11">
+        <v>1005000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2040504</v>
+      </c>
+      <c r="X9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="Z9" s="11">
+        <v>4049504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="15">
+      <c r="H10" s="13">
         <v>30</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="K10" s="13">
         <v>40</v>
       </c>
-      <c r="AL10" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="AB10" s="13">
+        <v>40</v>
+      </c>
+      <c r="BI10" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
@@ -2956,22 +2953,19 @@
       <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="15">
-        <v>7</v>
-      </c>
-      <c r="W12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="15">
+      <c r="R12" s="15">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>40</v>
+      </c>
+      <c r="AL12" s="15">
         <v>50</v>
-      </c>
-      <c r="AL12" s="15">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>23</v>
@@ -2984,98 +2978,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="I14" s="15">
+        <v>7</v>
+      </c>
+      <c r="W14" s="15">
         <v>0</v>
       </c>
-      <c r="R14" s="13">
-        <v>40</v>
-      </c>
-      <c r="X14" s="13">
-        <v>65</v>
-      </c>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="27">
-        <v>93</v>
-      </c>
-      <c r="AY14" s="27">
-        <v>85</v>
-      </c>
-      <c r="BB14" s="13">
-        <v>91.1</v>
-      </c>
-      <c r="BC14" s="13">
-        <v>96</v>
-      </c>
-      <c r="BI14" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="AG14" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL14" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <v>1926492</v>
-      </c>
-      <c r="X15" s="13">
-        <v>4573928</v>
-      </c>
-      <c r="AM15" s="13">
-        <v>9382947</v>
-      </c>
-      <c r="AU15" s="13">
-        <v>52431253</v>
+      <c r="X15" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>13</v>
@@ -3084,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="X16" s="13">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
@@ -3107,24 +3059,25 @@
       <c r="AU16" s="27"/>
       <c r="AV16" s="27"/>
       <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="13">
-        <v>5</v>
+      <c r="AX16" s="27">
+        <v>93</v>
+      </c>
+      <c r="AY16" s="27">
+        <v>85</v>
       </c>
       <c r="BB16" s="13">
-        <v>1.6</v>
+        <v>91.1</v>
       </c>
       <c r="BC16" s="13">
-        <v>1.25</v>
+        <v>96</v>
       </c>
       <c r="BI16" s="13">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>23</v>
@@ -3136,86 +3089,95 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
+      <c r="R17" s="13">
+        <v>1926492</v>
+      </c>
       <c r="X17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="23" t="s">
+        <v>4573928</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>9382947</v>
+      </c>
+      <c r="AU17" s="13">
+        <v>52431253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="R18" s="24">
-        <v>15</v>
-      </c>
-      <c r="X18" s="24">
-        <v>30</v>
-      </c>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="R18" s="13">
+        <v>10</v>
+      </c>
+      <c r="X18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB18" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="BC18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="BI18" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="R19" s="24">
-        <v>492549</v>
-      </c>
-      <c r="X19" s="24">
-        <v>256491</v>
-      </c>
-      <c r="AM19" s="24">
-        <v>9382947</v>
-      </c>
-      <c r="AU19" s="24">
-        <v>52431253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>13</v>
@@ -3230,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="24">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="X20" s="24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AF20" s="28"/>
       <c r="AG20" s="28"/>
@@ -3256,12 +3218,12 @@
       <c r="AX20" s="28"/>
       <c r="AY20" s="28"/>
       <c r="AZ20" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>23</v>
@@ -3273,86 +3235,86 @@
       <c r="I21" s="24">
         <v>0</v>
       </c>
+      <c r="R21" s="24">
+        <v>492549</v>
+      </c>
       <c r="X21" s="24">
+        <v>256491</v>
+      </c>
+      <c r="AM21" s="24">
+        <v>9382947</v>
+      </c>
+      <c r="AU21" s="24">
+        <v>52431253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="D22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="I22" s="24">
         <v>0</v>
       </c>
-      <c r="R22" s="9">
-        <v>5</v>
-      </c>
-      <c r="X22" s="9">
-        <v>15</v>
-      </c>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="R22" s="24">
+        <v>55</v>
+      </c>
+      <c r="X22" s="24">
+        <v>50</v>
+      </c>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="24">
         <v>0</v>
       </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="X23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
@@ -3367,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="X24" s="9">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="AF24" s="26"/>
       <c r="AG24" s="26"/>
@@ -3393,12 +3355,12 @@
       <c r="AX24" s="26"/>
       <c r="AY24" s="26"/>
       <c r="AZ24" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>23</v>
@@ -3410,110 +3372,99 @@
       <c r="I25" s="9">
         <v>0</v>
       </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
       <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="D26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>65</v>
+      </c>
+      <c r="X26" s="9">
+        <v>62</v>
+      </c>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B28" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C28" s="40">
         <v>1</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D28" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E28" s="41">
         <f>2/365</f>
         <v>5.4794520547945206E-3</v>
-      </c>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="41">
-        <f>2/365</f>
-        <v>5.4794520547945206E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="40">
-        <v>1</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="41">
-        <f>30/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="41">
-        <f>30/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="40">
-        <v>1</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="41">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
       </c>
       <c r="AF28" s="42"/>
       <c r="AG28" s="42"/>
@@ -3536,13 +3487,13 @@
       <c r="AX28" s="42"/>
       <c r="AY28" s="42"/>
       <c r="AZ28" s="41">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>13</v>
@@ -3552,6 +3503,10 @@
       </c>
       <c r="D29" s="40" t="s">
         <v>13</v>
+      </c>
+      <c r="E29" s="41">
+        <f>30/365</f>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="AF29" s="42"/>
       <c r="AG29" s="42"/>
@@ -3574,121 +3529,119 @@
       <c r="AX29" s="42"/>
       <c r="AY29" s="42"/>
       <c r="AZ29" s="41">
+        <f>30/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="40">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="41">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="41">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="41">
         <v>0</v>
       </c>
-      <c r="BH29" s="41">
+      <c r="BH31" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+    <row r="32" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B32" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="44" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I32" s="41">
         <v>0</v>
       </c>
-      <c r="R30" s="41">
+      <c r="R32" s="41">
         <v>532947</v>
       </c>
-      <c r="X30" s="41">
+      <c r="X32" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ30" s="41">
+      <c r="AZ32" s="41">
         <v>739284639</v>
       </c>
     </row>
-    <row r="31" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    <row r="33" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB31" s="43"/>
-      <c r="AL31" s="43"/>
-      <c r="AR31" s="43"/>
-      <c r="AS31" s="43"/>
-      <c r="AT31" s="43"/>
-      <c r="AU31" s="43"/>
-      <c r="AV31" s="43"/>
-      <c r="AW31" s="43"/>
-      <c r="AX31" s="43"/>
-      <c r="AY31" s="43"/>
-      <c r="AZ31" s="43"/>
-    </row>
-    <row r="32" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="43"/>
-      <c r="AJ32" s="43"/>
-      <c r="AK32" s="43"/>
-      <c r="AL32" s="43"/>
-      <c r="AM32" s="43"/>
-      <c r="AN32" s="43"/>
-      <c r="AO32" s="43"/>
-      <c r="AP32" s="43"/>
-      <c r="AQ32" s="43"/>
-      <c r="AR32" s="43"/>
-      <c r="AS32" s="43"/>
-      <c r="AT32" s="43"/>
-      <c r="AU32" s="43"/>
-      <c r="AV32" s="43"/>
-      <c r="AW32" s="43"/>
-      <c r="AX32" s="43"/>
-      <c r="AY32" s="43"/>
-      <c r="AZ32" s="43"/>
-    </row>
-    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -3696,13 +3649,24 @@
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43"/>
+      <c r="AU33" s="43"/>
+      <c r="AV33" s="43"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
+      <c r="AY33" s="43"/>
+      <c r="AZ33" s="43"/>
+    </row>
+    <row r="34" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>13</v>
@@ -3710,18 +3674,89 @@
       <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="44" t="str">
-        <f>D33</f>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43"/>
+      <c r="AV34" s="43"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+      <c r="AY34" s="43"/>
+      <c r="AZ34" s="43"/>
+    </row>
+    <row r="35" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="44" t="str">
+        <f>D35</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BA29 E2:BC2 E4:BC4 E8:BC8 E18:BC18 E20:BC20 E22:BC22 E24:BC24 E10:BC10 E12:BC12 E14:BC14 E16:BC16 E6:BC6 BB26:BC28">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BA31 E2:BC2 E4:BC4 E10:BC10 E20:BC20 E22:BC22 E24:BC24 E26:BC26 E12:BC12 E14:BC14 E16:BC16 E18:BC18 E8:BC8 BB28:BC30">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:BC7 E5:BC5 E3:BC3 E9:BC9 E11:BC11 E13:BC13 E15:BC15 E17:BC17 E19:BC19 E21:BC21 E23:BC23 E25:BC25 E30:BC30 BB29:BC29">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:BC9 BB31:BC31 E3:BC3 E11:BC11 E13:BC13 E15:BC15 E17:BC17 E19:BC19 E21:BC21 E23:BC23 E25:BC25 E27:BC27 E32:BC32 E5:BC7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
@@ -3740,31 +3775,31 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D32 D35:D1048576 D2:D30</xm:sqref>
+          <xm:sqref>D34 D37:D1048576 D2:D32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B30</xm:sqref>
+          <xm:sqref>B2:B32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>program_cost_ipt</t>
+  </si>
+  <si>
+    <t>inflation</t>
   </si>
 </sst>
 </file>
@@ -2417,13 +2420,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI36"/>
+  <dimension ref="A1:BI37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,7 +3642,7 @@
         <v>739284639</v>
       </c>
     </row>
-    <row r="33" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>54</v>
       </c>
@@ -3664,7 +3667,7 @@
       <c r="AY33" s="43"/>
       <c r="AZ33" s="43"/>
     </row>
-    <row r="34" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>55</v>
       </c>
@@ -3721,7 +3724,7 @@
       <c r="AY34" s="43"/>
       <c r="AZ34" s="43"/>
     </row>
-    <row r="35" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>56</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>57</v>
       </c>
@@ -3750,9 +3753,149 @@
         <v>yes</v>
       </c>
     </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.114</v>
+      </c>
+      <c r="O37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P37">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q37">
+        <v>7.8E-2</v>
+      </c>
+      <c r="R37">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="T37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U37">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="V37">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W37">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="X37">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="Y37">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Z37">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="AA37">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AB37">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="AC37">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD37">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AE37">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="AF37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG37">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="AH37">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AI37">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AJ37">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AK37">
+        <v>0.02</v>
+      </c>
+      <c r="AL37">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="AM37">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AN37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AO37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AP37">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="AQ37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AR37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS37">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AT37">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AU37">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AV37">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="AW37">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AX37">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AY37">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="AZ37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA37" s="7">
+        <v>1.4E-2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BA31 E2:BC2 E4:BC4 E10:BC10 E20:BC20 E22:BC22 E24:BC24 E26:BC26 E12:BC12 E14:BC14 E16:BC16 E18:BC18 E8:BC8 BB28:BC30">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BA31 E2:BC2 E4:BC4 E10:BC10 E20:BC20 E22:BC22 E24:BC24 E26:BC26 E12:BC12 E14:BC14 E16:BC16 E18:BC18 E8:BC8 BB28:BC30 N37:AW37">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2423,10 +2423,10 @@
   <dimension ref="A1:BI37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>inflation</t>
+  </si>
+  <si>
+    <t>scenario_9</t>
   </si>
 </sst>
 </file>
@@ -2420,13 +2423,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI37"/>
+  <dimension ref="A1:BJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB16" sqref="BB16"/>
+      <selection pane="bottomRight" activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2464,7 @@
     <col min="62" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2645,8 +2648,11 @@
       <c r="BI1" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>78</v>
       </c>
@@ -2830,8 +2836,11 @@
       <c r="AX6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ6" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>79</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
@@ -2928,7 +2937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>24</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2426,10 +2426,10 @@
   <dimension ref="A1:BJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ2" sqref="BJ2"/>
+      <selection pane="bottomRight" activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,8 +2460,8 @@
     <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
     <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="61" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="1"/>
+    <col min="55" max="62" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
       <c r="BG2" s="7">
         <v>100</v>
       </c>
-      <c r="BI2" s="7">
+      <c r="BJ2" s="7">
         <v>100</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       <c r="BE4" s="9">
         <v>90</v>
       </c>
-      <c r="BI4" s="9">
+      <c r="BJ4" s="9">
         <v>90</v>
       </c>
     </row>
@@ -2836,6 +2836,9 @@
       <c r="AX6" s="9">
         <v>0</v>
       </c>
+      <c r="BI6" s="9">
+        <v>50</v>
+      </c>
       <c r="BJ6" s="9">
         <v>50</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="BF8" s="11">
         <v>90</v>
       </c>
-      <c r="BI8" s="11">
+      <c r="BJ8" s="11">
         <v>90</v>
       </c>
     </row>
@@ -2933,7 +2936,7 @@
       <c r="AB10" s="13">
         <v>40</v>
       </c>
-      <c r="BI10" s="13">
+      <c r="BJ10" s="13">
         <v>20</v>
       </c>
     </row>
@@ -3083,11 +3086,11 @@
       <c r="BC16" s="13">
         <v>96</v>
       </c>
-      <c r="BI16" s="13">
+      <c r="BJ16" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
@@ -3165,11 +3168,11 @@
       <c r="BC18" s="13">
         <v>1.25</v>
       </c>
-      <c r="BI18" s="13">
+      <c r="BJ18" s="13">
         <v>1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>29</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="22" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:61" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>33</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>34</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>35</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>5.4794520547945206E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>68</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>8.2191780821917804E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>69</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1.9178082191780823E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>72</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>43</v>
       </c>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>scenario_9</t>
+  </si>
+  <si>
+    <t>cpi</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +368,13 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1219,7 +1229,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1273,6 +1283,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2423,13 +2434,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ37"/>
+  <dimension ref="A1:BJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ7" sqref="BJ7"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,6 +3914,158 @@
       </c>
       <c r="BA37" s="7">
         <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="F38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="G38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="H38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="I38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="J38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="K38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="L38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="M38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="N38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="O38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="P38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="Q38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="R38" s="49">
+        <v>116.4</v>
+      </c>
+      <c r="S38" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="T38" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="U38" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="V38" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="W38" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="X38" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>100</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>107.3</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>110.9</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>114.2</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>114.8</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>116.4</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -274,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +375,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1229,7 +1236,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1284,6 +1291,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2437,10 +2445,10 @@
   <dimension ref="A1:BJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,6 +3797,27 @@
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E37" s="49">
+        <v>0</v>
+      </c>
+      <c r="F37" s="49">
+        <v>0</v>
+      </c>
+      <c r="G37" s="49">
+        <v>0</v>
+      </c>
+      <c r="H37" s="49">
+        <v>0</v>
+      </c>
+      <c r="I37" s="49">
+        <v>0</v>
+      </c>
+      <c r="J37" s="49">
+        <v>0</v>
+      </c>
+      <c r="K37" s="49">
+        <v>0</v>
+      </c>
       <c r="L37" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -3920,6 +3949,15 @@
       <c r="A38" s="21" t="s">
         <v>82</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E38" s="49">
         <v>116.4</v>
       </c>
@@ -3938,29 +3976,29 @@
       <c r="J38" s="49">
         <v>116.4</v>
       </c>
-      <c r="K38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="L38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="M38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="N38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="O38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="P38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="Q38" s="49">
-        <v>116.4</v>
-      </c>
-      <c r="R38" s="49">
-        <v>116.4</v>
+      <c r="K38" s="50">
+        <v>14.02</v>
+      </c>
+      <c r="L38" s="50">
+        <v>14.59</v>
+      </c>
+      <c r="M38" s="50">
+        <v>16.5</v>
+      </c>
+      <c r="N38" s="50">
+        <v>18.38</v>
+      </c>
+      <c r="O38" s="50">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="P38" s="50">
+        <v>20.87</v>
+      </c>
+      <c r="Q38" s="50">
+        <v>22.5</v>
+      </c>
+      <c r="R38" s="50">
+        <v>25.9</v>
       </c>
       <c r="S38" s="1">
         <v>28.8</v>
@@ -4069,7 +4107,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="343" yWindow="238" count="4">
+  <dataValidations xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BA31 E2:BC2 E4:BC4 E10:BC10 E20:BC20 E22:BC22 E24:BC24 E26:BC26 E12:BC12 E14:BC14 E16:BC16 E18:BC18 E8:BC8 BB28:BC30 N37:AW37">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -4088,7 +4126,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -1236,7 +1236,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1292,6 +1292,9 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2442,13 +2445,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ38"/>
+  <dimension ref="A1:BN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,28 +2465,29 @@
     <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" customWidth="1"/>
-    <col min="19" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="1" customWidth="1"/>
-    <col min="27" max="38" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="1" customWidth="1"/>
-    <col min="40" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="62" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16" width="7.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="21" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" customWidth="1"/>
+    <col min="23" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.140625" style="1" customWidth="1"/>
+    <col min="31" max="42" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8" style="1" customWidth="1"/>
+    <col min="44" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.85546875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="66" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2521,157 +2525,169 @@
         <v>1970</v>
       </c>
       <c r="M1" s="5">
+        <v>1971</v>
+      </c>
+      <c r="N1" s="5">
+        <v>1972</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1973</v>
+      </c>
+      <c r="P1" s="5">
+        <v>1974</v>
+      </c>
+      <c r="Q1" s="5">
         <v>1975</v>
       </c>
-      <c r="N1" s="5">
+      <c r="R1" s="5">
         <v>1976</v>
       </c>
-      <c r="O1" s="5">
+      <c r="S1" s="5">
         <v>1977</v>
       </c>
-      <c r="P1" s="5">
+      <c r="T1" s="5">
         <v>1978</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="U1" s="5">
         <v>1979</v>
       </c>
-      <c r="R1" s="5">
+      <c r="V1" s="5">
         <v>1980</v>
       </c>
-      <c r="S1" s="5">
+      <c r="W1" s="5">
         <v>1981</v>
       </c>
-      <c r="T1" s="5">
+      <c r="X1" s="5">
         <v>1982</v>
       </c>
-      <c r="U1" s="5">
+      <c r="Y1" s="5">
         <v>1983</v>
       </c>
-      <c r="V1" s="5">
+      <c r="Z1" s="5">
         <v>1984</v>
       </c>
-      <c r="W1" s="5">
+      <c r="AA1" s="5">
         <v>1985</v>
       </c>
-      <c r="X1" s="5">
+      <c r="AB1" s="5">
         <v>1986</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="AC1" s="5">
         <v>1987</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="AD1" s="5">
         <v>1988</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AE1" s="5">
         <v>1989</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AF1" s="5">
         <v>1990</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AG1" s="5">
         <v>1991</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AH1" s="5">
         <v>1992</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AI1" s="5">
         <v>1993</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AJ1" s="5">
         <v>1994</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AK1" s="5">
         <v>1995</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AL1" s="5">
         <v>1996</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AM1" s="5">
         <v>1997</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AN1" s="5">
         <v>1998</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AO1" s="5">
         <v>1999</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AP1" s="5">
         <v>2000</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AQ1" s="5">
         <v>2001</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AR1" s="5">
         <v>2002</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AS1" s="5">
         <v>2003</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AT1" s="5">
         <v>2004</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AU1" s="5">
         <v>2005</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AV1" s="5">
         <v>2006</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AW1" s="5">
         <v>2007</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AX1" s="5">
         <v>2008</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AY1" s="5">
         <v>2009</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AZ1" s="5">
         <v>2010</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="BA1" s="5">
         <v>2011</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="BB1" s="5">
         <v>2012</v>
       </c>
-      <c r="AY1" s="5">
+      <c r="BC1" s="5">
         <v>2013</v>
       </c>
-      <c r="AZ1" s="5">
+      <c r="BD1" s="5">
         <v>2014</v>
       </c>
-      <c r="BA1" s="5">
+      <c r="BE1" s="5">
         <v>2015</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -2690,13 +2706,9 @@
       <c r="J2" s="7">
         <v>25</v>
       </c>
-      <c r="M2" s="7">
+      <c r="Q2" s="7">
         <v>55</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
       <c r="V2" s="25"/>
       <c r="W2" s="25"/>
       <c r="X2" s="25"/>
@@ -2728,14 +2740,18 @@
       <c r="AX2" s="25"/>
       <c r="AY2" s="25"/>
       <c r="AZ2" s="25"/>
-      <c r="BG2" s="7">
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BK2" s="7">
         <v>100</v>
       </c>
-      <c r="BJ2" s="7">
+      <c r="BN2" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -2752,17 +2768,17 @@
       <c r="J3" s="7">
         <v>10000000</v>
       </c>
-      <c r="M3" s="7">
+      <c r="Q3" s="7">
         <v>15040500</v>
       </c>
-      <c r="W3" s="7">
+      <c r="AA3" s="7">
         <v>39034561</v>
       </c>
-      <c r="X3" s="7">
+      <c r="AB3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2781,13 +2797,9 @@
       <c r="K4" s="9">
         <v>10</v>
       </c>
-      <c r="T4" s="9">
+      <c r="X4" s="9">
         <v>30</v>
       </c>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -2808,20 +2820,24 @@
       <c r="AW4" s="26"/>
       <c r="AX4" s="26"/>
       <c r="AY4" s="26"/>
-      <c r="AZ4" s="26">
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26">
         <v>50</v>
       </c>
-      <c r="BD4" s="9">
+      <c r="BH4" s="9">
         <v>85</v>
       </c>
-      <c r="BE4" s="9">
+      <c r="BI4" s="9">
         <v>90</v>
       </c>
-      <c r="BJ4" s="9">
+      <c r="BN4" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2835,11 +2851,11 @@
       <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="X5" s="9">
+      <c r="AB5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>78</v>
       </c>
@@ -2852,17 +2868,17 @@
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="BB6" s="9">
         <v>0</v>
       </c>
-      <c r="BI6" s="9">
+      <c r="BM6" s="9">
         <v>50</v>
       </c>
-      <c r="BJ6" s="9">
+      <c r="BN6" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>79</v>
       </c>
@@ -2874,7 +2890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
@@ -2893,23 +2909,23 @@
       <c r="J8" s="11">
         <v>80</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="AD8" s="11">
         <v>82</v>
       </c>
-      <c r="AM8" s="11">
+      <c r="AQ8" s="11">
         <v>84</v>
       </c>
-      <c r="AY8" s="11">
+      <c r="BC8" s="11">
         <v>85</v>
-      </c>
-      <c r="BF8" s="11">
-        <v>90</v>
       </c>
       <c r="BJ8" s="11">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BN8" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -2926,14 +2942,14 @@
       <c r="J9" s="11">
         <v>2040504</v>
       </c>
-      <c r="X9" s="11">
+      <c r="AB9" s="11">
         <v>1</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="AD9" s="11">
         <v>4049504</v>
       </c>
     </row>
-    <row r="10" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
@@ -2952,14 +2968,14 @@
       <c r="K10" s="13">
         <v>40</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AF10" s="13">
         <v>40</v>
       </c>
-      <c r="BJ10" s="13">
+      <c r="BN10" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -2970,11 +2986,11 @@
       <c r="D11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="13">
+      <c r="AB11" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
@@ -2987,17 +3003,17 @@
       <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="15">
+      <c r="V12" s="15">
         <v>30</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AF12" s="15">
         <v>40</v>
       </c>
-      <c r="AL12" s="15">
+      <c r="AP12" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
@@ -3008,11 +3024,11 @@
       <c r="D13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="15">
+      <c r="AB13" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
@@ -3028,17 +3044,17 @@
       <c r="I14" s="15">
         <v>7</v>
       </c>
-      <c r="W14" s="15">
+      <c r="AA14" s="15">
         <v>0</v>
       </c>
-      <c r="AG14" s="15">
+      <c r="AK14" s="15">
         <v>50</v>
       </c>
-      <c r="AL14" s="15">
+      <c r="AP14" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -3049,11 +3065,11 @@
       <c r="D15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="15">
+      <c r="AB15" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
@@ -3069,16 +3085,12 @@
       <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="R16" s="13">
+      <c r="V16" s="13">
         <v>40</v>
       </c>
-      <c r="X16" s="13">
+      <c r="AB16" s="13">
         <v>65</v>
       </c>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
       <c r="AJ16" s="27"/>
       <c r="AK16" s="27"/>
       <c r="AL16" s="27"/>
@@ -3093,23 +3105,27 @@
       <c r="AU16" s="27"/>
       <c r="AV16" s="27"/>
       <c r="AW16" s="27"/>
-      <c r="AX16" s="27">
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27">
         <v>93</v>
       </c>
-      <c r="AY16" s="27">
+      <c r="BC16" s="27">
         <v>85</v>
       </c>
-      <c r="BB16" s="13">
+      <c r="BF16" s="13">
         <v>91.1</v>
       </c>
-      <c r="BC16" s="13">
+      <c r="BG16" s="13">
         <v>96</v>
       </c>
-      <c r="BJ16" s="13">
+      <c r="BN16" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
@@ -3123,20 +3139,20 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="R17" s="13">
+      <c r="V17" s="13">
         <v>1926492</v>
       </c>
-      <c r="X17" s="13">
+      <c r="AB17" s="13">
         <v>4573928</v>
       </c>
-      <c r="AM17" s="13">
+      <c r="AQ17" s="13">
         <v>9382947</v>
       </c>
-      <c r="AU17" s="13">
+      <c r="AY17" s="13">
         <v>52431253</v>
       </c>
     </row>
-    <row r="18" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
@@ -3152,16 +3168,12 @@
       <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="R18" s="13">
+      <c r="V18" s="13">
         <v>10</v>
       </c>
-      <c r="X18" s="13">
+      <c r="AB18" s="13">
         <v>8</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
       <c r="AJ18" s="27"/>
       <c r="AK18" s="27"/>
       <c r="AL18" s="27"/>
@@ -3178,20 +3190,24 @@
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
-      <c r="AZ18" s="13">
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="13">
         <v>5</v>
       </c>
-      <c r="BB18" s="13">
+      <c r="BF18" s="13">
         <v>1.6</v>
       </c>
-      <c r="BC18" s="13">
+      <c r="BG18" s="13">
         <v>1.25</v>
       </c>
-      <c r="BJ18" s="13">
+      <c r="BN18" s="13">
         <v>1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -3205,11 +3221,11 @@
       <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="X19" s="13">
+      <c r="AB19" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
@@ -3225,16 +3241,12 @@
       <c r="I20" s="24">
         <v>0</v>
       </c>
-      <c r="R20" s="24">
+      <c r="V20" s="24">
         <v>15</v>
       </c>
-      <c r="X20" s="24">
+      <c r="AB20" s="24">
         <v>30</v>
       </c>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
       <c r="AJ20" s="28"/>
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
@@ -3251,11 +3263,15 @@
       <c r="AW20" s="28"/>
       <c r="AX20" s="28"/>
       <c r="AY20" s="28"/>
-      <c r="AZ20" s="24">
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="24">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>29</v>
       </c>
@@ -3269,20 +3285,20 @@
       <c r="I21" s="24">
         <v>0</v>
       </c>
-      <c r="R21" s="24">
+      <c r="V21" s="24">
         <v>492549</v>
       </c>
-      <c r="X21" s="24">
+      <c r="AB21" s="24">
         <v>256491</v>
       </c>
-      <c r="AM21" s="24">
+      <c r="AQ21" s="24">
         <v>9382947</v>
       </c>
-      <c r="AU21" s="24">
+      <c r="AY21" s="24">
         <v>52431253</v>
       </c>
     </row>
-    <row r="22" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
@@ -3298,16 +3314,12 @@
       <c r="I22" s="24">
         <v>0</v>
       </c>
-      <c r="R22" s="24">
+      <c r="V22" s="24">
         <v>55</v>
       </c>
-      <c r="X22" s="24">
+      <c r="AB22" s="24">
         <v>50</v>
       </c>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
@@ -3324,11 +3336,15 @@
       <c r="AW22" s="28"/>
       <c r="AX22" s="28"/>
       <c r="AY22" s="28"/>
-      <c r="AZ22" s="24">
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:62" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -3342,11 +3358,11 @@
       <c r="I23" s="24">
         <v>0</v>
       </c>
-      <c r="X23" s="24">
+      <c r="AB23" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
@@ -3362,16 +3378,12 @@
       <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="R24" s="9">
+      <c r="V24" s="9">
         <v>5</v>
       </c>
-      <c r="X24" s="9">
+      <c r="AB24" s="9">
         <v>15</v>
       </c>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
       <c r="AJ24" s="26"/>
       <c r="AK24" s="26"/>
       <c r="AL24" s="26"/>
@@ -3388,11 +3400,15 @@
       <c r="AW24" s="26"/>
       <c r="AX24" s="26"/>
       <c r="AY24" s="26"/>
-      <c r="AZ24" s="9">
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>33</v>
       </c>
@@ -3406,20 +3422,20 @@
       <c r="I25" s="9">
         <v>0</v>
       </c>
-      <c r="R25" s="9">
+      <c r="V25" s="9">
         <v>0</v>
       </c>
-      <c r="X25" s="9">
+      <c r="AB25" s="9">
         <v>0</v>
       </c>
-      <c r="AM25" s="9">
+      <c r="AQ25" s="9">
         <v>0</v>
       </c>
-      <c r="AU25" s="9">
+      <c r="AY25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>34</v>
       </c>
@@ -3435,16 +3451,12 @@
       <c r="I26" s="9">
         <v>0</v>
       </c>
-      <c r="R26" s="9">
+      <c r="V26" s="9">
         <v>65</v>
       </c>
-      <c r="X26" s="9">
+      <c r="AB26" s="9">
         <v>62</v>
       </c>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
       <c r="AJ26" s="26"/>
       <c r="AK26" s="26"/>
       <c r="AL26" s="26"/>
@@ -3461,11 +3473,15 @@
       <c r="AW26" s="26"/>
       <c r="AX26" s="26"/>
       <c r="AY26" s="26"/>
-      <c r="AZ26" s="9">
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>35</v>
       </c>
@@ -3479,11 +3495,11 @@
       <c r="I27" s="9">
         <v>0</v>
       </c>
-      <c r="X27" s="9">
+      <c r="AB27" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
@@ -3500,10 +3516,6 @@
         <f>2/365</f>
         <v>5.4794520547945206E-3</v>
       </c>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
       <c r="AJ28" s="42"/>
       <c r="AK28" s="42"/>
       <c r="AL28" s="42"/>
@@ -3520,12 +3532,16 @@
       <c r="AW28" s="42"/>
       <c r="AX28" s="42"/>
       <c r="AY28" s="42"/>
-      <c r="AZ28" s="41">
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="41">
         <f>2/365</f>
         <v>5.4794520547945206E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>68</v>
       </c>
@@ -3542,10 +3558,6 @@
         <f>30/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
       <c r="AJ29" s="42"/>
       <c r="AK29" s="42"/>
       <c r="AL29" s="42"/>
@@ -3562,12 +3574,16 @@
       <c r="AW29" s="42"/>
       <c r="AX29" s="42"/>
       <c r="AY29" s="42"/>
-      <c r="AZ29" s="41">
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="41">
         <f>30/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>69</v>
       </c>
@@ -3584,10 +3600,6 @@
         <f>7/365</f>
         <v>1.9178082191780823E-2</v>
       </c>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
       <c r="AJ30" s="42"/>
       <c r="AK30" s="42"/>
       <c r="AL30" s="42"/>
@@ -3604,12 +3616,16 @@
       <c r="AW30" s="42"/>
       <c r="AX30" s="42"/>
       <c r="AY30" s="42"/>
-      <c r="AZ30" s="41">
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="41">
         <f>7/365</f>
         <v>1.9178082191780823E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>72</v>
       </c>
@@ -3622,10 +3638,6 @@
       <c r="D31" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
       <c r="AJ31" s="42"/>
       <c r="AK31" s="42"/>
       <c r="AL31" s="42"/>
@@ -3642,14 +3654,18 @@
       <c r="AW31" s="42"/>
       <c r="AX31" s="42"/>
       <c r="AY31" s="42"/>
-      <c r="AZ31" s="41">
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="41">
         <v>0</v>
       </c>
-      <c r="BH31" s="41">
+      <c r="BL31" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>43</v>
       </c>
@@ -3663,17 +3679,17 @@
       <c r="I32" s="41">
         <v>0</v>
       </c>
-      <c r="R32" s="41">
+      <c r="V32" s="41">
         <v>532947</v>
       </c>
-      <c r="X32" s="41">
+      <c r="AB32" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ32" s="41">
+      <c r="BD32" s="41">
         <v>739284639</v>
       </c>
     </row>
-    <row r="33" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>54</v>
       </c>
@@ -3686,19 +3702,19 @@
       <c r="D33" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AB33" s="43"/>
-      <c r="AL33" s="43"/>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="43"/>
-      <c r="AT33" s="43"/>
-      <c r="AU33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AP33" s="43"/>
       <c r="AV33" s="43"/>
       <c r="AW33" s="43"/>
       <c r="AX33" s="43"/>
       <c r="AY33" s="43"/>
       <c r="AZ33" s="43"/>
-    </row>
-    <row r="34" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BA33" s="43"/>
+      <c r="BB33" s="43"/>
+      <c r="BC33" s="43"/>
+      <c r="BD33" s="43"/>
+    </row>
+    <row r="34" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>55</v>
       </c>
@@ -3754,8 +3770,12 @@
       <c r="AX34" s="43"/>
       <c r="AY34" s="43"/>
       <c r="AZ34" s="43"/>
-    </row>
-    <row r="35" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BA34" s="43"/>
+      <c r="BB34" s="43"/>
+      <c r="BC34" s="43"/>
+      <c r="BD34" s="43"/>
+    </row>
+    <row r="35" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>56</v>
       </c>
@@ -3769,7 +3789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>57</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>80</v>
       </c>
@@ -3798,154 +3818,166 @@
         <v>13</v>
       </c>
       <c r="E37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="F37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="G37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="H37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="J37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="K37" s="49">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="L37" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="51">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N37" s="51">
+        <v>0.22</v>
+      </c>
+      <c r="O37" s="51">
+        <v>0.111</v>
+      </c>
+      <c r="P37" s="51">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q37" s="1">
         <v>0.13100000000000001</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>0.114</v>
       </c>
-      <c r="O37">
+      <c r="S37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="Q37">
+      <c r="U37">
         <v>7.8E-2</v>
       </c>
-      <c r="R37">
+      <c r="V37">
         <v>0.14499999999999999</v>
       </c>
-      <c r="S37">
+      <c r="W37">
         <v>0.11199999999999999</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U37">
+      <c r="Y37">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="V37">
+      <c r="Z37">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="W37">
+      <c r="AA37">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="X37">
+      <c r="AB37">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="Y37">
+      <c r="AC37">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="Z37">
+      <c r="AD37">
         <v>0.11800000000000001</v>
       </c>
-      <c r="AA37">
+      <c r="AE37">
         <v>6.2E-2</v>
       </c>
-      <c r="AB37">
+      <c r="AF37">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="AC37">
+      <c r="AG37">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AD37">
+      <c r="AH37">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AE37">
+      <c r="AI37">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="AF37">
+      <c r="AJ37">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AG37">
+      <c r="AK37">
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="AH37">
+      <c r="AL37">
         <v>3.1E-2</v>
       </c>
-      <c r="AI37">
+      <c r="AM37">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AJ37">
+      <c r="AN37">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AK37">
+      <c r="AO37">
         <v>0.02</v>
       </c>
-      <c r="AL37">
+      <c r="AP37">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="AM37">
+      <c r="AQ37">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AN37">
+      <c r="AR37">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AO37">
+      <c r="AS37">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AP37">
+      <c r="AT37">
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="AQ37">
+      <c r="AU37">
         <v>2.4E-2</v>
       </c>
-      <c r="AR37">
+      <c r="AV37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS37">
+      <c r="AW37">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AT37">
+      <c r="AX37">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AU37">
+      <c r="AY37">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AV37">
+      <c r="AZ37">
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="AW37">
+      <c r="BA37">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AX37">
+      <c r="BB37">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AY37">
+      <c r="BC37">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="AZ37">
+      <c r="BD37">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BA37" s="7">
+      <c r="BE37" s="7">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>82</v>
       </c>
@@ -3959,160 +3991,172 @@
         <v>13</v>
       </c>
       <c r="E38" s="49">
-        <v>116.4</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F38" s="49">
-        <v>116.4</v>
+        <v>4.84</v>
       </c>
       <c r="G38" s="49">
-        <v>116.4</v>
+        <v>5.44</v>
       </c>
       <c r="H38" s="49">
-        <v>116.4</v>
+        <v>6.11</v>
       </c>
       <c r="I38" s="49">
-        <v>116.4</v>
+        <v>6.86</v>
       </c>
       <c r="J38" s="49">
-        <v>116.4</v>
+        <v>7.7</v>
       </c>
       <c r="K38" s="50">
-        <v>14.02</v>
+        <v>8.68</v>
       </c>
       <c r="L38" s="50">
-        <v>14.59</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="M38" s="50">
+        <v>9.41</v>
+      </c>
+      <c r="N38" s="50">
+        <v>11.48</v>
+      </c>
+      <c r="O38" s="50">
+        <v>12.75</v>
+      </c>
+      <c r="P38" s="50">
+        <v>14.6</v>
+      </c>
+      <c r="Q38" s="50">
         <v>16.5</v>
       </c>
-      <c r="N38" s="50">
+      <c r="R38" s="50">
         <v>18.38</v>
       </c>
-      <c r="O38" s="50">
+      <c r="S38" s="50">
         <v>19.670000000000002</v>
       </c>
-      <c r="P38" s="50">
+      <c r="T38" s="50">
         <v>20.87</v>
       </c>
-      <c r="Q38" s="50">
+      <c r="U38" s="50">
         <v>22.5</v>
       </c>
-      <c r="R38" s="50">
+      <c r="V38" s="50">
         <v>25.9</v>
       </c>
-      <c r="S38" s="1">
+      <c r="W38" s="1">
         <v>28.8</v>
       </c>
-      <c r="T38" s="1">
+      <c r="X38" s="1">
         <v>30.8</v>
       </c>
-      <c r="U38" s="1">
+      <c r="Y38" s="1">
         <v>32.9</v>
       </c>
-      <c r="V38" s="1">
+      <c r="Z38" s="1">
         <v>34.6</v>
       </c>
-      <c r="W38" s="1">
+      <c r="AA38" s="1">
         <v>36.1</v>
       </c>
-      <c r="X38" s="1">
+      <c r="AB38" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="AC38" s="1">
         <v>38.9</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AD38" s="1">
         <v>43.4</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AE38" s="1">
         <v>46.1</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AF38" s="1">
         <v>49.9</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AG38" s="1">
         <v>53.1</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AH38" s="1">
         <v>55.7</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AI38" s="1">
         <v>58.6</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AJ38" s="1">
         <v>59.1</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AK38" s="1">
         <v>60.4</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AL38" s="1">
         <v>62.2</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AM38" s="1">
         <v>64.3</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AN38" s="1">
         <v>68</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AO38" s="1">
         <v>69.3</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AP38" s="1">
         <v>70.099999999999994</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AQ38" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="AN38" s="1">
+      <c r="AR38" s="1">
         <v>73.599999999999994</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="AS38" s="1">
         <v>76.7</v>
       </c>
-      <c r="AP38" s="1">
+      <c r="AT38" s="1">
         <v>78.900000000000006</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AU38" s="1">
         <v>80.8</v>
       </c>
-      <c r="AR38" s="1">
+      <c r="AV38" s="1">
         <v>82.8</v>
       </c>
-      <c r="AS38" s="1">
+      <c r="AW38" s="1">
         <v>86.7</v>
       </c>
-      <c r="AT38" s="1">
+      <c r="AX38" s="1">
         <v>93.4</v>
       </c>
-      <c r="AU38" s="1">
+      <c r="AY38" s="1">
         <v>96.5</v>
       </c>
-      <c r="AV38" s="1">
+      <c r="AZ38" s="1">
         <v>100</v>
       </c>
-      <c r="AW38" s="1">
+      <c r="BA38" s="1">
         <v>107.3</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="BB38" s="1">
         <v>110.9</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="BC38" s="1">
         <v>114.2</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BD38" s="1">
         <v>114.8</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BE38" s="1">
         <v>116.4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BA31 E2:BC2 E4:BC4 E10:BC10 E20:BC20 E22:BC22 E24:BC24 E26:BC26 E12:BC12 E14:BC14 E16:BC16 E18:BC18 E8:BC8 BB28:BC30 N37:AW37">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BE31 E2:BG2 E4:BG4 E10:BG10 E20:BG20 E22:BG22 E24:BG24 E26:BG26 E12:BG12 E14:BG14 E16:BG16 E18:BG18 E8:BG8 BF28:BG30 R37:BA37">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:BC9 BB31:BC31 E3:BC3 E11:BC11 E13:BC13 E15:BC15 E17:BC17 E19:BC19 E21:BC21 E23:BC23 E25:BC25 E27:BC27 E32:BC32 E5:BC7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:BG9 BF31:BG31 E3:BG3 E11:BG11 E13:BG13 E15:BG15 E17:BG17 E19:BG19 E21:BG21 E23:BG23 E25:BG25 E27:BG27 E32:BG32 E5:BG7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2448,10 +2448,10 @@
   <dimension ref="A1:BN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="44" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2448,10 +2448,10 @@
   <dimension ref="A1:BN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,11 +2473,18 @@
     <col min="27" max="28" width="7.42578125" style="1" customWidth="1"/>
     <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.140625" style="1" customWidth="1"/>
-    <col min="31" max="42" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8" style="1" customWidth="1"/>
-    <col min="44" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="8" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="7.85546875" style="1" customWidth="1"/>
@@ -2756,26 +2763,49 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
       <c r="D3" s="44" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
       <c r="J3" s="7">
-        <v>10000000</v>
+        <v>300000</v>
       </c>
       <c r="Q3" s="7">
-        <v>15040500</v>
+        <v>400000</v>
       </c>
       <c r="AA3" s="7">
-        <v>39034561</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>1</v>
+        <v>500000</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>3500000</v>
       </c>
     </row>
     <row r="4" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4156,7 +4186,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:BG9 BF31:BG31 E3:BG3 E11:BG11 E13:BG13 E15:BG15 E17:BG17 E19:BG19 E21:BG21 E23:BG23 E25:BG25 E27:BG27 E32:BG32 E5:BG7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:BG9 BF31:BG31 E5:BG7 E11:BG11 E13:BG13 E15:BG15 E17:BG17 E19:BG19 E21:BG21 E23:BG23 E25:BG25 E27:BG27 E32:BG32 E3:BG3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2451,7 +2451,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD3" sqref="BD3"/>
+      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,7 +2480,9 @@
     <col min="36" max="41" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8" style="1" customWidth="1"/>
-    <col min="44" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="8" style="1" customWidth="1"/>
@@ -2801,11 +2803,38 @@
       <c r="AP3" s="7">
         <v>2000000</v>
       </c>
+      <c r="AT3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>2500000</v>
+      </c>
       <c r="AZ3" s="7">
-        <v>3000000</v>
+        <v>2500000</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>2500000</v>
       </c>
       <c r="BD3" s="7">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="4" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -2265,7 +2265,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,10 +2448,10 @@
   <dimension ref="A1:BN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
+      <selection pane="bottomRight" activeCell="BC9" sqref="BC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,13 +2887,13 @@
         <v>50</v>
       </c>
       <c r="BH4" s="9">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="BI4" s="9">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BN4" s="9">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -264,7 +264,7 @@
     <t>scenario_9</t>
   </si>
   <si>
-    <t>cpi</t>
+    <t>econ_cpi</t>
   </si>
 </sst>
 </file>
@@ -2448,10 +2448,10 @@
   <dimension ref="A1:BN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC9" sqref="BC9"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -258,13 +258,13 @@
     <t>program_cost_ipt</t>
   </si>
   <si>
-    <t>inflation</t>
-  </si>
-  <si>
     <t>scenario_9</t>
   </si>
   <si>
     <t>econ_cpi</t>
+  </si>
+  <si>
+    <t>econ_inflation</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2451,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2693,7 @@
         <v>77</v>
       </c>
       <c r="BN1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -259,12 +259,6 @@
   </si>
   <si>
     <t>scenario_9</t>
-  </si>
-  <si>
-    <t>econ_cpi</t>
-  </si>
-  <si>
-    <t>econ_inflation</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2445,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,350 +3858,77 @@
       </c>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="F37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="G37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="H37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="I37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="J37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="K37" s="49">
-        <v>0.123</v>
-      </c>
-      <c r="L37" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M37" s="51">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="N37" s="51">
-        <v>0.22</v>
-      </c>
-      <c r="O37" s="51">
-        <v>0.111</v>
-      </c>
-      <c r="P37" s="51">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="R37">
-        <v>0.114</v>
-      </c>
-      <c r="S37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T37">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="U37">
-        <v>7.8E-2</v>
-      </c>
-      <c r="V37">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="W37">
-        <v>0.11199999999999999</v>
-      </c>
-      <c r="X37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y37">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="Z37">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AA37">
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="AB37">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="AC37">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AD37">
-        <v>0.11800000000000001</v>
-      </c>
-      <c r="AE37">
-        <v>6.2E-2</v>
-      </c>
-      <c r="AF37">
-        <v>8.199999999999999E-2</v>
-      </c>
-      <c r="AG37">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AH37">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="AI37">
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="AJ37">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AK37">
-        <v>2.2000000000000002E-2</v>
-      </c>
-      <c r="AL37">
-        <v>3.1E-2</v>
-      </c>
-      <c r="AM37">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="AN37">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AO37">
-        <v>0.02</v>
-      </c>
-      <c r="AP37">
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="AQ37">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="AR37">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AS37">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AT37">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="AU37">
-        <v>2.4E-2</v>
-      </c>
-      <c r="AV37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AW37">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AX37">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="AY37">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AZ37">
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="BA37">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="BB37">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="BC37">
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="BD37">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BE37" s="7">
-        <v>1.4E-2</v>
-      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37" s="7"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="49">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="F38" s="49">
-        <v>4.84</v>
-      </c>
-      <c r="G38" s="49">
-        <v>5.44</v>
-      </c>
-      <c r="H38" s="49">
-        <v>6.11</v>
-      </c>
-      <c r="I38" s="49">
-        <v>6.86</v>
-      </c>
-      <c r="J38" s="49">
-        <v>7.7</v>
-      </c>
-      <c r="K38" s="50">
-        <v>8.68</v>
-      </c>
-      <c r="L38" s="50">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="M38" s="50">
-        <v>9.41</v>
-      </c>
-      <c r="N38" s="50">
-        <v>11.48</v>
-      </c>
-      <c r="O38" s="50">
-        <v>12.75</v>
-      </c>
-      <c r="P38" s="50">
-        <v>14.6</v>
-      </c>
-      <c r="Q38" s="50">
-        <v>16.5</v>
-      </c>
-      <c r="R38" s="50">
-        <v>18.38</v>
-      </c>
-      <c r="S38" s="50">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="T38" s="50">
-        <v>20.87</v>
-      </c>
-      <c r="U38" s="50">
-        <v>22.5</v>
-      </c>
-      <c r="V38" s="50">
-        <v>25.9</v>
-      </c>
-      <c r="W38" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="X38" s="1">
-        <v>30.8</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>32.9</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>34.6</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>36.1</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>43.4</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>46.1</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>53.1</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>55.7</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>58.6</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>59.1</v>
-      </c>
-      <c r="AK38" s="1">
-        <v>60.4</v>
-      </c>
-      <c r="AL38" s="1">
-        <v>62.2</v>
-      </c>
-      <c r="AM38" s="1">
-        <v>64.3</v>
-      </c>
-      <c r="AN38" s="1">
-        <v>68</v>
-      </c>
-      <c r="AO38" s="1">
-        <v>69.3</v>
-      </c>
-      <c r="AP38" s="1">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="AQ38" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="AR38" s="1">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="AS38" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="AT38" s="1">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AU38" s="1">
-        <v>80.8</v>
-      </c>
-      <c r="AV38" s="1">
-        <v>82.8</v>
-      </c>
-      <c r="AW38" s="1">
-        <v>86.7</v>
-      </c>
-      <c r="AX38" s="1">
-        <v>93.4</v>
-      </c>
-      <c r="AY38" s="1">
-        <v>96.5</v>
-      </c>
-      <c r="AZ38" s="1">
-        <v>100</v>
-      </c>
-      <c r="BA38" s="1">
-        <v>107.3</v>
-      </c>
-      <c r="BB38" s="1">
-        <v>110.9</v>
-      </c>
-      <c r="BC38" s="1">
-        <v>114.2</v>
-      </c>
-      <c r="BD38" s="1">
-        <v>114.8</v>
-      </c>
-      <c r="BE38" s="1">
-        <v>116.4</v>
-      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -178,18 +178,6 @@
   </si>
   <si>
     <t>time_variant</t>
-  </si>
-  <si>
-    <t>demo_life_expectancy</t>
-  </si>
-  <si>
-    <t>demo_rate_birth</t>
-  </si>
-  <si>
-    <t>epi_prop_smearpos</t>
-  </si>
-  <si>
-    <t>epi_prop_smearneg</t>
   </si>
   <si>
     <t>start_time</t>
@@ -1230,7 +1218,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1278,7 +1266,6 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1286,9 +1273,6 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2373,59 +2357,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="47">
+        <v>1895</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="47">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="45">
+        <v>190000</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="48">
-        <v>1895</v>
-      </c>
-      <c r="C10" s="47" t="s">
+    </row>
+    <row r="14" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="45">
+        <v>3</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="48">
-        <v>2016</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="48">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="46">
-        <v>190000</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="46">
-        <v>3</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2439,13 +2423,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BN38"/>
+  <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,25 +2653,25 @@
         <v>45</v>
       </c>
       <c r="BH1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BJ1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2748,7 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7">
@@ -2898,7 +2882,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -2910,7 +2894,7 @@
     </row>
     <row r="6" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -2933,13 +2917,13 @@
     </row>
     <row r="7" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2986,7 +2970,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="11">
@@ -3036,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AB11" s="13">
@@ -3074,7 +3058,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AB13" s="15">
@@ -3115,7 +3099,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AB15" s="15">
@@ -3186,7 +3170,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3268,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="13">
@@ -3332,7 +3316,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="24">
@@ -3405,7 +3389,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="24">
@@ -3469,7 +3453,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3542,7 +3526,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="9">
@@ -3554,7 +3538,7 @@
     </row>
     <row r="28" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>13</v>
@@ -3596,7 +3580,7 @@
     </row>
     <row r="29" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>13</v>
@@ -3638,7 +3622,7 @@
     </row>
     <row r="30" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>13</v>
@@ -3680,7 +3664,7 @@
     </row>
     <row r="31" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>13</v>
@@ -3726,7 +3710,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="40"/>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="41">
@@ -3742,197 +3726,29 @@
         <v>739284639</v>
       </c>
     </row>
-    <row r="33" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF33" s="43"/>
-      <c r="AP33" s="43"/>
-      <c r="AV33" s="43"/>
-      <c r="AW33" s="43"/>
-      <c r="AX33" s="43"/>
-      <c r="AY33" s="43"/>
-      <c r="AZ33" s="43"/>
-      <c r="BA33" s="43"/>
-      <c r="BB33" s="43"/>
-      <c r="BC33" s="43"/>
-      <c r="BD33" s="43"/>
-    </row>
-    <row r="34" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="43"/>
-      <c r="AF34" s="43"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="43"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="43"/>
-      <c r="AU34" s="43"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="43"/>
-      <c r="AY34" s="43"/>
-      <c r="AZ34" s="43"/>
-      <c r="BA34" s="43"/>
-      <c r="BB34" s="43"/>
-      <c r="BC34" s="43"/>
-      <c r="BD34" s="43"/>
-    </row>
-    <row r="35" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="44" t="str">
-        <f>D35</f>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-      <c r="AN37"/>
-      <c r="AO37"/>
-      <c r="AP37"/>
-      <c r="AQ37"/>
-      <c r="AR37"/>
-      <c r="AS37"/>
-      <c r="AT37"/>
-      <c r="AU37"/>
-      <c r="AV37"/>
-      <c r="AW37"/>
-      <c r="AX37"/>
-      <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="BA37"/>
-      <c r="BB37"/>
-      <c r="BC37"/>
-      <c r="BD37"/>
-      <c r="BE37" s="7"/>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BE31 E2:BG2 E4:BG4 E10:BG10 E20:BG20 E22:BG22 E24:BG24 E26:BG26 E12:BG12 E14:BG14 E16:BG16 E18:BG18 E8:BG8 BF28:BG30 R37:BA37">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:BE31 E2:BG2 E4:BG4 E10:BG10 E20:BG20 E22:BG22 E24:BG24 E26:BG26 E12:BG12 E14:BG14 E16:BG16 E18:BG18 E8:BG8 BF28:BG30">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3950,30 +3766,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D34 D37:D1048576 D2:D32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -2242,8 +2242,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,7 +2425,7 @@
   </sheetPr>
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,23 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
-  <si>
-    <t>program_rate_restart_presenting</t>
-  </si>
-  <si>
-    <t>timepoint_introduce_xdr</t>
-  </si>
-  <si>
-    <t>program_rate_start_treatment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>program_prop_lowquality</t>
   </si>
   <si>
-    <t>program_rate_leavelowquality</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
@@ -135,18 +123,6 @@
     <t>Effective contact rate for TB</t>
   </si>
   <si>
-    <t>Inverse of time period that detected patients have to wait before starting treatment</t>
-  </si>
-  <si>
-    <t>Rate at which patients who were told they didn't have TB turn up again to the health system</t>
-  </si>
-  <si>
-    <t>Calendar year that XDR-TB first emerged</t>
-  </si>
-  <si>
-    <t>Rate at which patients change from the low quality to the high quality health system</t>
-  </si>
-  <si>
     <t>program_cost_await_treatment</t>
   </si>
   <si>
@@ -160,18 +136,6 @@
   </si>
   <si>
     <t>smoothness</t>
-  </si>
-  <si>
-    <t>start_mdr_introduce_period</t>
-  </si>
-  <si>
-    <t>end_mdr_introduce_period</t>
-  </si>
-  <si>
-    <t>Calendar year that MDR-TB first begins to emerge</t>
-  </si>
-  <si>
-    <t>Calendar year that MDR-TB amplification reaches full parameter value</t>
   </si>
   <si>
     <t>program_prop_death_reporting</t>
@@ -2240,10 +2204,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,159 +2221,93 @@
   <sheetData>
     <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="34">
         <v>6.7</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34">
-        <v>26</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="34">
-        <v>4</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="4" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="47">
+        <v>1895</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="34">
-        <v>1945</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="47">
+        <v>2016</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="47">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="34">
-        <v>1955</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34">
-        <v>2050</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="34">
-        <v>2</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="35">
-        <v>0.22</v>
-      </c>
-      <c r="C9" s="31" t="s">
+    <row r="7" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="45">
+        <v>190000</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="47">
-        <v>1895</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="47">
-        <v>2016</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="47">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="45">
-        <v>190000</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="45">
+    <row r="8" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="45">
         <v>3</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>59</v>
+      <c r="C8" s="44" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2476,16 +2374,16 @@
   <sheetData>
     <row r="1" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -2647,45 +2545,45 @@
         <v>2015</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BG1" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="BN1" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -2740,16 +2638,16 @@
     </row>
     <row r="3" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -2817,16 +2715,16 @@
     </row>
     <row r="4" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="8">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -2876,14 +2774,14 @@
     </row>
     <row r="5" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -2894,16 +2792,16 @@
     </row>
     <row r="6" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB6" s="9">
         <v>0</v>
@@ -2917,28 +2815,28 @@
     </row>
     <row r="7" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="11">
         <v>70</v>
@@ -2964,14 +2862,14 @@
     </row>
     <row r="9" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" s="11">
         <v>1005000</v>
@@ -2988,16 +2886,16 @@
     </row>
     <row r="10" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10" s="13">
         <v>30</v>
@@ -3014,14 +2912,14 @@
     </row>
     <row r="11" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB11" s="13">
         <v>1</v>
@@ -3029,16 +2927,16 @@
     </row>
     <row r="12" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="V12" s="15">
         <v>30</v>
@@ -3052,14 +2950,14 @@
     </row>
     <row r="13" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB13" s="15">
         <v>1</v>
@@ -3067,16 +2965,16 @@
     </row>
     <row r="14" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="14">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I14" s="15">
         <v>7</v>
@@ -3093,14 +2991,14 @@
     </row>
     <row r="15" spans="1:66" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB15" s="15">
         <v>1</v>
@@ -3108,16 +3006,16 @@
     </row>
     <row r="16" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -3164,14 +3062,14 @@
     </row>
     <row r="17" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -3191,16 +3089,16 @@
     </row>
     <row r="18" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
@@ -3246,14 +3144,14 @@
     </row>
     <row r="19" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -3264,16 +3162,16 @@
     </row>
     <row r="20" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="23">
         <v>1</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I20" s="24">
         <v>0</v>
@@ -3310,14 +3208,14 @@
     </row>
     <row r="21" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I21" s="24">
         <v>0</v>
@@ -3337,16 +3235,16 @@
     </row>
     <row r="22" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I22" s="24">
         <v>0</v>
@@ -3383,14 +3281,14 @@
     </row>
     <row r="23" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I23" s="24">
         <v>0</v>
@@ -3401,16 +3299,16 @@
     </row>
     <row r="24" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
@@ -3447,14 +3345,14 @@
     </row>
     <row r="25" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
@@ -3474,16 +3372,16 @@
     </row>
     <row r="26" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I26" s="9">
         <v>0</v>
@@ -3520,14 +3418,14 @@
     </row>
     <row r="27" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -3538,16 +3436,16 @@
     </row>
     <row r="28" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="40">
         <v>1</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E28" s="41">
         <f>2/365</f>
@@ -3580,16 +3478,16 @@
     </row>
     <row r="29" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="40">
         <v>1</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29" s="41">
         <f>30/365</f>
@@ -3622,16 +3520,16 @@
     </row>
     <row r="30" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="40">
         <v>1</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E30" s="41">
         <f>7/365</f>
@@ -3664,16 +3562,16 @@
     </row>
     <row r="31" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="40">
         <v>1</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ31" s="42"/>
       <c r="AK31" s="42"/>
@@ -3704,14 +3602,14 @@
     </row>
     <row r="32" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I32" s="41">
         <v>0</v>
@@ -3800,17 +3698,17 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>program_prop_lowquality</t>
   </si>
@@ -153,13 +153,7 @@
     <t>susceptible_fully</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>Starting population of fully susceptible persons (essentially the starting population size)</t>
-  </si>
-  <si>
-    <t>Seed of patients with active TB</t>
   </si>
   <si>
     <t>scenario_start_time</t>
@@ -2204,10 +2198,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,24 +2262,24 @@
     </row>
     <row r="5" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="47">
         <v>2016</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="47">
         <v>2020</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2296,18 +2290,7 @@
         <v>190000</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="45">
-        <v>3</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2551,25 +2534,25 @@
         <v>37</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BI1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BL1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="BN1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2792,7 +2775,7 @@
     </row>
     <row r="6" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
@@ -2815,7 +2798,7 @@
     </row>
     <row r="7" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>19</v>
@@ -3436,7 +3419,7 @@
     </row>
     <row r="28" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>9</v>
@@ -3478,7 +3461,7 @@
     </row>
     <row r="29" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>9</v>
@@ -3520,7 +3503,7 @@
     </row>
     <row r="30" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>9</v>
@@ -3562,7 +3545,7 @@
     </row>
     <row r="31" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>9</v>

--- a/autumn/xls/programs_fiji.xlsx
+++ b/autumn/xls/programs_fiji.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="country_constants" sheetId="1" r:id="rId1"/>
+    <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>program_prop_lowquality</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>scenario_9</t>
+  </si>
+  <si>
+    <t>scipy</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>runge_kutta</t>
   </si>
 </sst>
 </file>
@@ -2200,8 +2212,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,27 +3683,45 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
